--- a/Autostockin/stockin49.xlsx
+++ b/Autostockin/stockin49.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstuff\my-work-python-script\Autostockin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD9C547-3F93-4CAC-BB6A-E8C78B811B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF93799-9DC0-4959-B503-41C6C33D3F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="3180" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="595">
   <si>
     <t>+186-1517</t>
   </si>
@@ -1324,6 +1324,498 @@
   </si>
   <si>
     <t>23800</t>
+  </si>
+  <si>
+    <t>+3620-796</t>
+  </si>
+  <si>
+    <t>+593-1194</t>
+  </si>
+  <si>
+    <t>+6448-633</t>
+  </si>
+  <si>
+    <t>+17294-220</t>
+  </si>
+  <si>
+    <t>+1333-594</t>
+  </si>
+  <si>
+    <t>+17297-220</t>
+  </si>
+  <si>
+    <t>+21998-106</t>
+  </si>
+  <si>
+    <t>+22046-182</t>
+  </si>
+  <si>
+    <t>+19466-646</t>
+  </si>
+  <si>
+    <t>+552-1087</t>
+  </si>
+  <si>
+    <t>+173035-33</t>
+  </si>
+  <si>
+    <t>+754-1480</t>
+  </si>
+  <si>
+    <t>+17292-220</t>
+  </si>
+  <si>
+    <t>+814-1445</t>
+  </si>
+  <si>
+    <t>+817-1445</t>
+  </si>
+  <si>
+    <t>+813-1445</t>
+  </si>
+  <si>
+    <t>+17290-220</t>
+  </si>
+  <si>
+    <t>+816-1445</t>
+  </si>
+  <si>
+    <t>+173032-33</t>
+  </si>
+  <si>
+    <t>+173031-33</t>
+  </si>
+  <si>
+    <t>+22056-182</t>
+  </si>
+  <si>
+    <t>+788-1402</t>
+  </si>
+  <si>
+    <t>+15015-335</t>
+  </si>
+  <si>
+    <t>+17291-220</t>
+  </si>
+  <si>
+    <t>+17295-220</t>
+  </si>
+  <si>
+    <t>+17296-220</t>
+  </si>
+  <si>
+    <t>+12542-314</t>
+  </si>
+  <si>
+    <t>+811-1445</t>
+  </si>
+  <si>
+    <t>+26969-232</t>
+  </si>
+  <si>
+    <t>+30771-65</t>
+  </si>
+  <si>
+    <t>+17293-220</t>
+  </si>
+  <si>
+    <t>+17301-220</t>
+  </si>
+  <si>
+    <t>+3721-696</t>
+  </si>
+  <si>
+    <t>+187088-77</t>
+  </si>
+  <si>
+    <t>+169-1530</t>
+  </si>
+  <si>
+    <t>+5667-281</t>
+  </si>
+  <si>
+    <t>+2016-705</t>
+  </si>
+  <si>
+    <t>+0035-1583</t>
+  </si>
+  <si>
+    <t>+619-577</t>
+  </si>
+  <si>
+    <t>+1087-1222</t>
+  </si>
+  <si>
+    <t>+26974-232</t>
+  </si>
+  <si>
+    <t>+2445-1369</t>
+  </si>
+  <si>
+    <t>+26979-232</t>
+  </si>
+  <si>
+    <t>+401-1454</t>
+  </si>
+  <si>
+    <t>+26978-232</t>
+  </si>
+  <si>
+    <t>+19923-115</t>
+  </si>
+  <si>
+    <t>+26972-232</t>
+  </si>
+  <si>
+    <t>+242-1524</t>
+  </si>
+  <si>
+    <t>+162-2197</t>
+  </si>
+  <si>
+    <t>+1858-1321</t>
+  </si>
+  <si>
+    <t>+916-1429</t>
+  </si>
+  <si>
+    <t>+1738-1202</t>
+  </si>
+  <si>
+    <t>+1512-886</t>
+  </si>
+  <si>
+    <t>+13083-206</t>
+  </si>
+  <si>
+    <t>+5758-694</t>
+  </si>
+  <si>
+    <t>+187051-77</t>
+  </si>
+  <si>
+    <t>+186995-77</t>
+  </si>
+  <si>
+    <t>+216-1496</t>
+  </si>
+  <si>
+    <t>+187052-77</t>
+  </si>
+  <si>
+    <t>+471-1345</t>
+  </si>
+  <si>
+    <t>186996-77</t>
+  </si>
+  <si>
+    <t>+3694-687</t>
+  </si>
+  <si>
+    <t>+187061-77</t>
+  </si>
+  <si>
+    <t>+442-598</t>
+  </si>
+  <si>
+    <t>+187058-77</t>
+  </si>
+  <si>
+    <t>+187073-77</t>
+  </si>
+  <si>
+    <t>+6396-667</t>
+  </si>
+  <si>
+    <t>+187055-77</t>
+  </si>
+  <si>
+    <t>+12310-645</t>
+  </si>
+  <si>
+    <t>+6830-370</t>
+  </si>
+  <si>
+    <t>+3517-1088</t>
+  </si>
+  <si>
+    <t>+192-2175</t>
+  </si>
+  <si>
+    <t>+239-1506</t>
+  </si>
+  <si>
+    <t>+662-1341</t>
+  </si>
+  <si>
+    <t>+1368-2060</t>
+  </si>
+  <si>
+    <t>+178-1728</t>
+  </si>
+  <si>
+    <t>+45533-147</t>
+  </si>
+  <si>
+    <t>+2258-656</t>
+  </si>
+  <si>
+    <t>+12632-105</t>
+  </si>
+  <si>
+    <t>+1117-578</t>
+  </si>
+  <si>
+    <t>+0042-1106</t>
+  </si>
+  <si>
+    <t>+526-2016</t>
+  </si>
+  <si>
+    <t>+565-1711</t>
+  </si>
+  <si>
+    <t>+3443-340</t>
+  </si>
+  <si>
+    <t>+3542-543</t>
+  </si>
+  <si>
+    <t>+1532-708</t>
+  </si>
+  <si>
+    <t>+179-1545</t>
+  </si>
+  <si>
+    <t>+2051-780</t>
+  </si>
+  <si>
+    <t>+187068-77</t>
+  </si>
+  <si>
+    <t>+2443-741</t>
+  </si>
+  <si>
+    <t>1197-1237</t>
+  </si>
+  <si>
+    <t>+162-1529</t>
+  </si>
+  <si>
+    <t>+750-1480</t>
+  </si>
+  <si>
+    <t>+13949-138</t>
+  </si>
+  <si>
+    <t>+28359-53</t>
+  </si>
+  <si>
+    <t>+19828-459</t>
+  </si>
+  <si>
+    <t>+18368-112</t>
+  </si>
+  <si>
+    <t>+920-1429</t>
+  </si>
+  <si>
+    <t>+983-2098</t>
+  </si>
+  <si>
+    <t>+402-1454</t>
+  </si>
+  <si>
+    <t>+2964-1211</t>
+  </si>
+  <si>
+    <t>+13948-138</t>
+  </si>
+  <si>
+    <t>+0046-1589</t>
+  </si>
+  <si>
+    <t>+1390-947</t>
+  </si>
+  <si>
+    <t>+917-1429</t>
+  </si>
+  <si>
+    <t>+13947-138</t>
+  </si>
+  <si>
+    <t>+499-1564</t>
+  </si>
+  <si>
+    <t>+26968-232</t>
+  </si>
+  <si>
+    <t>+12436-321</t>
+  </si>
+  <si>
+    <t>+10666-443</t>
+  </si>
+  <si>
+    <t>+2496-754</t>
+  </si>
+  <si>
+    <t>+2993-168</t>
+  </si>
+  <si>
+    <t>+2930-484</t>
+  </si>
+  <si>
+    <t>+604-1198</t>
+  </si>
+  <si>
+    <t>+3423-707</t>
+  </si>
+  <si>
+    <t>+3614-695</t>
+  </si>
+  <si>
+    <t>+225-1559</t>
+  </si>
+  <si>
+    <t>+7023-319</t>
+  </si>
+  <si>
+    <t>+1606-1258</t>
+  </si>
+  <si>
+    <t>+8832-233</t>
+  </si>
+  <si>
+    <t>+919-1429</t>
+  </si>
+  <si>
+    <t>+2764-686</t>
+  </si>
+  <si>
+    <t>+195-1523</t>
+  </si>
+  <si>
+    <t>+10670-443</t>
+  </si>
+  <si>
+    <t>+1350-1071</t>
+  </si>
+  <si>
+    <t>+163-1532</t>
+  </si>
+  <si>
+    <t>+1088-828</t>
+  </si>
+  <si>
+    <t>+2260-656</t>
+  </si>
+  <si>
+    <t>+403-1454</t>
+  </si>
+  <si>
+    <t>+3854-377</t>
+  </si>
+  <si>
+    <t>+0021-1592</t>
+  </si>
+  <si>
+    <t>+38195-31</t>
+  </si>
+  <si>
+    <t>+616-2091</t>
+  </si>
+  <si>
+    <t>+4037-768</t>
+  </si>
+  <si>
+    <t>+999-859</t>
+  </si>
+  <si>
+    <t>+406-1454</t>
+  </si>
+  <si>
+    <t>+1979-651</t>
+  </si>
+  <si>
+    <t>+12637-105</t>
+  </si>
+  <si>
+    <t>+6520-664</t>
+  </si>
+  <si>
+    <t>+202-868</t>
+  </si>
+  <si>
+    <t>+4248-414</t>
+  </si>
+  <si>
+    <t>+880-995</t>
+  </si>
+  <si>
+    <t>+203-868</t>
+  </si>
+  <si>
+    <t>+12599-410</t>
+  </si>
+  <si>
+    <t>+4409-632</t>
+  </si>
+  <si>
+    <t>+2587-1244</t>
+  </si>
+  <si>
+    <t>+0086-2179</t>
+  </si>
+  <si>
+    <t>+6520-417</t>
+  </si>
+  <si>
+    <t>+6519-417</t>
+  </si>
+  <si>
+    <t>+399-1454</t>
+  </si>
+  <si>
+    <t>+290-2144</t>
+  </si>
+  <si>
+    <t>193-1523</t>
+  </si>
+  <si>
+    <t>+719-2033</t>
+  </si>
+  <si>
+    <t>+2155-1317</t>
+  </si>
+  <si>
+    <t>+0069-2200</t>
+  </si>
+  <si>
+    <t>+12096-292</t>
+  </si>
+  <si>
+    <t>+3095-790</t>
+  </si>
+  <si>
+    <t>+405-1454</t>
+  </si>
+  <si>
+    <t>+0085-2179</t>
+  </si>
+  <si>
+    <t>+404-1454</t>
+  </si>
+  <si>
+    <t>+12095-292</t>
+  </si>
+  <si>
+    <t>+0049-1707</t>
+  </si>
+  <si>
+    <t>+3088-784</t>
+  </si>
+  <si>
+    <t>+607-1198</t>
   </si>
 </sst>
 </file>
@@ -1643,17 +2135,838 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A164"/>
   <sheetViews>
-    <sheetView topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="A306" sqref="A1:A306"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1663,7 +2976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71368BD7-53C4-4380-8070-6DA79B686E44}">
   <dimension ref="A1:D307"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D307"/>
     </sheetView>
   </sheetViews>

--- a/Autostockin/stockin49.xlsx
+++ b/Autostockin/stockin49.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstuff\my-work-python-script\Autostockin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3868B54F-CEA5-44EE-B7DF-82939F6EABF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898D0E80-1B04-4F50-9EE2-D58EE1767C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="1200" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,24 @@
     <sheet name="Database_Trade" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$B$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="1635">
   <si>
     <t>+7023-319</t>
   </si>
@@ -3967,6 +3977,969 @@
   </si>
   <si>
     <t>+519-1324</t>
+  </si>
+  <si>
+    <t>+457-838</t>
+  </si>
+  <si>
+    <t>+5767-308</t>
+  </si>
+  <si>
+    <t>+12363-645</t>
+  </si>
+  <si>
+    <t>+6952-910</t>
+  </si>
+  <si>
+    <t>+422-1548</t>
+  </si>
+  <si>
+    <t>+4127-661</t>
+  </si>
+  <si>
+    <t>+510-1324</t>
+  </si>
+  <si>
+    <t>+4972-744</t>
+  </si>
+  <si>
+    <t>+35269-222</t>
+  </si>
+  <si>
+    <t>+1759-1382</t>
+  </si>
+  <si>
+    <t>+16499-216</t>
+  </si>
+  <si>
+    <t>+6974-910</t>
+  </si>
+  <si>
+    <t>+35262-222</t>
+  </si>
+  <si>
+    <t>+642-1328</t>
+  </si>
+  <si>
+    <t>+6956-910</t>
+  </si>
+  <si>
+    <t>+794-1300</t>
+  </si>
+  <si>
+    <t>+865-1438</t>
+  </si>
+  <si>
+    <t>+1063-1101</t>
+  </si>
+  <si>
+    <t>+2166-1070</t>
+  </si>
+  <si>
+    <t>+35261-222</t>
+  </si>
+  <si>
+    <t>+23450-114</t>
+  </si>
+  <si>
+    <t>+3233-298</t>
+  </si>
+  <si>
+    <t>+615-1336</t>
+  </si>
+  <si>
+    <t>+871-1438</t>
+  </si>
+  <si>
+    <t>+3528-789</t>
+  </si>
+  <si>
+    <t>+6947-910</t>
+  </si>
+  <si>
+    <t>+6954-910</t>
+  </si>
+  <si>
+    <t>+3533-1088</t>
+  </si>
+  <si>
+    <t>+646-1287</t>
+  </si>
+  <si>
+    <t>+651-1287</t>
+  </si>
+  <si>
+    <t>+0052-1742</t>
+  </si>
+  <si>
+    <t>+116-1713</t>
+  </si>
+  <si>
+    <t>+3529-1088</t>
+  </si>
+  <si>
+    <t>+14016-293</t>
+  </si>
+  <si>
+    <t>+949-870</t>
+  </si>
+  <si>
+    <t>+2705-660</t>
+  </si>
+  <si>
+    <t>+417-1548</t>
+  </si>
+  <si>
+    <t>+420-1548</t>
+  </si>
+  <si>
+    <t>+935-870</t>
+  </si>
+  <si>
+    <t>+6030-1075</t>
+  </si>
+  <si>
+    <t>+630-593</t>
+  </si>
+  <si>
+    <t>+15510-172</t>
+  </si>
+  <si>
+    <t>+5034-732</t>
+  </si>
+  <si>
+    <t>528-998</t>
+  </si>
+  <si>
+    <t>+1617-1062</t>
+  </si>
+  <si>
+    <t>+3646-1014</t>
+  </si>
+  <si>
+    <t>+4533-748</t>
+  </si>
+  <si>
+    <t>+163-1529</t>
+  </si>
+  <si>
+    <t>+6908-263</t>
+  </si>
+  <si>
+    <t>+527-2039</t>
+  </si>
+  <si>
+    <t>+219-1716</t>
+  </si>
+  <si>
+    <t>+920-2036</t>
+  </si>
+  <si>
+    <t>+461-1111</t>
+  </si>
+  <si>
+    <t>+939-1290</t>
+  </si>
+  <si>
+    <t>+901-1174</t>
+  </si>
+  <si>
+    <t>6476-693</t>
+  </si>
+  <si>
+    <t>+188-1545</t>
+  </si>
+  <si>
+    <t>+0060-1350</t>
+  </si>
+  <si>
+    <t>+957-1196</t>
+  </si>
+  <si>
+    <t>+965-1196</t>
+  </si>
+  <si>
+    <t>+3530-1088</t>
+  </si>
+  <si>
+    <t>+1854-987</t>
+  </si>
+  <si>
+    <t>+0090-595</t>
+  </si>
+  <si>
+    <t>+0022-1743</t>
+  </si>
+  <si>
+    <t>+138-1504</t>
+  </si>
+  <si>
+    <t>+5217-740</t>
+  </si>
+  <si>
+    <t>+2553-511</t>
+  </si>
+  <si>
+    <t>+750-1303</t>
+  </si>
+  <si>
+    <t>+1876-738</t>
+  </si>
+  <si>
+    <t>+1026-2139</t>
+  </si>
+  <si>
+    <t>+6054-1075</t>
+  </si>
+  <si>
+    <t>+1376-2065</t>
+  </si>
+  <si>
+    <t>+1715-1204</t>
+  </si>
+  <si>
+    <t>+132-1534</t>
+  </si>
+  <si>
+    <t>+288-1327</t>
+  </si>
+  <si>
+    <t>+1685-979</t>
+  </si>
+  <si>
+    <t>+958-1196</t>
+  </si>
+  <si>
+    <t>+929-2044</t>
+  </si>
+  <si>
+    <t>+641-2070</t>
+  </si>
+  <si>
+    <t>+176-1526</t>
+  </si>
+  <si>
+    <t>+5220-740</t>
+  </si>
+  <si>
+    <t>+1187-1131</t>
+  </si>
+  <si>
+    <t>+180-1586</t>
+  </si>
+  <si>
+    <t>+5224-740</t>
+  </si>
+  <si>
+    <t>+3629-683</t>
+  </si>
+  <si>
+    <t>+1159-1451</t>
+  </si>
+  <si>
+    <t>+1339-1072</t>
+  </si>
+  <si>
+    <t>+5214-740</t>
+  </si>
+  <si>
+    <t>+323-1489</t>
+  </si>
+  <si>
+    <t>+230-1512</t>
+  </si>
+  <si>
+    <t>+1553-928</t>
+  </si>
+  <si>
+    <t>+1157-1451</t>
+  </si>
+  <si>
+    <t>+9648-245</t>
+  </si>
+  <si>
+    <t>+2945-1095</t>
+  </si>
+  <si>
+    <t>+1678-840</t>
+  </si>
+  <si>
+    <t>+1868-1046</t>
+  </si>
+  <si>
+    <t>+772-1415</t>
+  </si>
+  <si>
+    <t>+6026-1075</t>
+  </si>
+  <si>
+    <t>+966-1196</t>
+  </si>
+  <si>
+    <t>+5442-318</t>
+  </si>
+  <si>
+    <t>+4402-369</t>
+  </si>
+  <si>
+    <t>+1336-1072</t>
+  </si>
+  <si>
+    <t>+1015-1186</t>
+  </si>
+  <si>
+    <t>+5223-740</t>
+  </si>
+  <si>
+    <t>+6027-1075</t>
+  </si>
+  <si>
+    <t>+5221-740</t>
+  </si>
+  <si>
+    <t>7986-301</t>
+  </si>
+  <si>
+    <t>+418-1548</t>
+  </si>
+  <si>
+    <t>+4584-608</t>
+  </si>
+  <si>
+    <t>+808-546</t>
+  </si>
+  <si>
+    <t>+217-1515</t>
+  </si>
+  <si>
+    <t>+653-580</t>
+  </si>
+  <si>
+    <t>+159-1752</t>
+  </si>
+  <si>
+    <t>+3490-743</t>
+  </si>
+  <si>
+    <t>+513-1324</t>
+  </si>
+  <si>
+    <t>+956-1196</t>
+  </si>
+  <si>
+    <t>+1884-854</t>
+  </si>
+  <si>
+    <t>+2986-1068</t>
+  </si>
+  <si>
+    <t>+346-805</t>
+  </si>
+  <si>
+    <t>+23453-114</t>
+  </si>
+  <si>
+    <t>+2916-691</t>
+  </si>
+  <si>
+    <t>+4100-755</t>
+  </si>
+  <si>
+    <t>+8841-749</t>
+  </si>
+  <si>
+    <t>+2728-1085</t>
+  </si>
+  <si>
+    <t>+2366-666</t>
+  </si>
+  <si>
+    <t>2731-1085</t>
+  </si>
+  <si>
+    <t>+2327-1381</t>
+  </si>
+  <si>
+    <t>+2730-1085</t>
+  </si>
+  <si>
+    <t>+0043-1747</t>
+  </si>
+  <si>
+    <t>+6042-1075</t>
+  </si>
+  <si>
+    <t>+963-1196</t>
+  </si>
+  <si>
+    <t>+960-1196</t>
+  </si>
+  <si>
+    <t>+962-1196</t>
+  </si>
+  <si>
+    <t>+2296-905</t>
+  </si>
+  <si>
+    <t>+6052-1075</t>
+  </si>
+  <si>
+    <t>+265-1703</t>
+  </si>
+  <si>
+    <t>+3914-920</t>
+  </si>
+  <si>
+    <t>+766-590</t>
+  </si>
+  <si>
+    <t>+1158-1451</t>
+  </si>
+  <si>
+    <t>+10828-627</t>
+  </si>
+  <si>
+    <t>+478-1470</t>
+  </si>
+  <si>
+    <t>+188076-77</t>
+  </si>
+  <si>
+    <t>+421-1548</t>
+  </si>
+  <si>
+    <t>+1110-1289</t>
+  </si>
+  <si>
+    <t>723-1282</t>
+  </si>
+  <si>
+    <t>+1767-1319</t>
+  </si>
+  <si>
+    <t>+1129-578</t>
+  </si>
+  <si>
+    <t>+5222-740</t>
+  </si>
+  <si>
+    <t>479-596</t>
+  </si>
+  <si>
+    <t>+2729-1085</t>
+  </si>
+  <si>
+    <t>+964-1196</t>
+  </si>
+  <si>
+    <t>+12632-410</t>
+  </si>
+  <si>
+    <t>+2318-545</t>
+  </si>
+  <si>
+    <t>+533-1324</t>
+  </si>
+  <si>
+    <t>+17030-118</t>
+  </si>
+  <si>
+    <t>+23939-192</t>
+  </si>
+  <si>
+    <t>+338-2114</t>
+  </si>
+  <si>
+    <t>+844-1371</t>
+  </si>
+  <si>
+    <t>+0056-1748</t>
+  </si>
+  <si>
+    <t>+2287-655</t>
+  </si>
+  <si>
+    <t>+4523-260</t>
+  </si>
+  <si>
+    <t>Failed ซ้ำ</t>
+  </si>
+  <si>
+    <t>Failed รับไปแล้ว</t>
+  </si>
+  <si>
+    <t>+27061-107</t>
+  </si>
+  <si>
+    <t>+12558-366</t>
+  </si>
+  <si>
+    <t>+4534-748</t>
+  </si>
+  <si>
+    <t>+1369-1557</t>
+  </si>
+  <si>
+    <t>+9163-717</t>
+  </si>
+  <si>
+    <t>+9915-619</t>
+  </si>
+  <si>
+    <t>+3532-1088</t>
+  </si>
+  <si>
+    <t>+435-1616</t>
+  </si>
+  <si>
+    <t>+0092-1473</t>
+  </si>
+  <si>
+    <t>+4580-608</t>
+  </si>
+  <si>
+    <t>+349-1629</t>
+  </si>
+  <si>
+    <t>+3812-625</t>
+  </si>
+  <si>
+    <t>+3061-672</t>
+  </si>
+  <si>
+    <t>+389-2138</t>
+  </si>
+  <si>
+    <t>+371-2101</t>
+  </si>
+  <si>
+    <t>+613-2131</t>
+  </si>
+  <si>
+    <t>+126-2201</t>
+  </si>
+  <si>
+    <t>+899-1096</t>
+  </si>
+  <si>
+    <t>+475-1345</t>
+  </si>
+  <si>
+    <t>+15528-172</t>
+  </si>
+  <si>
+    <t>+1209-2050</t>
+  </si>
+  <si>
+    <t>+903-2044</t>
+  </si>
+  <si>
+    <t>+6901-263</t>
+  </si>
+  <si>
+    <t>+350-1629</t>
+  </si>
+  <si>
+    <t>+0099-2179</t>
+  </si>
+  <si>
+    <t>+1056-2006</t>
+  </si>
+  <si>
+    <t>+0030-1573</t>
+  </si>
+  <si>
+    <t>+115-1576</t>
+  </si>
+  <si>
+    <t>+707-1123</t>
+  </si>
+  <si>
+    <t>+9800-487</t>
+  </si>
+  <si>
+    <t>+3601-695</t>
+  </si>
+  <si>
+    <t>+444-2125</t>
+  </si>
+  <si>
+    <t>+13723-251</t>
+  </si>
+  <si>
+    <t>+891-1193</t>
+  </si>
+  <si>
+    <t>+140-2177</t>
+  </si>
+  <si>
+    <t>+12091-292</t>
+  </si>
+  <si>
+    <t>+2139-879</t>
+  </si>
+  <si>
+    <t>+10418-1057</t>
+  </si>
+  <si>
+    <t>+13085-206</t>
+  </si>
+  <si>
+    <t>+13509-327</t>
+  </si>
+  <si>
+    <t>+463-1563</t>
+  </si>
+  <si>
+    <t>+2628-758</t>
+  </si>
+  <si>
+    <t>+9239-444</t>
+  </si>
+  <si>
+    <t>+241-1524</t>
+  </si>
+  <si>
+    <t>+30767-65</t>
+  </si>
+  <si>
+    <t>+8263-311</t>
+  </si>
+  <si>
+    <t>+34615-175</t>
+  </si>
+  <si>
+    <t>+0024-1598</t>
+  </si>
+  <si>
+    <t>+3043-736</t>
+  </si>
+  <si>
+    <t>+19878-115</t>
+  </si>
+  <si>
+    <t>+1491-1100</t>
+  </si>
+  <si>
+    <t>+187082-77</t>
+  </si>
+  <si>
+    <t>+9420-485</t>
+  </si>
+  <si>
+    <t>+2948-1095</t>
+  </si>
+  <si>
+    <t>+9727-605</t>
+  </si>
+  <si>
+    <t>+4225-256</t>
+  </si>
+  <si>
+    <t>+40597-149</t>
+  </si>
+  <si>
+    <t>+40108-167</t>
+  </si>
+  <si>
+    <t>+1583-1094</t>
+  </si>
+  <si>
+    <t>+20695-109</t>
+  </si>
+  <si>
+    <t>+2136-879</t>
+  </si>
+  <si>
+    <t>+0086-2207</t>
+  </si>
+  <si>
+    <t>+6570-242</t>
+  </si>
+  <si>
+    <t>+6054-647</t>
+  </si>
+  <si>
+    <t>+40095-167</t>
+  </si>
+  <si>
+    <t>+9914-619</t>
+  </si>
+  <si>
+    <t>+185-1516</t>
+  </si>
+  <si>
+    <t>+6000-288</t>
+  </si>
+  <si>
+    <t>+20633-104</t>
+  </si>
+  <si>
+    <t>+148-1701</t>
+  </si>
+  <si>
+    <t>+16367-212</t>
+  </si>
+  <si>
+    <t>+9225-486</t>
+  </si>
+  <si>
+    <t>+1891-760</t>
+  </si>
+  <si>
+    <t>+6467-633</t>
+  </si>
+  <si>
+    <t>+2852-798</t>
+  </si>
+  <si>
+    <t>+269-2168</t>
+  </si>
+  <si>
+    <t>+623-1338</t>
+  </si>
+  <si>
+    <t>+1687-1076</t>
+  </si>
+  <si>
+    <t>+457-1462</t>
+  </si>
+  <si>
+    <t>+1192-564</t>
+  </si>
+  <si>
+    <t>+1193-564</t>
+  </si>
+  <si>
+    <t>+1414-1054</t>
+  </si>
+  <si>
+    <t>+1562-757</t>
+  </si>
+  <si>
+    <t>+1988-562</t>
+  </si>
+  <si>
+    <t>+1646-900</t>
+  </si>
+  <si>
+    <t>+6521-664</t>
+  </si>
+  <si>
+    <t>+173091-33</t>
+  </si>
+  <si>
+    <t>+446-2135</t>
+  </si>
+  <si>
+    <t>+35264-222</t>
+  </si>
+  <si>
+    <t>+5293-350</t>
+  </si>
+  <si>
+    <t>+35263-222</t>
+  </si>
+  <si>
+    <t>+35258-222</t>
+  </si>
+  <si>
+    <t>+8776-243</t>
+  </si>
+  <si>
+    <t>+8331-392</t>
+  </si>
+  <si>
+    <t>+1977-651</t>
+  </si>
+  <si>
+    <t>+18390-112</t>
+  </si>
+  <si>
+    <t>+35272-222</t>
+  </si>
+  <si>
+    <t>+35290-222</t>
+  </si>
+  <si>
+    <t>+419-1548</t>
+  </si>
+  <si>
+    <t>+16816-384</t>
+  </si>
+  <si>
+    <t>+9151-717</t>
+  </si>
+  <si>
+    <t>+35295-222</t>
+  </si>
+  <si>
+    <t>+14190-64</t>
+  </si>
+  <si>
+    <t>+9157-717</t>
+  </si>
+  <si>
+    <t>+12435-321</t>
+  </si>
+  <si>
+    <t>+1554-729</t>
+  </si>
+  <si>
+    <t>+12353-165</t>
+  </si>
+  <si>
+    <t>+576-1432</t>
+  </si>
+  <si>
+    <t>+8773-243</t>
+  </si>
+  <si>
+    <t>+15044-335</t>
+  </si>
+  <si>
+    <t>+35289-222</t>
+  </si>
+  <si>
+    <t>+35257-222</t>
+  </si>
+  <si>
+    <t>+35259-222</t>
+  </si>
+  <si>
+    <t>+1497-1077</t>
+  </si>
+  <si>
+    <t>+2095-1056</t>
+  </si>
+  <si>
+    <t>+708-2076</t>
+  </si>
+  <si>
+    <t>+35265-222</t>
+  </si>
+  <si>
+    <t>12372-645</t>
+  </si>
+  <si>
+    <t>+13014-397</t>
+  </si>
+  <si>
+    <t>+241-1506</t>
+  </si>
+  <si>
+    <t>+13017-397</t>
+  </si>
+  <si>
+    <t>+8130-665</t>
+  </si>
+  <si>
+    <t>+0061-1584</t>
+  </si>
+  <si>
+    <t>+174-1527</t>
+  </si>
+  <si>
+    <t>+581-1711</t>
+  </si>
+  <si>
+    <t>+1746-673</t>
+  </si>
+  <si>
+    <t>+9109-195</t>
+  </si>
+  <si>
+    <t>+5319-371</t>
+  </si>
+  <si>
+    <t>+35291-222</t>
+  </si>
+  <si>
+    <t>+17800-111</t>
+  </si>
+  <si>
+    <t>+23901-192</t>
+  </si>
+  <si>
+    <t>1114-888</t>
+  </si>
+  <si>
+    <t>+5021-713</t>
+  </si>
+  <si>
+    <t>5164-723</t>
+  </si>
+  <si>
+    <t>+3232-298</t>
+  </si>
+  <si>
+    <t>+828-576</t>
+  </si>
+  <si>
+    <t>+23442-114</t>
+  </si>
+  <si>
+    <t>+318-1514</t>
+  </si>
+  <si>
+    <t>+12559-366</t>
+  </si>
+  <si>
+    <t>+6399-794</t>
+  </si>
+  <si>
+    <t>+2138-879</t>
+  </si>
+  <si>
+    <t>+27060-107</t>
+  </si>
+  <si>
+    <t>+27059-107</t>
+  </si>
+  <si>
+    <t>+6394-794</t>
+  </si>
+  <si>
+    <t>+6398-794</t>
+  </si>
+  <si>
+    <t>604-1194</t>
+  </si>
+  <si>
+    <t>+173094-33</t>
+  </si>
+  <si>
+    <t>+560-1459</t>
+  </si>
+  <si>
+    <t>+2758-724</t>
+  </si>
+  <si>
+    <t>+1457-898</t>
+  </si>
+  <si>
+    <t>+13511-327</t>
+  </si>
+  <si>
+    <t>+162-1522</t>
+  </si>
+  <si>
+    <t>+0011-1776</t>
+  </si>
+  <si>
+    <t>+1991-1058</t>
+  </si>
+  <si>
+    <t>+165-1723</t>
+  </si>
+  <si>
+    <t>+2441-795</t>
+  </si>
+  <si>
+    <t>+820-1481</t>
+  </si>
+  <si>
+    <t>+254-1703</t>
   </si>
 </sst>
 </file>
@@ -4295,10 +5268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A379"/>
+  <dimension ref="A1:A158"/>
   <sheetViews>
-    <sheetView topLeftCell="A315" workbookViewId="0">
-      <selection activeCell="B352" sqref="B352"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4308,1897 +5281,792 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>936</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>937</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>938</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>939</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>940</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>941</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>942</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>943</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>944</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>945</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>946</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>947</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>948</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>949</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>950</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>951</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>952</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>953</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>954</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>955</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>956</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>957</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>958</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>959</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>960</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>961</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>962</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>963</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>964</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>965</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>966</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>945</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>967</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>968</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>969</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>970</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>971</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>972</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>973</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>974</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>975</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>976</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>977</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>978</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>979</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>980</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>981</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>982</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>983</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>984</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>985</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>986</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>987</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>988</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>989</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>990</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>991</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>992</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>993</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>994</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>995</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>996</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>997</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>998</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>999</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>1000</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>1001</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>1002</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>1003</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>1004</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>1005</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>1006</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>1007</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>1008</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>1009</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>1010</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>1011</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>1012</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>1013</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>1014</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>1015</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>1016</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>1017</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>1018</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>1019</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>1020</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>1021</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>1022</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>1023</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>1024</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>1025</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>1026</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>1027</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>1028</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>1029</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>1030</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>1031</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>1032</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>1033</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>1034</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>1035</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>1036</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>1037</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>1038</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>1039</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>1040</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>1041</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>1042</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>1043</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>1044</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>1045</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>1046</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>1047</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>1048</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>1049</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>1050</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>1051</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>1052</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>1053</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>1054</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>1055</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>1056</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>1057</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>1058</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>1059</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>1060</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>1061</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>1062</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>1063</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>1064</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>1065</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>1067</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>1068</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>1069</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>1070</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>1071</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>1072</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>1073</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>1074</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>1075</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>1076</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>1077</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>1078</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>1079</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>1080</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>1081</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>1082</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>1083</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>1084</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>1085</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>1086</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>1087</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>1088</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>1089</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>1090</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>1091</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="1" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="1" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
-        <v>1313</v>
+        <v>1634</v>
       </c>
     </row>
   </sheetData>
@@ -6209,10 +6077,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J380"/>
+  <dimension ref="A1:N380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="M2" sqref="M2:N159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6222,9 +6090,11 @@
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>44828</v>
       </c>
@@ -6255,8 +6125,20 @@
       <c r="J1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2">
+        <v>44837</v>
+      </c>
+      <c r="L1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" s="2">
+        <v>44837</v>
+      </c>
+      <c r="N1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>223</v>
       </c>
@@ -6287,8 +6169,20 @@
       <c r="J2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>225</v>
       </c>
@@ -6319,8 +6213,20 @@
       <c r="J3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>227</v>
       </c>
@@ -6351,8 +6257,20 @@
       <c r="J4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="N4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>229</v>
       </c>
@@ -6383,8 +6301,20 @@
       <c r="J5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="N5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>231</v>
       </c>
@@ -6415,8 +6345,20 @@
       <c r="J6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="L6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="N6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>233</v>
       </c>
@@ -6447,8 +6389,20 @@
       <c r="J7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="L7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="N7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>235</v>
       </c>
@@ -6479,8 +6433,20 @@
       <c r="J8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="N8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>237</v>
       </c>
@@ -6511,8 +6477,20 @@
       <c r="J9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="L9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="N9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>239</v>
       </c>
@@ -6543,8 +6521,20 @@
       <c r="J10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="N10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>241</v>
       </c>
@@ -6575,8 +6565,20 @@
       <c r="J11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="N11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>243</v>
       </c>
@@ -6607,8 +6609,20 @@
       <c r="J12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="L12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="N12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>245</v>
       </c>
@@ -6639,8 +6653,20 @@
       <c r="J13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="L13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="N13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>247</v>
       </c>
@@ -6671,8 +6697,20 @@
       <c r="J14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="L14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="N14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>249</v>
       </c>
@@ -6703,8 +6741,20 @@
       <c r="J15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="L15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="N15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>251</v>
       </c>
@@ -6735,8 +6785,20 @@
       <c r="J16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="L16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="N16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>253</v>
       </c>
@@ -6767,8 +6829,20 @@
       <c r="J17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="L17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="N17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>255</v>
       </c>
@@ -6799,8 +6873,20 @@
       <c r="J18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="L18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="N18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>257</v>
       </c>
@@ -6831,8 +6917,20 @@
       <c r="J19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="L19" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="N19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>259</v>
       </c>
@@ -6863,8 +6961,20 @@
       <c r="J20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="L20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="N20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>261</v>
       </c>
@@ -6895,8 +7005,20 @@
       <c r="J21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="L21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="N21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>263</v>
       </c>
@@ -6927,8 +7049,20 @@
       <c r="J22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="L22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="N22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>265</v>
       </c>
@@ -6959,8 +7093,20 @@
       <c r="J23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="L23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="N23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>267</v>
       </c>
@@ -6991,8 +7137,20 @@
       <c r="J24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="L24" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="N24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>269</v>
       </c>
@@ -7023,8 +7181,20 @@
       <c r="J25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="L25" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="N25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>271</v>
       </c>
@@ -7055,8 +7225,20 @@
       <c r="J26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="L26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="N26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>273</v>
       </c>
@@ -7087,8 +7269,20 @@
       <c r="J27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="L27" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="N27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>275</v>
       </c>
@@ -7119,8 +7313,20 @@
       <c r="J28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="L28" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="N28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>277</v>
       </c>
@@ -7151,8 +7357,20 @@
       <c r="J29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="L29" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="N29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>279</v>
       </c>
@@ -7183,8 +7401,20 @@
       <c r="J30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="L30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>281</v>
       </c>
@@ -7215,8 +7445,20 @@
       <c r="J31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="L31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="N31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>283</v>
       </c>
@@ -7247,8 +7489,20 @@
       <c r="J32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="L32" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="N32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>285</v>
       </c>
@@ -7279,8 +7533,20 @@
       <c r="J33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="L33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="N33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>287</v>
       </c>
@@ -7311,8 +7577,20 @@
       <c r="J34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L34" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="N34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>289</v>
       </c>
@@ -7343,8 +7621,20 @@
       <c r="J35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="L35" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="N35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>291</v>
       </c>
@@ -7375,8 +7665,20 @@
       <c r="J36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="L36" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="N36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>293</v>
       </c>
@@ -7407,8 +7709,20 @@
       <c r="J37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="L37" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="N37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>295</v>
       </c>
@@ -7439,8 +7753,20 @@
       <c r="J38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="L38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="N38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>297</v>
       </c>
@@ -7471,8 +7797,20 @@
       <c r="J39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="L39" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="N39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>299</v>
       </c>
@@ -7503,8 +7841,20 @@
       <c r="J40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="L40" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="N40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>301</v>
       </c>
@@ -7535,8 +7885,20 @@
       <c r="J41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="L41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="N41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>303</v>
       </c>
@@ -7567,8 +7929,20 @@
       <c r="J42" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="L42" t="s">
+        <v>6</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="N42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>305</v>
       </c>
@@ -7599,8 +7973,20 @@
       <c r="J43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="L43" t="s">
+        <v>6</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="N43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>307</v>
       </c>
@@ -7631,8 +8017,20 @@
       <c r="J44" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="L44" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="N44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>309</v>
       </c>
@@ -7663,8 +8061,20 @@
       <c r="J45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="L45" t="s">
+        <v>6</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="N45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>311</v>
       </c>
@@ -7695,8 +8105,20 @@
       <c r="J46" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="L46" t="s">
+        <v>6</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="N46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>313</v>
       </c>
@@ -7727,8 +8149,20 @@
       <c r="J47" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="L47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="N47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>315</v>
       </c>
@@ -7759,8 +8193,20 @@
       <c r="J48" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="L48" t="s">
+        <v>6</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="N48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>317</v>
       </c>
@@ -7791,8 +8237,20 @@
       <c r="J49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="L49" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="N49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>319</v>
       </c>
@@ -7823,8 +8281,20 @@
       <c r="J50" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="L50" t="s">
+        <v>6</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="N50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>321</v>
       </c>
@@ -7855,8 +8325,20 @@
       <c r="J51" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="L51" t="s">
+        <v>6</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="N51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>323</v>
       </c>
@@ -7887,8 +8369,20 @@
       <c r="J52" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="L52" t="s">
+        <v>6</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="N52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>325</v>
       </c>
@@ -7919,8 +8413,20 @@
       <c r="J53" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="L53" t="s">
+        <v>6</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="N53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>327</v>
       </c>
@@ -7951,8 +8457,20 @@
       <c r="J54" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="L54" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="N54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>329</v>
       </c>
@@ -7983,8 +8501,20 @@
       <c r="J55" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="L55" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="N55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>331</v>
       </c>
@@ -8015,8 +8545,20 @@
       <c r="J56" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="L56" t="s">
+        <v>6</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="N56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>333</v>
       </c>
@@ -8047,8 +8589,20 @@
       <c r="J57" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="L57" t="s">
+        <v>6</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="N57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>335</v>
       </c>
@@ -8079,8 +8633,20 @@
       <c r="J58" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="L58" t="s">
+        <v>6</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="N58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>337</v>
       </c>
@@ -8111,8 +8677,20 @@
       <c r="J59" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L59" t="s">
+        <v>6</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="N59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>339</v>
       </c>
@@ -8143,8 +8721,20 @@
       <c r="J60" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="L60" t="s">
+        <v>6</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="N60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>341</v>
       </c>
@@ -8175,8 +8765,20 @@
       <c r="J61" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="L61" t="s">
+        <v>6</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="N61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>343</v>
       </c>
@@ -8207,8 +8809,20 @@
       <c r="J62" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="L62" t="s">
+        <v>6</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="N62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>345</v>
       </c>
@@ -8239,8 +8853,20 @@
       <c r="J63" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="L63" t="s">
+        <v>6</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="N63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>347</v>
       </c>
@@ -8271,8 +8897,20 @@
       <c r="J64" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="L64" t="s">
+        <v>6</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="N64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>349</v>
       </c>
@@ -8303,8 +8941,20 @@
       <c r="J65" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="L65" t="s">
+        <v>6</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="N65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>351</v>
       </c>
@@ -8335,8 +8985,20 @@
       <c r="J66" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L66" t="s">
+        <v>6</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="N66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>353</v>
       </c>
@@ -8367,8 +9029,20 @@
       <c r="J67" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="L67" t="s">
+        <v>6</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="N67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>355</v>
       </c>
@@ -8399,8 +9073,20 @@
       <c r="J68" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="L68" t="s">
+        <v>6</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="N68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>357</v>
       </c>
@@ -8431,8 +9117,20 @@
       <c r="J69" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L69" t="s">
+        <v>6</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="N69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>359</v>
       </c>
@@ -8463,8 +9161,20 @@
       <c r="J70" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="L70" t="s">
+        <v>6</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="N70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>361</v>
       </c>
@@ -8495,8 +9205,20 @@
       <c r="J71" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L71" t="s">
+        <v>6</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="N71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>363</v>
       </c>
@@ -8527,8 +9249,20 @@
       <c r="J72" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="L72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="N72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>365</v>
       </c>
@@ -8559,8 +9293,20 @@
       <c r="J73" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="L73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>367</v>
       </c>
@@ -8591,8 +9337,20 @@
       <c r="J74" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="L74" t="s">
+        <v>6</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>369</v>
       </c>
@@ -8623,8 +9381,20 @@
       <c r="J75" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="L75" t="s">
+        <v>6</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>371</v>
       </c>
@@ -8655,8 +9425,20 @@
       <c r="J76" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="L76" t="s">
+        <v>6</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="N76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>373</v>
       </c>
@@ -8687,8 +9469,20 @@
       <c r="J77" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="L77" t="s">
+        <v>6</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="N77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>375</v>
       </c>
@@ -8719,8 +9513,20 @@
       <c r="J78" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="L78" t="s">
+        <v>6</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="N78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>377</v>
       </c>
@@ -8751,8 +9557,20 @@
       <c r="J79" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="L79" t="s">
+        <v>6</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="N79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>379</v>
       </c>
@@ -8783,8 +9601,20 @@
       <c r="J80" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="L80" t="s">
+        <v>6</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="N80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>381</v>
       </c>
@@ -8815,8 +9645,20 @@
       <c r="J81" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1475</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="N81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>383</v>
       </c>
@@ -8847,8 +9689,20 @@
       <c r="J82" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="L82" t="s">
+        <v>6</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="N82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>385</v>
       </c>
@@ -8879,8 +9733,20 @@
       <c r="J83" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="L83" t="s">
+        <v>6</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="N83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>387</v>
       </c>
@@ -8911,8 +9777,20 @@
       <c r="J84" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="L84" t="s">
+        <v>6</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="N84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>389</v>
       </c>
@@ -8943,8 +9821,20 @@
       <c r="J85" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="L85" t="s">
+        <v>6</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="N85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>391</v>
       </c>
@@ -8975,8 +9865,20 @@
       <c r="J86" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="L86" t="s">
+        <v>6</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="N86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>393</v>
       </c>
@@ -9007,8 +9909,20 @@
       <c r="J87" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="L87" t="s">
+        <v>6</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>395</v>
       </c>
@@ -9039,8 +9953,20 @@
       <c r="J88" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="L88" t="s">
+        <v>6</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="N88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>397</v>
       </c>
@@ -9071,8 +9997,20 @@
       <c r="J89" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="L89" t="s">
+        <v>6</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="N89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>399</v>
       </c>
@@ -9103,8 +10041,20 @@
       <c r="J90" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="L90" t="s">
+        <v>6</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="N90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>401</v>
       </c>
@@ -9135,8 +10085,20 @@
       <c r="J91" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="L91" t="s">
+        <v>6</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="N91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>403</v>
       </c>
@@ -9167,8 +10129,20 @@
       <c r="J92" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="L92" t="s">
+        <v>6</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="N92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>405</v>
       </c>
@@ -9199,8 +10173,20 @@
       <c r="J93" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="L93" t="s">
+        <v>6</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="N93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>407</v>
       </c>
@@ -9231,8 +10217,20 @@
       <c r="J94" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="L94" t="s">
+        <v>6</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="N94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>409</v>
       </c>
@@ -9263,8 +10261,20 @@
       <c r="J95" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="L95" t="s">
+        <v>6</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>411</v>
       </c>
@@ -9295,8 +10305,20 @@
       <c r="J96" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="L96" t="s">
+        <v>6</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="N96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>413</v>
       </c>
@@ -9327,8 +10349,20 @@
       <c r="J97" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="L97" t="s">
+        <v>6</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="N97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>415</v>
       </c>
@@ -9359,8 +10393,20 @@
       <c r="J98" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="L98" t="s">
+        <v>6</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="N98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>417</v>
       </c>
@@ -9391,8 +10437,20 @@
       <c r="J99" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="L99" t="s">
+        <v>6</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="N99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>419</v>
       </c>
@@ -9423,8 +10481,20 @@
       <c r="J100" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="L100" t="s">
+        <v>6</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="N100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>421</v>
       </c>
@@ -9455,8 +10525,20 @@
       <c r="J101" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="L101" t="s">
+        <v>6</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="N101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>423</v>
       </c>
@@ -9487,8 +10569,20 @@
       <c r="J102" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="L102" t="s">
+        <v>6</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="N102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>425</v>
       </c>
@@ -9519,8 +10613,20 @@
       <c r="J103" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="L103" t="s">
+        <v>6</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="N103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>427</v>
       </c>
@@ -9551,8 +10657,20 @@
       <c r="J104" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="L104" t="s">
+        <v>6</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="N104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>429</v>
       </c>
@@ -9583,8 +10701,20 @@
       <c r="J105" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L105" t="s">
+        <v>6</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="N105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>431</v>
       </c>
@@ -9615,8 +10745,20 @@
       <c r="J106" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="L106" t="s">
+        <v>6</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="N106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>433</v>
       </c>
@@ -9647,8 +10789,20 @@
       <c r="J107" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="L107" t="s">
+        <v>6</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="N107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>435</v>
       </c>
@@ -9679,8 +10833,20 @@
       <c r="J108" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="L108" t="s">
+        <v>6</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>437</v>
       </c>
@@ -9711,8 +10877,20 @@
       <c r="J109" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="L109" t="s">
+        <v>6</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="N109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>439</v>
       </c>
@@ -9743,8 +10921,20 @@
       <c r="J110" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="L110" t="s">
+        <v>6</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="N110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>441</v>
       </c>
@@ -9775,8 +10965,20 @@
       <c r="J111" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="L111" t="s">
+        <v>6</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="N111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>443</v>
       </c>
@@ -9807,8 +11009,20 @@
       <c r="J112" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="L112" t="s">
+        <v>6</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="N112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>445</v>
       </c>
@@ -9839,8 +11053,20 @@
       <c r="J113" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="L113" t="s">
+        <v>6</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="N113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>447</v>
       </c>
@@ -9871,8 +11097,20 @@
       <c r="J114" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="L114" t="s">
+        <v>6</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="N114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>449</v>
       </c>
@@ -9903,8 +11141,20 @@
       <c r="J115" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="L115" t="s">
+        <v>6</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="N115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>451</v>
       </c>
@@ -9935,8 +11185,20 @@
       <c r="J116" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="L116" t="s">
+        <v>6</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="N116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>453</v>
       </c>
@@ -9967,8 +11229,20 @@
       <c r="J117" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="L117" t="s">
+        <v>6</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="N117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>455</v>
       </c>
@@ -9999,8 +11273,20 @@
       <c r="J118" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="L118" t="s">
+        <v>6</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="N118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>457</v>
       </c>
@@ -10031,8 +11317,20 @@
       <c r="J119" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="L119" t="s">
+        <v>6</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="N119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>459</v>
       </c>
@@ -10063,8 +11361,20 @@
       <c r="J120" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="L120" t="s">
+        <v>6</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="N120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>461</v>
       </c>
@@ -10095,8 +11405,20 @@
       <c r="J121" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="L121" t="s">
+        <v>6</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="N121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>463</v>
       </c>
@@ -10127,8 +11449,20 @@
       <c r="J122" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="L122" t="s">
+        <v>6</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="N122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>465</v>
       </c>
@@ -10159,8 +11493,20 @@
       <c r="J123" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L123" t="s">
+        <v>6</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="N123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>467</v>
       </c>
@@ -10191,8 +11537,20 @@
       <c r="J124" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="L124" t="s">
+        <v>6</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="N124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C125" s="1" t="s">
         <v>469</v>
       </c>
@@ -10217,8 +11575,20 @@
       <c r="J125" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="L125" t="s">
+        <v>6</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="N125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C126" s="1" t="s">
         <v>470</v>
       </c>
@@ -10243,8 +11613,20 @@
       <c r="J126" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="L126" t="s">
+        <v>6</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="N126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C127" s="1" t="s">
         <v>471</v>
       </c>
@@ -10269,8 +11651,20 @@
       <c r="J127" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L127" t="s">
+        <v>6</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="N127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C128" s="1" t="s">
         <v>472</v>
       </c>
@@ -10295,8 +11689,20 @@
       <c r="J128" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K128" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="L128" t="s">
+        <v>6</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="N128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C129" s="1" t="s">
         <v>473</v>
       </c>
@@ -10321,8 +11727,20 @@
       <c r="J129" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K129" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="L129" t="s">
+        <v>6</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="N129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C130" s="1" t="s">
         <v>474</v>
       </c>
@@ -10347,8 +11765,20 @@
       <c r="J130" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="131" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K130" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="L130" t="s">
+        <v>6</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="N130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C131" s="1" t="s">
         <v>475</v>
       </c>
@@ -10373,8 +11803,20 @@
       <c r="J131" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="132" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K131" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="L131" t="s">
+        <v>6</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="N131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C132" s="1" t="s">
         <v>476</v>
       </c>
@@ -10399,8 +11841,20 @@
       <c r="J132" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K132" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="L132" t="s">
+        <v>6</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="N132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C133" s="1" t="s">
         <v>477</v>
       </c>
@@ -10425,8 +11879,20 @@
       <c r="J133" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K133" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="L133" t="s">
+        <v>6</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="N133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C134" s="1" t="s">
         <v>478</v>
       </c>
@@ -10451,8 +11917,20 @@
       <c r="J134" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="135" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K134" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="L134" t="s">
+        <v>6</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="N134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C135" s="1" t="s">
         <v>479</v>
       </c>
@@ -10477,8 +11955,20 @@
       <c r="J135" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K135" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="L135" t="s">
+        <v>6</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="N135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C136" s="1" t="s">
         <v>480</v>
       </c>
@@ -10503,8 +11993,20 @@
       <c r="J136" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K136" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="L136" t="s">
+        <v>6</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="N136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C137" s="1" t="s">
         <v>481</v>
       </c>
@@ -10529,8 +12031,20 @@
       <c r="J137" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="138" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K137" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="L137" t="s">
+        <v>6</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="N137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C138" s="1" t="s">
         <v>482</v>
       </c>
@@ -10555,8 +12069,20 @@
       <c r="J138" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K138" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="L138" t="s">
+        <v>6</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="N138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C139" s="1" t="s">
         <v>483</v>
       </c>
@@ -10581,8 +12107,20 @@
       <c r="J139" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K139" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="L139" t="s">
+        <v>6</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="N139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C140" s="1" t="s">
         <v>484</v>
       </c>
@@ -10607,8 +12145,20 @@
       <c r="J140" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K140" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="L140" t="s">
+        <v>6</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="N140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C141" s="1" t="s">
         <v>485</v>
       </c>
@@ -10633,8 +12183,20 @@
       <c r="J141" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="142" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K141" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="L141" t="s">
+        <v>6</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="N141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C142" s="1" t="s">
         <v>486</v>
       </c>
@@ -10659,8 +12221,20 @@
       <c r="J142" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="143" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K142" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="L142" t="s">
+        <v>6</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="N142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C143" s="1" t="s">
         <v>487</v>
       </c>
@@ -10685,8 +12259,20 @@
       <c r="J143" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="144" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K143" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="L143" t="s">
+        <v>6</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="N143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C144" s="1" t="s">
         <v>488</v>
       </c>
@@ -10711,8 +12297,20 @@
       <c r="J144" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="145" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K144" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="L144" t="s">
+        <v>6</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="N144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C145" s="1" t="s">
         <v>489</v>
       </c>
@@ -10737,8 +12335,20 @@
       <c r="J145" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="146" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K145" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="L145" t="s">
+        <v>6</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="N145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C146" s="1" t="s">
         <v>490</v>
       </c>
@@ -10763,8 +12373,20 @@
       <c r="J146" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K146" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="L146" t="s">
+        <v>6</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="N146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C147" s="1" t="s">
         <v>491</v>
       </c>
@@ -10789,8 +12411,20 @@
       <c r="J147" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="148" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K147" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="L147" t="s">
+        <v>6</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="N147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C148" s="1" t="s">
         <v>492</v>
       </c>
@@ -10815,8 +12449,20 @@
       <c r="J148" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K148" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="L148" t="s">
+        <v>6</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="N148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C149" s="1" t="s">
         <v>493</v>
       </c>
@@ -10841,8 +12487,20 @@
       <c r="J149" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K149" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="L149" t="s">
+        <v>6</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="N149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C150" s="1" t="s">
         <v>494</v>
       </c>
@@ -10867,8 +12525,20 @@
       <c r="J150" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="151" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K150" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L150" t="s">
+        <v>6</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="N150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C151" s="1" t="s">
         <v>495</v>
       </c>
@@ -10893,8 +12563,20 @@
       <c r="J151" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="152" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K151" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="L151" t="s">
+        <v>6</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="N151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C152" s="1" t="s">
         <v>496</v>
       </c>
@@ -10919,8 +12601,20 @@
       <c r="J152" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="153" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K152" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="L152" t="s">
+        <v>6</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="N152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C153" s="1" t="s">
         <v>497</v>
       </c>
@@ -10945,8 +12639,20 @@
       <c r="J153" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="154" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K153" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="L153" t="s">
+        <v>6</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="N153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C154" s="1" t="s">
         <v>498</v>
       </c>
@@ -10971,8 +12677,20 @@
       <c r="J154" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="155" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K154" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="L154" t="s">
+        <v>6</v>
+      </c>
+      <c r="M154" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="N154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C155" s="1" t="s">
         <v>499</v>
       </c>
@@ -10997,8 +12715,20 @@
       <c r="J155" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="156" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K155" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L155" t="s">
+        <v>6</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="N155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C156" s="1" t="s">
         <v>500</v>
       </c>
@@ -11023,8 +12753,20 @@
       <c r="J156" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K156" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="L156" t="s">
+        <v>6</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="N156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C157" s="1" t="s">
         <v>501</v>
       </c>
@@ -11049,8 +12791,20 @@
       <c r="J157" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="158" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K157" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="L157" t="s">
+        <v>6</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="N157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C158" s="1" t="s">
         <v>502</v>
       </c>
@@ -11075,8 +12829,20 @@
       <c r="J158" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="159" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K158" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="L158" t="s">
+        <v>6</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="N158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C159" s="1" t="s">
         <v>503</v>
       </c>
@@ -11101,8 +12867,20 @@
       <c r="J159" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="160" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K159" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="L159" t="s">
+        <v>6</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="N159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C160" s="1" t="s">
         <v>504</v>
       </c>
@@ -11127,8 +12905,14 @@
       <c r="J160" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K160" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="L160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C161" s="1" t="s">
         <v>505</v>
       </c>
@@ -11153,8 +12937,14 @@
       <c r="J161" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="162" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K161" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="L161" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="162" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C162" s="1" t="s">
         <v>506</v>
       </c>
@@ -11179,8 +12969,14 @@
       <c r="J162" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="163" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K162" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="L162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C163" s="1" t="s">
         <v>507</v>
       </c>
@@ -11205,8 +13001,14 @@
       <c r="J163" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K163" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C164" s="1" t="s">
         <v>508</v>
       </c>
@@ -11231,8 +13033,14 @@
       <c r="J164" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="165" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K164" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="L164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C165" s="1" t="s">
         <v>509</v>
       </c>
@@ -11258,7 +13066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C166" s="1" t="s">
         <v>510</v>
       </c>
@@ -11284,7 +13092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C167" s="1" t="s">
         <v>511</v>
       </c>
@@ -11310,7 +13118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C168" s="1" t="s">
         <v>512</v>
       </c>
@@ -11330,7 +13138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C169" s="1" t="s">
         <v>513</v>
       </c>
@@ -11350,7 +13158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C170" s="1" t="s">
         <v>514</v>
       </c>
@@ -11370,7 +13178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C171" s="1" t="s">
         <v>515</v>
       </c>
@@ -11390,7 +13198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C172" s="1" t="s">
         <v>516</v>
       </c>
@@ -11410,7 +13218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C173" s="1" t="s">
         <v>517</v>
       </c>
@@ -11430,7 +13238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C174" s="1" t="s">
         <v>518</v>
       </c>
@@ -11450,7 +13258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C175" s="1" t="s">
         <v>519</v>
       </c>
@@ -11470,7 +13278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C176" s="1" t="s">
         <v>520</v>
       </c>

--- a/Autostockin/stockin49.xlsx
+++ b/Autostockin/stockin49.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstuff\my-work-python-script\Autostockin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898D0E80-1B04-4F50-9EE2-D58EE1767C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67368FEA-A407-4750-AA6C-C54293FD7006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="1635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="1853">
   <si>
     <t>+7023-319</t>
   </si>
@@ -4940,6 +4940,660 @@
   </si>
   <si>
     <t>+254-1703</t>
+  </si>
+  <si>
+    <t>+1123-890</t>
+  </si>
+  <si>
+    <t>+1122-890</t>
+  </si>
+  <si>
+    <t>320-1531</t>
+  </si>
+  <si>
+    <t>+0038-1750</t>
+  </si>
+  <si>
+    <t>4707-1205</t>
+  </si>
+  <si>
+    <t>+317-817</t>
+  </si>
+  <si>
+    <t>+4516-748</t>
+  </si>
+  <si>
+    <t>+20585-104</t>
+  </si>
+  <si>
+    <t>+759-563</t>
+  </si>
+  <si>
+    <t>+172-1527</t>
+  </si>
+  <si>
+    <t>+188-1517</t>
+  </si>
+  <si>
+    <t>+2294-1089</t>
+  </si>
+  <si>
+    <t>+915-841</t>
+  </si>
+  <si>
+    <t>+2296-1089</t>
+  </si>
+  <si>
+    <t>+1348-1071</t>
+  </si>
+  <si>
+    <t>+1004-2031</t>
+  </si>
+  <si>
+    <t>+814-2097</t>
+  </si>
+  <si>
+    <t>+3695-687</t>
+  </si>
+  <si>
+    <t>+2961-1211</t>
+  </si>
+  <si>
+    <t>+2310-545</t>
+  </si>
+  <si>
+    <t>+317-1531</t>
+  </si>
+  <si>
+    <t>+0076-1542</t>
+  </si>
+  <si>
+    <t>+20598-104</t>
+  </si>
+  <si>
+    <t>+6841-370</t>
+  </si>
+  <si>
+    <t>+198-1528</t>
+  </si>
+  <si>
+    <t>+650-1341</t>
+  </si>
+  <si>
+    <t>+2295-1089</t>
+  </si>
+  <si>
+    <t>+1752-574</t>
+  </si>
+  <si>
+    <t>+707-2076</t>
+  </si>
+  <si>
+    <t>+840-862</t>
+  </si>
+  <si>
+    <t>+979-1248</t>
+  </si>
+  <si>
+    <t>+6569-242</t>
+  </si>
+  <si>
+    <t>+990-859</t>
+  </si>
+  <si>
+    <t>+1118-578</t>
+  </si>
+  <si>
+    <t>+922-1339</t>
+  </si>
+  <si>
+    <t>+9050-374</t>
+  </si>
+  <si>
+    <t>+9049-374</t>
+  </si>
+  <si>
+    <t>+3833-856</t>
+  </si>
+  <si>
+    <t>+9048-374</t>
+  </si>
+  <si>
+    <t>+758-563</t>
+  </si>
+  <si>
+    <t>+3831-856</t>
+  </si>
+  <si>
+    <t>+4619-359</t>
+  </si>
+  <si>
+    <t>+18247-280</t>
+  </si>
+  <si>
+    <t>+1384-887</t>
+  </si>
+  <si>
+    <t>+194-2170</t>
+  </si>
+  <si>
+    <t>+8901-376</t>
+  </si>
+  <si>
+    <t>+6169-640</t>
+  </si>
+  <si>
+    <t>+10538-215</t>
+  </si>
+  <si>
+    <t>+7917-241</t>
+  </si>
+  <si>
+    <t>+2043-706</t>
+  </si>
+  <si>
+    <t>+5311-371</t>
+  </si>
+  <si>
+    <t>+7572-356</t>
+  </si>
+  <si>
+    <t>+315-1525</t>
+  </si>
+  <si>
+    <t>+318-1558</t>
+  </si>
+  <si>
+    <t>+1380-1325</t>
+  </si>
+  <si>
+    <t>+45538-147</t>
+  </si>
+  <si>
+    <t>+2552-759</t>
+  </si>
+  <si>
+    <t>+1523-1310</t>
+  </si>
+  <si>
+    <t>+0031-1579</t>
+  </si>
+  <si>
+    <t>+2763-686</t>
+  </si>
+  <si>
+    <t>+517-1624</t>
+  </si>
+  <si>
+    <t>+1868-940</t>
+  </si>
+  <si>
+    <t>+3352-689</t>
+  </si>
+  <si>
+    <t>+829-2059</t>
+  </si>
+  <si>
+    <t>688-2068</t>
+  </si>
+  <si>
+    <t>+13525-327</t>
+  </si>
+  <si>
+    <t>+8408-290</t>
+  </si>
+  <si>
+    <t>+946-561</t>
+  </si>
+  <si>
+    <t>+938-561</t>
+  </si>
+  <si>
+    <t>+7985-301</t>
+  </si>
+  <si>
+    <t>+3243-869</t>
+  </si>
+  <si>
+    <t>+762-1356</t>
+  </si>
+  <si>
+    <t>+5570-753</t>
+  </si>
+  <si>
+    <t>+647-1108</t>
+  </si>
+  <si>
+    <t>+3242-869</t>
+  </si>
+  <si>
+    <t>+15508-172</t>
+  </si>
+  <si>
+    <t>+6924-500</t>
+  </si>
+  <si>
+    <t>+265-1569</t>
+  </si>
+  <si>
+    <t>+641-1180</t>
+  </si>
+  <si>
+    <t>+2556-773</t>
+  </si>
+  <si>
+    <t>+9797-487</t>
+  </si>
+  <si>
+    <t>+333-1622</t>
+  </si>
+  <si>
+    <t>+874-1438</t>
+  </si>
+  <si>
+    <t>+4957-631</t>
+  </si>
+  <si>
+    <t>+0056-1577</t>
+  </si>
+  <si>
+    <t>12032-150</t>
+  </si>
+  <si>
+    <t>+8576-635</t>
+  </si>
+  <si>
+    <t>+644-1329</t>
+  </si>
+  <si>
+    <t>+8013-498</t>
+  </si>
+  <si>
+    <t>+3832-856</t>
+  </si>
+  <si>
+    <t>+20599-104</t>
+  </si>
+  <si>
+    <t>+9208-84</t>
+  </si>
+  <si>
+    <t>+3366-684</t>
+  </si>
+  <si>
+    <t>837-571</t>
+  </si>
+  <si>
+    <t>+939-1339</t>
+  </si>
+  <si>
+    <t>714-1383</t>
+  </si>
+  <si>
+    <t>+1748-574</t>
+  </si>
+  <si>
+    <t>+2174-1070</t>
+  </si>
+  <si>
+    <t>+2885-389</t>
+  </si>
+  <si>
+    <t>+1147-2002</t>
+  </si>
+  <si>
+    <t>+314-1525</t>
+  </si>
+  <si>
+    <t>+6832-370</t>
+  </si>
+  <si>
+    <t>+45534-147</t>
+  </si>
+  <si>
+    <t>+4168-253</t>
+  </si>
+  <si>
+    <t>+5136-255</t>
+  </si>
+  <si>
+    <t>+1056-874</t>
+  </si>
+  <si>
+    <t>+23152-207</t>
+  </si>
+  <si>
+    <t>+143-1723</t>
+  </si>
+  <si>
+    <t>+140-1723</t>
+  </si>
+  <si>
+    <t>+139-1723</t>
+  </si>
+  <si>
+    <t>+2118-1065</t>
+  </si>
+  <si>
+    <t>+127-1503</t>
+  </si>
+  <si>
+    <t>+147-1740</t>
+  </si>
+  <si>
+    <t>+604-2119</t>
+  </si>
+  <si>
+    <t>+173097-33</t>
+  </si>
+  <si>
+    <t>+194-2181</t>
+  </si>
+  <si>
+    <t>+838-1132</t>
+  </si>
+  <si>
+    <t>+18352-112</t>
+  </si>
+  <si>
+    <t>+5731-797</t>
+  </si>
+  <si>
+    <t>+6466-633</t>
+  </si>
+  <si>
+    <t>+2280-858</t>
+  </si>
+  <si>
+    <t>+413-1505</t>
+  </si>
+  <si>
+    <t>+314-1501</t>
+  </si>
+  <si>
+    <t>+6464-633</t>
+  </si>
+  <si>
+    <t>+1299-544</t>
+  </si>
+  <si>
+    <t>+8800-337</t>
+  </si>
+  <si>
+    <t>+217-829</t>
+  </si>
+  <si>
+    <t>+367-2112</t>
+  </si>
+  <si>
+    <t>+6465-633</t>
+  </si>
+  <si>
+    <t>+430-1616</t>
+  </si>
+  <si>
+    <t>+2612-1048</t>
+  </si>
+  <si>
+    <t>+158-1510</t>
+  </si>
+  <si>
+    <t>+2622-1048</t>
+  </si>
+  <si>
+    <t>+5312-371</t>
+  </si>
+  <si>
+    <t>+2102-412</t>
+  </si>
+  <si>
+    <t>+3491-937</t>
+  </si>
+  <si>
+    <t>+400-1403</t>
+  </si>
+  <si>
+    <t>+0037-1595</t>
+  </si>
+  <si>
+    <t>+210-1518</t>
+  </si>
+  <si>
+    <t>+1321-1213</t>
+  </si>
+  <si>
+    <t>+5282-341</t>
+  </si>
+  <si>
+    <t>+940-1290</t>
+  </si>
+  <si>
+    <t>+900-2048</t>
+  </si>
+  <si>
+    <t>+272-2180</t>
+  </si>
+  <si>
+    <t>+539-2130</t>
+  </si>
+  <si>
+    <t>+802-2007</t>
+  </si>
+  <si>
+    <t>+1005-533</t>
+  </si>
+  <si>
+    <t>+590-1711</t>
+  </si>
+  <si>
+    <t>+1045-2120</t>
+  </si>
+  <si>
+    <t>+895-1170</t>
+  </si>
+  <si>
+    <t>+27058-107</t>
+  </si>
+  <si>
+    <t>+1638-599</t>
+  </si>
+  <si>
+    <t>+850-1167</t>
+  </si>
+  <si>
+    <t>+1120-2055</t>
+  </si>
+  <si>
+    <t>+23900-192</t>
+  </si>
+  <si>
+    <t>+415-1548</t>
+  </si>
+  <si>
+    <t>+4429-618</t>
+  </si>
+  <si>
+    <t>+981-1375</t>
+  </si>
+  <si>
+    <t>+6396-794</t>
+  </si>
+  <si>
+    <t>+866-1193</t>
+  </si>
+  <si>
+    <t>+12552-366</t>
+  </si>
+  <si>
+    <t>762-563</t>
+  </si>
+  <si>
+    <t>+9793-725</t>
+  </si>
+  <si>
+    <t>+4410-273</t>
+  </si>
+  <si>
+    <t>+866-1476</t>
+  </si>
+  <si>
+    <t>+1742-1169</t>
+  </si>
+  <si>
+    <t>+979-2098</t>
+  </si>
+  <si>
+    <t>+119-1720</t>
+  </si>
+  <si>
+    <t>+187064-77</t>
+  </si>
+  <si>
+    <t>+3723-696</t>
+  </si>
+  <si>
+    <t>+173120-33</t>
+  </si>
+  <si>
+    <t>+5308-720</t>
+  </si>
+  <si>
+    <t>+26977-232</t>
+  </si>
+  <si>
+    <t>+7578-356</t>
+  </si>
+  <si>
+    <t>+988-877</t>
+  </si>
+  <si>
+    <t>+35286-222</t>
+  </si>
+  <si>
+    <t>+377-1482</t>
+  </si>
+  <si>
+    <t>+4665-465</t>
+  </si>
+  <si>
+    <t>+3057-1363</t>
+  </si>
+  <si>
+    <t>+288-1507</t>
+  </si>
+  <si>
+    <t>+2776-967</t>
+  </si>
+  <si>
+    <t>+14940-193</t>
+  </si>
+  <si>
+    <t>+1203-875</t>
+  </si>
+  <si>
+    <t>+187097-77</t>
+  </si>
+  <si>
+    <t>+431-1616</t>
+  </si>
+  <si>
+    <t>+1077-1468</t>
+  </si>
+  <si>
+    <t>+187086-77</t>
+  </si>
+  <si>
+    <t>+187047-77</t>
+  </si>
+  <si>
+    <t>+187006-77</t>
+  </si>
+  <si>
+    <t>+187056-77</t>
+  </si>
+  <si>
+    <t>+218-1708</t>
+  </si>
+  <si>
+    <t>+5926-379</t>
+  </si>
+  <si>
+    <t>+806-1380</t>
+  </si>
+  <si>
+    <t>+14842-35</t>
+  </si>
+  <si>
+    <t>+13020-397</t>
+  </si>
+  <si>
+    <t>+12829-191</t>
+  </si>
+  <si>
+    <t>+1248-591</t>
+  </si>
+  <si>
+    <t>+2374-305</t>
+  </si>
+  <si>
+    <t>+2947-1095</t>
+  </si>
+  <si>
+    <t>+10551-215</t>
+  </si>
+  <si>
+    <t>+4496-394</t>
+  </si>
+  <si>
+    <t>+8296-671</t>
+  </si>
+  <si>
+    <t>+540-1195</t>
+  </si>
+  <si>
+    <t>+1194-1342</t>
+  </si>
+  <si>
+    <t>+2565-759</t>
+  </si>
+  <si>
+    <t>+535-1112</t>
+  </si>
+  <si>
+    <t>+2545-776</t>
+  </si>
+  <si>
+    <t>+870-1438</t>
+  </si>
+  <si>
+    <t>+123-1550</t>
+  </si>
+  <si>
+    <t>+35268-222</t>
+  </si>
+  <si>
+    <t>+18249-280</t>
+  </si>
+  <si>
+    <t>+187095-77</t>
+  </si>
+  <si>
+    <t>+35266-222</t>
+  </si>
+  <si>
+    <t>+35271-222</t>
+  </si>
+  <si>
+    <t>+3830-856</t>
+  </si>
+  <si>
+    <t>+1492-1377</t>
+  </si>
+  <si>
+    <t>+1029-1239</t>
+  </si>
+  <si>
+    <t>+187087-77</t>
   </si>
 </sst>
 </file>
@@ -5268,10 +5922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A158"/>
+  <dimension ref="A1:A133"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5281,794 +5935,300 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1477</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1478</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1479</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1480</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1481</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1482</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1483</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1484</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1485</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>1486</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1487</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>1488</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>1489</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>1490</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1491</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>1492</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>1493</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1494</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>1495</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>1496</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1497</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>1498</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>1499</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>1500</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>1501</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>1502</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>1503</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>1504</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>1505</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>1506</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>1507</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>1508</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>1509</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>1510</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>1511</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>1512</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>1513</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>1514</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>1515</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>1516</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>1517</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>1518</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>1519</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>1520</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>1521</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>1522</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>1523</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>1524</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>1525</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>1526</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>1527</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>1528</v>
+        <v>652</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>1529</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>1530</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>1531</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>1532</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>1533</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>1534</v>
+        <v>944</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>1634</v>
-      </c>
-    </row>
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6077,10 +6237,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N380"/>
+  <dimension ref="A1:Q380"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:N159"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6092,9 +6252,11 @@
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>44828</v>
       </c>
@@ -6137,8 +6299,17 @@
       <c r="N1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="2">
+        <v>44838</v>
+      </c>
+      <c r="P1" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>223</v>
       </c>
@@ -6181,8 +6352,14 @@
       <c r="N2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>225</v>
       </c>
@@ -6225,8 +6402,14 @@
       <c r="N3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="P3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>227</v>
       </c>
@@ -6269,8 +6452,14 @@
       <c r="N4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="P4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>229</v>
       </c>
@@ -6313,8 +6502,14 @@
       <c r="N5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>231</v>
       </c>
@@ -6357,8 +6552,14 @@
       <c r="N6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="P6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>233</v>
       </c>
@@ -6401,8 +6602,14 @@
       <c r="N7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="P7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>235</v>
       </c>
@@ -6445,8 +6652,14 @@
       <c r="N8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>237</v>
       </c>
@@ -6489,8 +6702,14 @@
       <c r="N9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="P9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>239</v>
       </c>
@@ -6533,8 +6752,14 @@
       <c r="N10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="P10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>241</v>
       </c>
@@ -6577,8 +6802,14 @@
       <c r="N11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="P11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>243</v>
       </c>
@@ -6621,8 +6852,14 @@
       <c r="N12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>245</v>
       </c>
@@ -6665,8 +6902,14 @@
       <c r="N13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>247</v>
       </c>
@@ -6709,8 +6952,14 @@
       <c r="N14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="P14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>249</v>
       </c>
@@ -6753,8 +7002,14 @@
       <c r="N15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="P15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>251</v>
       </c>
@@ -6797,8 +7052,14 @@
       <c r="N16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="P16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>253</v>
       </c>
@@ -6841,8 +7102,14 @@
       <c r="N17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="P17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>255</v>
       </c>
@@ -6885,8 +7152,14 @@
       <c r="N18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="P18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>257</v>
       </c>
@@ -6929,8 +7202,14 @@
       <c r="N19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="P19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>259</v>
       </c>
@@ -6973,8 +7252,14 @@
       <c r="N20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="P20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>261</v>
       </c>
@@ -7017,8 +7302,14 @@
       <c r="N21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="P21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>263</v>
       </c>
@@ -7061,8 +7352,14 @@
       <c r="N22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="P22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>265</v>
       </c>
@@ -7105,8 +7402,14 @@
       <c r="N23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="P23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>267</v>
       </c>
@@ -7149,8 +7452,14 @@
       <c r="N24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="P24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>269</v>
       </c>
@@ -7193,8 +7502,14 @@
       <c r="N25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="P25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>271</v>
       </c>
@@ -7237,8 +7552,14 @@
       <c r="N26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="P26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>273</v>
       </c>
@@ -7281,8 +7602,14 @@
       <c r="N27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="P27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>275</v>
       </c>
@@ -7325,8 +7652,14 @@
       <c r="N28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="P28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>277</v>
       </c>
@@ -7369,8 +7702,14 @@
       <c r="N29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="P29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>279</v>
       </c>
@@ -7413,8 +7752,14 @@
       <c r="N30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="P30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>281</v>
       </c>
@@ -7457,8 +7802,14 @@
       <c r="N31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="P31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>283</v>
       </c>
@@ -7501,8 +7852,14 @@
       <c r="N32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="P32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>285</v>
       </c>
@@ -7545,8 +7902,14 @@
       <c r="N33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="P33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>287</v>
       </c>
@@ -7589,8 +7952,14 @@
       <c r="N34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="P34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>289</v>
       </c>
@@ -7633,8 +8002,14 @@
       <c r="N35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="P35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>291</v>
       </c>
@@ -7677,8 +8052,14 @@
       <c r="N36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="P36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>293</v>
       </c>
@@ -7721,8 +8102,14 @@
       <c r="N37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="P37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>295</v>
       </c>
@@ -7765,8 +8152,14 @@
       <c r="N38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="P38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>297</v>
       </c>
@@ -7809,8 +8202,14 @@
       <c r="N39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="P39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>299</v>
       </c>
@@ -7853,8 +8252,14 @@
       <c r="N40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="P40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>301</v>
       </c>
@@ -7897,8 +8302,14 @@
       <c r="N41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="P41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>303</v>
       </c>
@@ -7941,8 +8352,14 @@
       <c r="N42" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="P42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>305</v>
       </c>
@@ -7985,8 +8402,14 @@
       <c r="N43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="P43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>307</v>
       </c>
@@ -8029,8 +8452,14 @@
       <c r="N44" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="P44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>309</v>
       </c>
@@ -8073,8 +8502,14 @@
       <c r="N45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>311</v>
       </c>
@@ -8117,8 +8552,14 @@
       <c r="N46" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>313</v>
       </c>
@@ -8161,8 +8602,14 @@
       <c r="N47" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>315</v>
       </c>
@@ -8205,8 +8652,14 @@
       <c r="N48" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="P48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>317</v>
       </c>
@@ -8249,8 +8702,14 @@
       <c r="N49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="P49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>319</v>
       </c>
@@ -8293,8 +8752,14 @@
       <c r="N50" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="P50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>321</v>
       </c>
@@ -8337,8 +8802,14 @@
       <c r="N51" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="P51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>323</v>
       </c>
@@ -8381,8 +8852,14 @@
       <c r="N52" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="P52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>325</v>
       </c>
@@ -8425,8 +8902,14 @@
       <c r="N53" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="P53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>327</v>
       </c>
@@ -8469,8 +8952,14 @@
       <c r="N54" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="P54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>329</v>
       </c>
@@ -8513,8 +9002,14 @@
       <c r="N55" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="P55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>331</v>
       </c>
@@ -8557,8 +9052,14 @@
       <c r="N56" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="P56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>333</v>
       </c>
@@ -8601,8 +9102,14 @@
       <c r="N57" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="P57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>335</v>
       </c>
@@ -8645,8 +9152,14 @@
       <c r="N58" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="P58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>337</v>
       </c>
@@ -8689,8 +9202,14 @@
       <c r="N59" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="P59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>339</v>
       </c>
@@ -8733,8 +9252,14 @@
       <c r="N60" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="P60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>341</v>
       </c>
@@ -8777,8 +9302,14 @@
       <c r="N61" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="P61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>343</v>
       </c>
@@ -8821,8 +9352,14 @@
       <c r="N62" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="P62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>345</v>
       </c>
@@ -8865,8 +9402,14 @@
       <c r="N63" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="P63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>347</v>
       </c>
@@ -8909,8 +9452,14 @@
       <c r="N64" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="P64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>349</v>
       </c>
@@ -8953,8 +9502,14 @@
       <c r="N65" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="P65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>351</v>
       </c>
@@ -8997,8 +9552,14 @@
       <c r="N66" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="P66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>353</v>
       </c>
@@ -9041,8 +9602,14 @@
       <c r="N67" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="P67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>355</v>
       </c>
@@ -9085,8 +9652,14 @@
       <c r="N68" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="P68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>357</v>
       </c>
@@ -9129,8 +9702,14 @@
       <c r="N69" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="P69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>359</v>
       </c>
@@ -9173,8 +9752,14 @@
       <c r="N70" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="P70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>361</v>
       </c>
@@ -9217,8 +9802,14 @@
       <c r="N71" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="P71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>363</v>
       </c>
@@ -9261,8 +9852,14 @@
       <c r="N72" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="P72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>365</v>
       </c>
@@ -9305,8 +9902,14 @@
       <c r="N73" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="P73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>367</v>
       </c>
@@ -9349,8 +9952,14 @@
       <c r="N74" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="P74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>369</v>
       </c>
@@ -9393,8 +10002,14 @@
       <c r="N75" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>371</v>
       </c>
@@ -9437,8 +10052,14 @@
       <c r="N76" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="P76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>373</v>
       </c>
@@ -9481,8 +10102,14 @@
       <c r="N77" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="P77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>375</v>
       </c>
@@ -9525,8 +10152,14 @@
       <c r="N78" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="P78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>377</v>
       </c>
@@ -9569,8 +10202,14 @@
       <c r="N79" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="P79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>379</v>
       </c>
@@ -9613,8 +10252,14 @@
       <c r="N80" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="P80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>381</v>
       </c>
@@ -9657,8 +10302,14 @@
       <c r="N81" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="P81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>383</v>
       </c>
@@ -9701,8 +10352,14 @@
       <c r="N82" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="P82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>385</v>
       </c>
@@ -9745,8 +10402,14 @@
       <c r="N83" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="P83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>387</v>
       </c>
@@ -9789,8 +10452,14 @@
       <c r="N84" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O84" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="P84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>389</v>
       </c>
@@ -9833,8 +10502,14 @@
       <c r="N85" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="P85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>391</v>
       </c>
@@ -9877,8 +10552,14 @@
       <c r="N86" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="P86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>393</v>
       </c>
@@ -9921,8 +10602,14 @@
       <c r="N87" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O87" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="P87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>395</v>
       </c>
@@ -9965,8 +10652,14 @@
       <c r="N88" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="P88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>397</v>
       </c>
@@ -10009,8 +10702,14 @@
       <c r="N89" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O89" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="P89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>399</v>
       </c>
@@ -10053,8 +10752,14 @@
       <c r="N90" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O90" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="P90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>401</v>
       </c>
@@ -10097,8 +10802,14 @@
       <c r="N91" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="P91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>403</v>
       </c>
@@ -10141,8 +10852,14 @@
       <c r="N92" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92" s="1" t="s">
+        <v>1725</v>
+      </c>
+      <c r="P92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>405</v>
       </c>
@@ -10185,8 +10902,14 @@
       <c r="N93" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="P93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>407</v>
       </c>
@@ -10229,8 +10952,14 @@
       <c r="N94" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O94" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="P94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>409</v>
       </c>
@@ -10273,8 +11002,14 @@
       <c r="N95" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O95" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="P95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>411</v>
       </c>
@@ -10317,8 +11052,14 @@
       <c r="N96" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O96" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="P96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>413</v>
       </c>
@@ -10361,8 +11102,14 @@
       <c r="N97" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O97" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="P97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>415</v>
       </c>
@@ -10405,8 +11152,14 @@
       <c r="N98" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O98" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="P98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>417</v>
       </c>
@@ -10449,8 +11202,14 @@
       <c r="N99" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O99" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="P99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>419</v>
       </c>
@@ -10493,8 +11252,14 @@
       <c r="N100" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O100" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="P100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>421</v>
       </c>
@@ -10537,8 +11302,14 @@
       <c r="N101" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="P101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>423</v>
       </c>
@@ -10581,8 +11352,14 @@
       <c r="N102" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O102" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="P102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>425</v>
       </c>
@@ -10625,8 +11402,14 @@
       <c r="N103" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O103" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="P103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>427</v>
       </c>
@@ -10669,8 +11452,14 @@
       <c r="N104" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O104" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="P104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>429</v>
       </c>
@@ -10713,8 +11502,14 @@
       <c r="N105" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O105" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="P105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>431</v>
       </c>
@@ -10757,8 +11552,14 @@
       <c r="N106" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O106" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="P106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>433</v>
       </c>
@@ -10801,8 +11602,14 @@
       <c r="N107" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O107" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="P107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>435</v>
       </c>
@@ -10845,8 +11652,14 @@
       <c r="N108" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O108" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="P108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>437</v>
       </c>
@@ -10889,8 +11702,14 @@
       <c r="N109" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O109" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="P109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>439</v>
       </c>
@@ -10933,8 +11752,14 @@
       <c r="N110" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O110" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="P110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>441</v>
       </c>
@@ -10977,8 +11802,14 @@
       <c r="N111" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O111" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="P111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>443</v>
       </c>
@@ -11021,8 +11852,14 @@
       <c r="N112" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O112" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="P112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>445</v>
       </c>
@@ -11065,8 +11902,14 @@
       <c r="N113" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O113" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="P113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>447</v>
       </c>
@@ -11109,8 +11952,14 @@
       <c r="N114" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O114" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="P114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>449</v>
       </c>
@@ -11153,8 +12002,14 @@
       <c r="N115" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O115" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="P115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>451</v>
       </c>
@@ -11197,8 +12052,14 @@
       <c r="N116" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O116" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="P116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>453</v>
       </c>
@@ -11241,8 +12102,14 @@
       <c r="N117" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O117" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="P117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>455</v>
       </c>
@@ -11285,8 +12152,14 @@
       <c r="N118" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O118" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="P118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>457</v>
       </c>
@@ -11329,8 +12202,14 @@
       <c r="N119" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O119" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="P119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>459</v>
       </c>
@@ -11373,8 +12252,14 @@
       <c r="N120" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O120" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="P120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>461</v>
       </c>
@@ -11417,8 +12302,14 @@
       <c r="N121" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O121" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="P121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>463</v>
       </c>
@@ -11461,8 +12352,14 @@
       <c r="N122" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O122" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="P122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>465</v>
       </c>
@@ -11505,8 +12402,14 @@
       <c r="N123" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="P123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>467</v>
       </c>
@@ -11549,8 +12452,14 @@
       <c r="N124" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O124" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="P124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C125" s="1" t="s">
         <v>469</v>
       </c>
@@ -11587,8 +12496,14 @@
       <c r="N125" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O125" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="P125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C126" s="1" t="s">
         <v>470</v>
       </c>
@@ -11625,8 +12540,14 @@
       <c r="N126" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O126" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="P126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C127" s="1" t="s">
         <v>471</v>
       </c>
@@ -11663,8 +12584,14 @@
       <c r="N127" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O127" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="P127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C128" s="1" t="s">
         <v>472</v>
       </c>
@@ -11701,8 +12628,14 @@
       <c r="N128" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O128" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="P128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C129" s="1" t="s">
         <v>473</v>
       </c>
@@ -11739,8 +12672,14 @@
       <c r="N129" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O129" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="P129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C130" s="1" t="s">
         <v>474</v>
       </c>
@@ -11777,8 +12716,14 @@
       <c r="N130" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="131" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O130" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="P130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C131" s="1" t="s">
         <v>475</v>
       </c>
@@ -11815,8 +12760,14 @@
       <c r="N131" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="132" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O131" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="P131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C132" s="1" t="s">
         <v>476</v>
       </c>
@@ -11853,8 +12804,14 @@
       <c r="N132" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O132" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="P132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C133" s="1" t="s">
         <v>477</v>
       </c>
@@ -11891,8 +12848,14 @@
       <c r="N133" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O133" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="P133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C134" s="1" t="s">
         <v>478</v>
       </c>
@@ -11929,8 +12892,14 @@
       <c r="N134" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="135" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O134" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="P134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C135" s="1" t="s">
         <v>479</v>
       </c>
@@ -11967,8 +12936,14 @@
       <c r="N135" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O135" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="P135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C136" s="1" t="s">
         <v>480</v>
       </c>
@@ -12005,8 +12980,14 @@
       <c r="N136" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O136" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="P136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C137" s="1" t="s">
         <v>481</v>
       </c>
@@ -12043,8 +13024,14 @@
       <c r="N137" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="138" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O137" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="P137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C138" s="1" t="s">
         <v>482</v>
       </c>
@@ -12081,8 +13068,14 @@
       <c r="N138" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O138" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="P138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C139" s="1" t="s">
         <v>483</v>
       </c>
@@ -12119,8 +13112,14 @@
       <c r="N139" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O139" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="P139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C140" s="1" t="s">
         <v>484</v>
       </c>
@@ -12157,8 +13156,14 @@
       <c r="N140" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O140" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="P140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C141" s="1" t="s">
         <v>485</v>
       </c>
@@ -12195,8 +13200,14 @@
       <c r="N141" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="142" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O141" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="P141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C142" s="1" t="s">
         <v>486</v>
       </c>
@@ -12233,8 +13244,14 @@
       <c r="N142" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="143" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O142" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="P142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C143" s="1" t="s">
         <v>487</v>
       </c>
@@ -12271,8 +13288,14 @@
       <c r="N143" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="144" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O143" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="P143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C144" s="1" t="s">
         <v>488</v>
       </c>
@@ -12309,8 +13332,14 @@
       <c r="N144" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="145" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O144" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="P144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C145" s="1" t="s">
         <v>489</v>
       </c>
@@ -12347,8 +13376,14 @@
       <c r="N145" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="146" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O145" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="P145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C146" s="1" t="s">
         <v>490</v>
       </c>
@@ -12385,8 +13420,14 @@
       <c r="N146" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O146" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="P146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C147" s="1" t="s">
         <v>491</v>
       </c>
@@ -12423,8 +13464,14 @@
       <c r="N147" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="148" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O147" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="P147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C148" s="1" t="s">
         <v>492</v>
       </c>
@@ -12461,8 +13508,14 @@
       <c r="N148" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O148" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="P148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C149" s="1" t="s">
         <v>493</v>
       </c>
@@ -12499,8 +13552,14 @@
       <c r="N149" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O149" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="P149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C150" s="1" t="s">
         <v>494</v>
       </c>
@@ -12537,8 +13596,14 @@
       <c r="N150" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="151" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O150" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="P150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C151" s="1" t="s">
         <v>495</v>
       </c>
@@ -12575,8 +13640,14 @@
       <c r="N151" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="152" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O151" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="P151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C152" s="1" t="s">
         <v>496</v>
       </c>
@@ -12613,8 +13684,14 @@
       <c r="N152" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="153" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O152" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="P152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C153" s="1" t="s">
         <v>497</v>
       </c>
@@ -12651,8 +13728,14 @@
       <c r="N153" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="154" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O153" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="P153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C154" s="1" t="s">
         <v>498</v>
       </c>
@@ -12689,8 +13772,14 @@
       <c r="N154" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="155" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O154" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="P154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C155" s="1" t="s">
         <v>499</v>
       </c>
@@ -12727,8 +13816,14 @@
       <c r="N155" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="156" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O155" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="P155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C156" s="1" t="s">
         <v>500</v>
       </c>
@@ -12765,8 +13860,14 @@
       <c r="N156" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O156" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="P156" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C157" s="1" t="s">
         <v>501</v>
       </c>
@@ -12803,8 +13904,14 @@
       <c r="N157" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="158" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O157" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="P157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C158" s="1" t="s">
         <v>502</v>
       </c>
@@ -12841,8 +13948,14 @@
       <c r="N158" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="159" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O158" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="P158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C159" s="1" t="s">
         <v>503</v>
       </c>
@@ -12879,8 +13992,14 @@
       <c r="N159" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="160" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O159" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="P159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C160" s="1" t="s">
         <v>504</v>
       </c>
@@ -12911,8 +14030,14 @@
       <c r="L160" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="O160" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="P160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C161" s="1" t="s">
         <v>505</v>
       </c>
@@ -12943,8 +14068,14 @@
       <c r="L161" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="162" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="O161" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="P161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C162" s="1" t="s">
         <v>506</v>
       </c>
@@ -12975,8 +14106,14 @@
       <c r="L162" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="163" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="O162" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="P162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C163" s="1" t="s">
         <v>507</v>
       </c>
@@ -13007,8 +14144,14 @@
       <c r="L163" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="O163" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="P163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C164" s="1" t="s">
         <v>508</v>
       </c>
@@ -13039,8 +14182,14 @@
       <c r="L164" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="165" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="O164" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="P164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C165" s="1" t="s">
         <v>509</v>
       </c>
@@ -13065,8 +14214,14 @@
       <c r="J165" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="166" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="O165" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="P165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C166" s="1" t="s">
         <v>510</v>
       </c>
@@ -13092,7 +14247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C167" s="1" t="s">
         <v>511</v>
       </c>
@@ -13118,7 +14273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C168" s="1" t="s">
         <v>512</v>
       </c>
@@ -13138,7 +14293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C169" s="1" t="s">
         <v>513</v>
       </c>
@@ -13158,7 +14313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C170" s="1" t="s">
         <v>514</v>
       </c>
@@ -13178,7 +14333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C171" s="1" t="s">
         <v>515</v>
       </c>
@@ -13198,7 +14353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C172" s="1" t="s">
         <v>516</v>
       </c>
@@ -13218,7 +14373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C173" s="1" t="s">
         <v>517</v>
       </c>
@@ -13238,7 +14393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C174" s="1" t="s">
         <v>518</v>
       </c>
@@ -13258,7 +14413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C175" s="1" t="s">
         <v>519</v>
       </c>
@@ -13278,7 +14433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C176" s="1" t="s">
         <v>520</v>
       </c>

--- a/Autostockin/stockin49.xlsx
+++ b/Autostockin/stockin49.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstuff\my-work-python-script\Autostockin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67368FEA-A407-4750-AA6C-C54293FD7006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF123F6-545F-479C-8C1A-AB2239D7CD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="1890" windowWidth="18195" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="1853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="2006">
   <si>
     <t>+7023-319</t>
   </si>
@@ -5594,6 +5594,465 @@
   </si>
   <si>
     <t>+187087-77</t>
+  </si>
+  <si>
+    <t>A598-647</t>
+  </si>
+  <si>
+    <t>A597-647</t>
+  </si>
+  <si>
+    <t>A154-369</t>
+  </si>
+  <si>
+    <t>A434-476</t>
+  </si>
+  <si>
+    <t>A1222-114</t>
+  </si>
+  <si>
+    <t>A0061-1094</t>
+  </si>
+  <si>
+    <t>A168-134</t>
+  </si>
+  <si>
+    <t>A167-134</t>
+  </si>
+  <si>
+    <t>A0053-1466</t>
+  </si>
+  <si>
+    <t>A0054-1466</t>
+  </si>
+  <si>
+    <t>A276-458</t>
+  </si>
+  <si>
+    <t>A221-354</t>
+  </si>
+  <si>
+    <t>A0029-147</t>
+  </si>
+  <si>
+    <t>A277-458</t>
+  </si>
+  <si>
+    <t>A145-220</t>
+  </si>
+  <si>
+    <t>A627-233</t>
+  </si>
+  <si>
+    <t>A278-458</t>
+  </si>
+  <si>
+    <t>A275-458</t>
+  </si>
+  <si>
+    <t>A162-277</t>
+  </si>
+  <si>
+    <t>A0081-193</t>
+  </si>
+  <si>
+    <t>A387-315</t>
+  </si>
+  <si>
+    <t>A110-465</t>
+  </si>
+  <si>
+    <t>A0092-794</t>
+  </si>
+  <si>
+    <t>A435-476</t>
+  </si>
+  <si>
+    <t>A005-757</t>
+  </si>
+  <si>
+    <t>A0031-552</t>
+  </si>
+  <si>
+    <t>A193-273</t>
+  </si>
+  <si>
+    <t>A0051-895</t>
+  </si>
+  <si>
+    <t>A323-232</t>
+  </si>
+  <si>
+    <t>A467-1067</t>
+  </si>
+  <si>
+    <t>A469-1067</t>
+  </si>
+  <si>
+    <t>A0047-712</t>
+  </si>
+  <si>
+    <t>A0040-1194</t>
+  </si>
+  <si>
+    <t>A0092-1404</t>
+  </si>
+  <si>
+    <t>A177-367</t>
+  </si>
+  <si>
+    <t>A320-232</t>
+  </si>
+  <si>
+    <t>A173-197</t>
+  </si>
+  <si>
+    <t>A0036-596</t>
+  </si>
+  <si>
+    <t>A545-337</t>
+  </si>
+  <si>
+    <t>A0069-652</t>
+  </si>
+  <si>
+    <t>A0088-840</t>
+  </si>
+  <si>
+    <t>A212-776</t>
+  </si>
+  <si>
+    <t>A239-119</t>
+  </si>
+  <si>
+    <t>A665-748</t>
+  </si>
+  <si>
+    <t>A180-693</t>
+  </si>
+  <si>
+    <t>A136-619</t>
+  </si>
+  <si>
+    <t>A174-667</t>
+  </si>
+  <si>
+    <t>A134-632</t>
+  </si>
+  <si>
+    <t>A0047-586</t>
+  </si>
+  <si>
+    <t>A004-2181</t>
+  </si>
+  <si>
+    <t>A284-242</t>
+  </si>
+  <si>
+    <t>A236-119</t>
+  </si>
+  <si>
+    <t>A0096-720</t>
+  </si>
+  <si>
+    <t>A175-667</t>
+  </si>
+  <si>
+    <t>A736-335</t>
+  </si>
+  <si>
+    <t>A251-206</t>
+  </si>
+  <si>
+    <t>A254-206</t>
+  </si>
+  <si>
+    <t>A0072-1074</t>
+  </si>
+  <si>
+    <t>A338-543</t>
+  </si>
+  <si>
+    <t>A582-410</t>
+  </si>
+  <si>
+    <t>A0030-1546</t>
+  </si>
+  <si>
+    <t>A006-2146</t>
+  </si>
+  <si>
+    <t>A146-220</t>
+  </si>
+  <si>
+    <t>A225-695</t>
+  </si>
+  <si>
+    <t>A444-115</t>
+  </si>
+  <si>
+    <t>225-695</t>
+  </si>
+  <si>
+    <t>A0034-887</t>
+  </si>
+  <si>
+    <t>A0037-859</t>
+  </si>
+  <si>
+    <t>A0061-422</t>
+  </si>
+  <si>
+    <t>A0028-352</t>
+  </si>
+  <si>
+    <t>A0035-887</t>
+  </si>
+  <si>
+    <t>A006-1728</t>
+  </si>
+  <si>
+    <t>A679-627</t>
+  </si>
+  <si>
+    <t>A009-1103</t>
+  </si>
+  <si>
+    <t>A0024-1475</t>
+  </si>
+  <si>
+    <t>A462-179</t>
+  </si>
+  <si>
+    <t>A1321-633</t>
+  </si>
+  <si>
+    <t>A1320-633</t>
+  </si>
+  <si>
+    <t>A0062-422</t>
+  </si>
+  <si>
+    <t>A468-1067</t>
+  </si>
+  <si>
+    <t>A663-748</t>
+  </si>
+  <si>
+    <t>A442-115</t>
+  </si>
+  <si>
+    <t>A0023-376</t>
+  </si>
+  <si>
+    <t>A0061-211</t>
+  </si>
+  <si>
+    <t>A680-627</t>
+  </si>
+  <si>
+    <t>145-356</t>
+  </si>
+  <si>
+    <t>A0096-723</t>
+  </si>
+  <si>
+    <t>A147-368</t>
+  </si>
+  <si>
+    <t>A141-452</t>
+  </si>
+  <si>
+    <t>A0043-657</t>
+  </si>
+  <si>
+    <t>A322-255</t>
+  </si>
+  <si>
+    <t>A151-486</t>
+  </si>
+  <si>
+    <t>A0044-1554</t>
+  </si>
+  <si>
+    <t>A317-646</t>
+  </si>
+  <si>
+    <t>A0074-779</t>
+  </si>
+  <si>
+    <t>A0095-723</t>
+  </si>
+  <si>
+    <t>A112-172</t>
+  </si>
+  <si>
+    <t>278-660</t>
+  </si>
+  <si>
+    <t>514-105</t>
+  </si>
+  <si>
+    <t>A436-246</t>
+  </si>
+  <si>
+    <t>A135-1376</t>
+  </si>
+  <si>
+    <t>A246-286</t>
+  </si>
+  <si>
+    <t>A0045-996</t>
+  </si>
+  <si>
+    <t>A0077-1484</t>
+  </si>
+  <si>
+    <t>A0057-1048</t>
+  </si>
+  <si>
+    <t>A308-249</t>
+  </si>
+  <si>
+    <t>A393-298</t>
+  </si>
+  <si>
+    <t>A171-371</t>
+  </si>
+  <si>
+    <t>A220-684</t>
+  </si>
+  <si>
+    <t>A256-305</t>
+  </si>
+  <si>
+    <t>A513-105</t>
+  </si>
+  <si>
+    <t>A110-768</t>
+  </si>
+  <si>
+    <t>A581-410</t>
+  </si>
+  <si>
+    <t>A172-780</t>
+  </si>
+  <si>
+    <t>A734-335</t>
+  </si>
+  <si>
+    <t>A008-1103</t>
+  </si>
+  <si>
+    <t>A0050-1195</t>
+  </si>
+  <si>
+    <t>A289-413</t>
+  </si>
+  <si>
+    <t>A0021-1725</t>
+  </si>
+  <si>
+    <t>A735-335</t>
+  </si>
+  <si>
+    <t>A284-661</t>
+  </si>
+  <si>
+    <t>A383-53</t>
+  </si>
+  <si>
+    <t>A139-1196</t>
+  </si>
+  <si>
+    <t>A250-206</t>
+  </si>
+  <si>
+    <t>A626-233</t>
+  </si>
+  <si>
+    <t>A275-651</t>
+  </si>
+  <si>
+    <t>A0069-743</t>
+  </si>
+  <si>
+    <t>A0074-334</t>
+  </si>
+  <si>
+    <t>A125-1075</t>
+  </si>
+  <si>
+    <t>146-356</t>
+  </si>
+  <si>
+    <t>A732-292</t>
+  </si>
+  <si>
+    <t>253-192</t>
+  </si>
+  <si>
+    <t>A111-363</t>
+  </si>
+  <si>
+    <t>A150-499</t>
+  </si>
+  <si>
+    <t>A681-627</t>
+  </si>
+  <si>
+    <t>A473-675</t>
+  </si>
+  <si>
+    <t>A0010-1103</t>
+  </si>
+  <si>
+    <t>A213-654</t>
+  </si>
+  <si>
+    <t>A544-337</t>
+  </si>
+  <si>
+    <t>A214-844</t>
+  </si>
+  <si>
+    <t>A567-691</t>
+  </si>
+  <si>
+    <t>A429-498</t>
+  </si>
+  <si>
+    <t>A512-105</t>
+  </si>
+  <si>
+    <t>A101-263</t>
+  </si>
+  <si>
+    <t>A308-741</t>
+  </si>
+  <si>
+    <t>A0075-288</t>
+  </si>
+  <si>
+    <t>A949-106</t>
+  </si>
+  <si>
+    <t>A947-106</t>
+  </si>
+  <si>
+    <t>A950-106</t>
+  </si>
+  <si>
+    <t>A229-914</t>
+  </si>
+  <si>
+    <t>86-673</t>
+  </si>
+  <si>
+    <t>A568-691</t>
+  </si>
+  <si>
+    <t>A287-414</t>
   </si>
 </sst>
 </file>
@@ -5922,10 +6381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A133"/>
+  <dimension ref="A1:A157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5935,312 +6394,801 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1798</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1799</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1800</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1801</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1802</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1803</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1804</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1805</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1806</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>1807</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1808</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>1809</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>1810</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>1811</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1812</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>1813</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>1814</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1815</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>1816</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>1817</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1818</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>1819</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>1820</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>1821</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>1822</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>1823</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>1824</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>1825</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>1826</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>1827</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>1828</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>1829</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>1830</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>1831</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>1832</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>1833</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>1834</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>1835</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>1836</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>1837</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>1208</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>1838</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>1839</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>1840</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>1841</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>1842</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>1021</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>1843</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>1844</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>1845</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>1846</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>652</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>1847</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>1848</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>1849</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>1850</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>1851</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>944</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>2005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q380"/>
+  <dimension ref="A1:R380"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView topLeftCell="G59" workbookViewId="0">
+      <selection activeCell="S60" sqref="S60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6256,7 +7204,7 @@
     <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>44828</v>
       </c>
@@ -6308,8 +7256,11 @@
       <c r="Q1" s="2">
         <v>44839</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>223</v>
       </c>
@@ -6358,8 +7309,14 @@
       <c r="P2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q2" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="R2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>225</v>
       </c>
@@ -6408,8 +7365,14 @@
       <c r="P3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q3" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="R3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>227</v>
       </c>
@@ -6458,8 +7421,14 @@
       <c r="P4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="R4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>229</v>
       </c>
@@ -6508,8 +7477,14 @@
       <c r="P5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q5" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="R5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>231</v>
       </c>
@@ -6558,8 +7533,14 @@
       <c r="P6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q6" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="R6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>233</v>
       </c>
@@ -6608,8 +7589,14 @@
       <c r="P7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q7" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="R7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>235</v>
       </c>
@@ -6658,8 +7645,14 @@
       <c r="P8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q8" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>237</v>
       </c>
@@ -6708,8 +7701,14 @@
       <c r="P9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q9" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="R9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>239</v>
       </c>
@@ -6758,8 +7757,14 @@
       <c r="P10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q10" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="R10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>241</v>
       </c>
@@ -6808,8 +7813,14 @@
       <c r="P11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q11" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="R11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>243</v>
       </c>
@@ -6858,8 +7869,14 @@
       <c r="P12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q12" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="R12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>245</v>
       </c>
@@ -6908,8 +7925,14 @@
       <c r="P13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q13" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="R13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>247</v>
       </c>
@@ -6958,8 +7981,14 @@
       <c r="P14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q14" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="R14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>249</v>
       </c>
@@ -7008,8 +8037,14 @@
       <c r="P15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q15" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="R15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>251</v>
       </c>
@@ -7058,8 +8093,14 @@
       <c r="P16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="R16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>253</v>
       </c>
@@ -7108,8 +8149,14 @@
       <c r="P17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="R17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>255</v>
       </c>
@@ -7158,8 +8205,14 @@
       <c r="P18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="R18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>257</v>
       </c>
@@ -7208,8 +8261,14 @@
       <c r="P19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="R19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>259</v>
       </c>
@@ -7258,8 +8317,14 @@
       <c r="P20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="R20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>261</v>
       </c>
@@ -7308,8 +8373,14 @@
       <c r="P21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="R21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>263</v>
       </c>
@@ -7358,8 +8429,14 @@
       <c r="P22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="R22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>265</v>
       </c>
@@ -7408,8 +8485,14 @@
       <c r="P23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="R23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>267</v>
       </c>
@@ -7458,8 +8541,14 @@
       <c r="P24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="R24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>269</v>
       </c>
@@ -7508,8 +8597,14 @@
       <c r="P25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="R25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>271</v>
       </c>
@@ -7558,8 +8653,14 @@
       <c r="P26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="R26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>273</v>
       </c>
@@ -7608,8 +8709,14 @@
       <c r="P27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="R27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>275</v>
       </c>
@@ -7658,8 +8765,14 @@
       <c r="P28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="R28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>277</v>
       </c>
@@ -7708,8 +8821,14 @@
       <c r="P29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="R29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>279</v>
       </c>
@@ -7758,8 +8877,14 @@
       <c r="P30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="R30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>281</v>
       </c>
@@ -7808,8 +8933,14 @@
       <c r="P31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="R31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>283</v>
       </c>
@@ -7858,8 +8989,14 @@
       <c r="P32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="R32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>285</v>
       </c>
@@ -7908,8 +9045,14 @@
       <c r="P33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="R33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>287</v>
       </c>
@@ -7958,8 +9101,14 @@
       <c r="P34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="R34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>289</v>
       </c>
@@ -8008,8 +9157,14 @@
       <c r="P35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="R35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>291</v>
       </c>
@@ -8058,8 +9213,14 @@
       <c r="P36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="R36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>293</v>
       </c>
@@ -8108,8 +9269,14 @@
       <c r="P37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="R37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>295</v>
       </c>
@@ -8158,8 +9325,14 @@
       <c r="P38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="R38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>297</v>
       </c>
@@ -8208,8 +9381,14 @@
       <c r="P39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="R39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>299</v>
       </c>
@@ -8258,8 +9437,14 @@
       <c r="P40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="R40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>301</v>
       </c>
@@ -8308,8 +9493,14 @@
       <c r="P41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="R41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>303</v>
       </c>
@@ -8358,8 +9549,14 @@
       <c r="P42" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="R42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>305</v>
       </c>
@@ -8408,8 +9605,14 @@
       <c r="P43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="R43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>307</v>
       </c>
@@ -8458,8 +9661,14 @@
       <c r="P44" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="R44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>309</v>
       </c>
@@ -8508,8 +9717,14 @@
       <c r="P45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="R45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>311</v>
       </c>
@@ -8558,8 +9773,14 @@
       <c r="P46" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="R46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>313</v>
       </c>
@@ -8608,8 +9829,14 @@
       <c r="P47" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="R47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>315</v>
       </c>
@@ -8658,8 +9885,14 @@
       <c r="P48" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q48" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="R48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>317</v>
       </c>
@@ -8708,8 +9941,14 @@
       <c r="P49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="R49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>319</v>
       </c>
@@ -8758,8 +9997,14 @@
       <c r="P50" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="R50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>321</v>
       </c>
@@ -8808,8 +10053,14 @@
       <c r="P51" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q51" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="R51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>323</v>
       </c>
@@ -8858,8 +10109,14 @@
       <c r="P52" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="R52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>325</v>
       </c>
@@ -8908,8 +10165,14 @@
       <c r="P53" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="R53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>327</v>
       </c>
@@ -8958,8 +10221,14 @@
       <c r="P54" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="R54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>329</v>
       </c>
@@ -9008,8 +10277,14 @@
       <c r="P55" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="R55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>331</v>
       </c>
@@ -9058,8 +10333,14 @@
       <c r="P56" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q56" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="R56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>333</v>
       </c>
@@ -9108,8 +10389,14 @@
       <c r="P57" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q57" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="R57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>335</v>
       </c>
@@ -9158,8 +10445,14 @@
       <c r="P58" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="R58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>337</v>
       </c>
@@ -9208,8 +10501,14 @@
       <c r="P59" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q59" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="R59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>339</v>
       </c>
@@ -9258,8 +10557,14 @@
       <c r="P60" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q60" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="R60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>341</v>
       </c>
@@ -9309,7 +10614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>343</v>
       </c>
@@ -9359,7 +10664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>345</v>
       </c>
@@ -9409,7 +10714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>347</v>
       </c>
@@ -17143,6 +18448,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Autostockin/stockin49.xlsx
+++ b/Autostockin/stockin49.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstuff\my-work-python-script\Autostockin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67368FEA-A407-4750-AA6C-C54293FD7006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB65E91-F017-450D-822D-E23751B18714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="1853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3688" uniqueCount="1881">
   <si>
     <t>+7023-319</t>
   </si>
@@ -5431,169 +5431,253 @@
     <t>+9793-725</t>
   </si>
   <si>
-    <t>+4410-273</t>
-  </si>
-  <si>
-    <t>+866-1476</t>
-  </si>
-  <si>
-    <t>+1742-1169</t>
-  </si>
-  <si>
-    <t>+979-2098</t>
-  </si>
-  <si>
-    <t>+119-1720</t>
-  </si>
-  <si>
-    <t>+187064-77</t>
-  </si>
-  <si>
-    <t>+3723-696</t>
-  </si>
-  <si>
-    <t>+173120-33</t>
-  </si>
-  <si>
-    <t>+5308-720</t>
-  </si>
-  <si>
-    <t>+26977-232</t>
-  </si>
-  <si>
-    <t>+7578-356</t>
-  </si>
-  <si>
-    <t>+988-877</t>
-  </si>
-  <si>
-    <t>+35286-222</t>
-  </si>
-  <si>
-    <t>+377-1482</t>
-  </si>
-  <si>
-    <t>+4665-465</t>
-  </si>
-  <si>
-    <t>+3057-1363</t>
-  </si>
-  <si>
-    <t>+288-1507</t>
-  </si>
-  <si>
-    <t>+2776-967</t>
-  </si>
-  <si>
-    <t>+14940-193</t>
-  </si>
-  <si>
-    <t>+1203-875</t>
-  </si>
-  <si>
-    <t>+187097-77</t>
-  </si>
-  <si>
-    <t>+431-1616</t>
-  </si>
-  <si>
-    <t>+1077-1468</t>
-  </si>
-  <si>
-    <t>+187086-77</t>
-  </si>
-  <si>
-    <t>+187047-77</t>
-  </si>
-  <si>
-    <t>+187006-77</t>
-  </si>
-  <si>
-    <t>+187056-77</t>
-  </si>
-  <si>
-    <t>+218-1708</t>
-  </si>
-  <si>
-    <t>+5926-379</t>
-  </si>
-  <si>
-    <t>+806-1380</t>
-  </si>
-  <si>
-    <t>+14842-35</t>
-  </si>
-  <si>
-    <t>+13020-397</t>
-  </si>
-  <si>
-    <t>+12829-191</t>
-  </si>
-  <si>
-    <t>+1248-591</t>
-  </si>
-  <si>
-    <t>+2374-305</t>
-  </si>
-  <si>
-    <t>+2947-1095</t>
-  </si>
-  <si>
-    <t>+10551-215</t>
-  </si>
-  <si>
-    <t>+4496-394</t>
-  </si>
-  <si>
-    <t>+8296-671</t>
-  </si>
-  <si>
-    <t>+540-1195</t>
-  </si>
-  <si>
-    <t>+1194-1342</t>
-  </si>
-  <si>
-    <t>+2565-759</t>
-  </si>
-  <si>
-    <t>+535-1112</t>
-  </si>
-  <si>
-    <t>+2545-776</t>
-  </si>
-  <si>
-    <t>+870-1438</t>
-  </si>
-  <si>
-    <t>+123-1550</t>
-  </si>
-  <si>
-    <t>+35268-222</t>
-  </si>
-  <si>
-    <t>+18249-280</t>
-  </si>
-  <si>
-    <t>+187095-77</t>
-  </si>
-  <si>
-    <t>+35266-222</t>
-  </si>
-  <si>
-    <t>+35271-222</t>
-  </si>
-  <si>
-    <t>+3830-856</t>
-  </si>
-  <si>
-    <t>+1492-1377</t>
-  </si>
-  <si>
-    <t>+1029-1239</t>
-  </si>
-  <si>
-    <t>+187087-77</t>
+    <t>+9748-486</t>
+  </si>
+  <si>
+    <t>+41140-167</t>
+  </si>
+  <si>
+    <t>+5996-469</t>
+  </si>
+  <si>
+    <t>+9267-749</t>
+  </si>
+  <si>
+    <t>+15311-193</t>
+  </si>
+  <si>
+    <t>+7961-339</t>
+  </si>
+  <si>
+    <t>+0061-1353</t>
+  </si>
+  <si>
+    <t>+342-821</t>
+  </si>
+  <si>
+    <t>+1033-1170</t>
+  </si>
+  <si>
+    <t>+3125-1102</t>
+  </si>
+  <si>
+    <t>+14100-327</t>
+  </si>
+  <si>
+    <t>+228-1720</t>
+  </si>
+  <si>
+    <t>306-808</t>
+  </si>
+  <si>
+    <t>+29447-131</t>
+  </si>
+  <si>
+    <t>+2529-778</t>
+  </si>
+  <si>
+    <t>+9027-635</t>
+  </si>
+  <si>
+    <t>+1980-574</t>
+  </si>
+  <si>
+    <t>+3075-1064</t>
+  </si>
+  <si>
+    <t>+23920-207</t>
+  </si>
+  <si>
+    <t>+0082-1350</t>
+  </si>
+  <si>
+    <t>+616-1462</t>
+  </si>
+  <si>
+    <t>+115-595</t>
+  </si>
+  <si>
+    <t>+516-1714</t>
+  </si>
+  <si>
+    <t>5381-713</t>
+  </si>
+  <si>
+    <t>+640-1475</t>
+  </si>
+  <si>
+    <t>+26390-119</t>
+  </si>
+  <si>
+    <t>+2057-997</t>
+  </si>
+  <si>
+    <t>+0080-1766</t>
+  </si>
+  <si>
+    <t>+0077-569</t>
+  </si>
+  <si>
+    <t>+197022-77</t>
+  </si>
+  <si>
+    <t>+24445-192</t>
+  </si>
+  <si>
+    <t>+0095-860</t>
+  </si>
+  <si>
+    <t>+615-1462</t>
+  </si>
+  <si>
+    <t>+331-827</t>
+  </si>
+  <si>
+    <t>+153-1576</t>
+  </si>
+  <si>
+    <t>+27939-232</t>
+  </si>
+  <si>
+    <t>+368-805</t>
+  </si>
+  <si>
+    <t>+131-1600</t>
+  </si>
+  <si>
+    <t>+10152-458</t>
+  </si>
+  <si>
+    <t>+16374-354</t>
+  </si>
+  <si>
+    <t>+470-823</t>
+  </si>
+  <si>
+    <t>5033-1205</t>
+  </si>
+  <si>
+    <t>+0080-1300</t>
+  </si>
+  <si>
+    <t>+3231-736</t>
+  </si>
+  <si>
+    <t>+2854-1074</t>
+  </si>
+  <si>
+    <t>+36143-222</t>
+  </si>
+  <si>
+    <t>+3377-991</t>
+  </si>
+  <si>
+    <t>+3204-168</t>
+  </si>
+  <si>
+    <t>+14187-398</t>
+  </si>
+  <si>
+    <t>+13912-477</t>
+  </si>
+  <si>
+    <t>+0061-1774</t>
+  </si>
+  <si>
+    <t>+337-820</t>
+  </si>
+  <si>
+    <t>+469-823</t>
+  </si>
+  <si>
+    <t>+22720-182</t>
+  </si>
+  <si>
+    <t>+8050-211</t>
+  </si>
+  <si>
+    <t>+6445-334</t>
+  </si>
+  <si>
+    <t>+16113-639</t>
+  </si>
+  <si>
+    <t>+38535-31</t>
+  </si>
+  <si>
+    <t>+12848-366</t>
+  </si>
+  <si>
+    <t>+7531-612</t>
+  </si>
+  <si>
+    <t>+2342-1070</t>
+  </si>
+  <si>
+    <t>+5490-745</t>
+  </si>
+  <si>
+    <t>+365-802</t>
+  </si>
+  <si>
+    <t>+5419-723</t>
+  </si>
+  <si>
+    <t>+6794-667</t>
+  </si>
+  <si>
+    <t>+1391-544</t>
+  </si>
+  <si>
+    <t>+10275-725</t>
+  </si>
+  <si>
+    <t>+3863-789</t>
+  </si>
+  <si>
+    <t>+104-1352</t>
+  </si>
+  <si>
+    <t>+1892-1376</t>
+  </si>
+  <si>
+    <t>+800-1324</t>
+  </si>
+  <si>
+    <t>+5559-371</t>
+  </si>
+  <si>
+    <t>+2768-1369</t>
+  </si>
+  <si>
+    <t>+1787-434</t>
+  </si>
+  <si>
+    <t>+3738-446</t>
+  </si>
+  <si>
+    <t>+34549-179</t>
+  </si>
+  <si>
+    <t>+5254-951</t>
+  </si>
+  <si>
+    <t>+24082-476</t>
+  </si>
+  <si>
+    <t>+6824-794</t>
+  </si>
+  <si>
+    <t>+12465-1067</t>
+  </si>
+  <si>
+    <t>+1173-1193</t>
+  </si>
+  <si>
+    <t>+314-1749</t>
+  </si>
+  <si>
+    <t>+10100-605</t>
   </si>
 </sst>
 </file>
@@ -5924,9 +6008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6135,103 +6217,228 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>1208</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>1021</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>652</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>1848</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>944</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>1852</v>
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>1880</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Autostockin/stockin49.xlsx
+++ b/Autostockin/stockin49.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstuff\my-work-python-script\Autostockin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF123F6-545F-479C-8C1A-AB2239D7CD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB665AC7-6CE5-4ED8-AC1F-A18175F032E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1890" windowWidth="18195" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="2006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4072" uniqueCount="2159">
   <si>
     <t>+7023-319</t>
   </si>
@@ -5596,463 +5586,922 @@
     <t>+187087-77</t>
   </si>
   <si>
-    <t>A598-647</t>
-  </si>
-  <si>
-    <t>A597-647</t>
-  </si>
-  <si>
-    <t>A154-369</t>
-  </si>
-  <si>
-    <t>A434-476</t>
-  </si>
-  <si>
-    <t>A1222-114</t>
-  </si>
-  <si>
-    <t>A0061-1094</t>
-  </si>
-  <si>
-    <t>A168-134</t>
-  </si>
-  <si>
-    <t>A167-134</t>
-  </si>
-  <si>
-    <t>A0053-1466</t>
-  </si>
-  <si>
-    <t>A0054-1466</t>
-  </si>
-  <si>
-    <t>A276-458</t>
-  </si>
-  <si>
-    <t>A221-354</t>
-  </si>
-  <si>
-    <t>A0029-147</t>
-  </si>
-  <si>
-    <t>A277-458</t>
-  </si>
-  <si>
-    <t>A145-220</t>
-  </si>
-  <si>
-    <t>A627-233</t>
-  </si>
-  <si>
-    <t>A278-458</t>
-  </si>
-  <si>
-    <t>A275-458</t>
-  </si>
-  <si>
-    <t>A162-277</t>
-  </si>
-  <si>
-    <t>A0081-193</t>
-  </si>
-  <si>
-    <t>A387-315</t>
-  </si>
-  <si>
-    <t>A110-465</t>
-  </si>
-  <si>
-    <t>A0092-794</t>
-  </si>
-  <si>
-    <t>A435-476</t>
-  </si>
-  <si>
-    <t>A005-757</t>
-  </si>
-  <si>
-    <t>A0031-552</t>
-  </si>
-  <si>
-    <t>A193-273</t>
-  </si>
-  <si>
-    <t>A0051-895</t>
-  </si>
-  <si>
-    <t>A323-232</t>
-  </si>
-  <si>
-    <t>A467-1067</t>
-  </si>
-  <si>
-    <t>A469-1067</t>
-  </si>
-  <si>
-    <t>A0047-712</t>
-  </si>
-  <si>
-    <t>A0040-1194</t>
-  </si>
-  <si>
-    <t>A0092-1404</t>
-  </si>
-  <si>
-    <t>A177-367</t>
-  </si>
-  <si>
-    <t>A320-232</t>
-  </si>
-  <si>
-    <t>A173-197</t>
-  </si>
-  <si>
-    <t>A0036-596</t>
-  </si>
-  <si>
-    <t>A545-337</t>
-  </si>
-  <si>
-    <t>A0069-652</t>
-  </si>
-  <si>
-    <t>A0088-840</t>
-  </si>
-  <si>
-    <t>A212-776</t>
-  </si>
-  <si>
-    <t>A239-119</t>
-  </si>
-  <si>
-    <t>A665-748</t>
-  </si>
-  <si>
-    <t>A180-693</t>
-  </si>
-  <si>
-    <t>A136-619</t>
-  </si>
-  <si>
-    <t>A174-667</t>
-  </si>
-  <si>
-    <t>A134-632</t>
-  </si>
-  <si>
-    <t>A0047-586</t>
-  </si>
-  <si>
-    <t>A004-2181</t>
-  </si>
-  <si>
-    <t>A284-242</t>
-  </si>
-  <si>
-    <t>A236-119</t>
-  </si>
-  <si>
-    <t>A0096-720</t>
-  </si>
-  <si>
-    <t>A175-667</t>
-  </si>
-  <si>
-    <t>A736-335</t>
-  </si>
-  <si>
-    <t>A251-206</t>
-  </si>
-  <si>
-    <t>A254-206</t>
-  </si>
-  <si>
-    <t>A0072-1074</t>
-  </si>
-  <si>
-    <t>A338-543</t>
-  </si>
-  <si>
-    <t>A582-410</t>
-  </si>
-  <si>
-    <t>A0030-1546</t>
-  </si>
-  <si>
-    <t>A006-2146</t>
-  </si>
-  <si>
-    <t>A146-220</t>
-  </si>
-  <si>
-    <t>A225-695</t>
-  </si>
-  <si>
-    <t>A444-115</t>
-  </si>
-  <si>
-    <t>225-695</t>
-  </si>
-  <si>
-    <t>A0034-887</t>
-  </si>
-  <si>
-    <t>A0037-859</t>
-  </si>
-  <si>
-    <t>A0061-422</t>
-  </si>
-  <si>
-    <t>A0028-352</t>
-  </si>
-  <si>
-    <t>A0035-887</t>
-  </si>
-  <si>
-    <t>A006-1728</t>
-  </si>
-  <si>
-    <t>A679-627</t>
-  </si>
-  <si>
-    <t>A009-1103</t>
-  </si>
-  <si>
-    <t>A0024-1475</t>
-  </si>
-  <si>
-    <t>A462-179</t>
-  </si>
-  <si>
-    <t>A1321-633</t>
-  </si>
-  <si>
-    <t>A1320-633</t>
-  </si>
-  <si>
-    <t>A0062-422</t>
-  </si>
-  <si>
-    <t>A468-1067</t>
-  </si>
-  <si>
-    <t>A663-748</t>
-  </si>
-  <si>
-    <t>A442-115</t>
-  </si>
-  <si>
-    <t>A0023-376</t>
-  </si>
-  <si>
-    <t>A0061-211</t>
-  </si>
-  <si>
-    <t>A680-627</t>
-  </si>
-  <si>
-    <t>145-356</t>
-  </si>
-  <si>
-    <t>A0096-723</t>
-  </si>
-  <si>
-    <t>A147-368</t>
-  </si>
-  <si>
-    <t>A141-452</t>
-  </si>
-  <si>
-    <t>A0043-657</t>
-  </si>
-  <si>
-    <t>A322-255</t>
-  </si>
-  <si>
-    <t>A151-486</t>
-  </si>
-  <si>
-    <t>A0044-1554</t>
-  </si>
-  <si>
-    <t>A317-646</t>
-  </si>
-  <si>
-    <t>A0074-779</t>
-  </si>
-  <si>
-    <t>A0095-723</t>
-  </si>
-  <si>
-    <t>A112-172</t>
-  </si>
-  <si>
-    <t>278-660</t>
-  </si>
-  <si>
-    <t>514-105</t>
-  </si>
-  <si>
-    <t>A436-246</t>
-  </si>
-  <si>
-    <t>A135-1376</t>
-  </si>
-  <si>
-    <t>A246-286</t>
-  </si>
-  <si>
-    <t>A0045-996</t>
-  </si>
-  <si>
-    <t>A0077-1484</t>
-  </si>
-  <si>
-    <t>A0057-1048</t>
-  </si>
-  <si>
-    <t>A308-249</t>
-  </si>
-  <si>
-    <t>A393-298</t>
-  </si>
-  <si>
-    <t>A171-371</t>
-  </si>
-  <si>
-    <t>A220-684</t>
-  </si>
-  <si>
-    <t>A256-305</t>
-  </si>
-  <si>
-    <t>A513-105</t>
-  </si>
-  <si>
-    <t>A110-768</t>
-  </si>
-  <si>
-    <t>A581-410</t>
-  </si>
-  <si>
-    <t>A172-780</t>
-  </si>
-  <si>
-    <t>A734-335</t>
-  </si>
-  <si>
-    <t>A008-1103</t>
-  </si>
-  <si>
-    <t>A0050-1195</t>
-  </si>
-  <si>
-    <t>A289-413</t>
-  </si>
-  <si>
-    <t>A0021-1725</t>
-  </si>
-  <si>
-    <t>A735-335</t>
-  </si>
-  <si>
-    <t>A284-661</t>
-  </si>
-  <si>
-    <t>A383-53</t>
-  </si>
-  <si>
-    <t>A139-1196</t>
-  </si>
-  <si>
-    <t>A250-206</t>
-  </si>
-  <si>
-    <t>A626-233</t>
-  </si>
-  <si>
-    <t>A275-651</t>
-  </si>
-  <si>
-    <t>A0069-743</t>
-  </si>
-  <si>
-    <t>A0074-334</t>
-  </si>
-  <si>
-    <t>A125-1075</t>
-  </si>
-  <si>
-    <t>146-356</t>
-  </si>
-  <si>
-    <t>A732-292</t>
-  </si>
-  <si>
-    <t>253-192</t>
-  </si>
-  <si>
-    <t>A111-363</t>
-  </si>
-  <si>
-    <t>A150-499</t>
-  </si>
-  <si>
-    <t>A681-627</t>
-  </si>
-  <si>
-    <t>A473-675</t>
-  </si>
-  <si>
-    <t>A0010-1103</t>
-  </si>
-  <si>
-    <t>A213-654</t>
-  </si>
-  <si>
-    <t>A544-337</t>
-  </si>
-  <si>
-    <t>A214-844</t>
-  </si>
-  <si>
-    <t>A567-691</t>
-  </si>
-  <si>
-    <t>A429-498</t>
-  </si>
-  <si>
-    <t>A512-105</t>
-  </si>
-  <si>
-    <t>A101-263</t>
-  </si>
-  <si>
-    <t>A308-741</t>
-  </si>
-  <si>
-    <t>A0075-288</t>
-  </si>
-  <si>
-    <t>A949-106</t>
-  </si>
-  <si>
-    <t>A947-106</t>
-  </si>
-  <si>
-    <t>A950-106</t>
-  </si>
-  <si>
-    <t>A229-914</t>
-  </si>
-  <si>
-    <t>86-673</t>
-  </si>
-  <si>
-    <t>A568-691</t>
-  </si>
-  <si>
-    <t>A287-414</t>
+    <t>+9248-116</t>
+  </si>
+  <si>
+    <t>+1906-1326</t>
+  </si>
+  <si>
+    <t>+22934-106</t>
+  </si>
+  <si>
+    <t>+22936-106</t>
+  </si>
+  <si>
+    <t>+809-1469</t>
+  </si>
+  <si>
+    <t>+0030-1767</t>
+  </si>
+  <si>
+    <t>+14249-477</t>
+  </si>
+  <si>
+    <t>+8919-315</t>
+  </si>
+  <si>
+    <t>+475-1514</t>
+  </si>
+  <si>
+    <t>+1793-1086</t>
+  </si>
+  <si>
+    <t>+1379-1183</t>
+  </si>
+  <si>
+    <t>+8920-315</t>
+  </si>
+  <si>
+    <t>+22935-106</t>
+  </si>
+  <si>
+    <t>+22938-106</t>
+  </si>
+  <si>
+    <t>+28637-232</t>
+  </si>
+  <si>
+    <t>+22939-106</t>
+  </si>
+  <si>
+    <t>+2043-1314</t>
+  </si>
+  <si>
+    <t>+4419-367</t>
+  </si>
+  <si>
+    <t>+13337-1067</t>
+  </si>
+  <si>
+    <t>+1909-1326</t>
+  </si>
+  <si>
+    <t>+3010-169</t>
+  </si>
+  <si>
+    <t>+6529-457</t>
+  </si>
+  <si>
+    <t>+22928-106</t>
+  </si>
+  <si>
+    <t>+16680-354</t>
+  </si>
+  <si>
+    <t>+13449-103</t>
+  </si>
+  <si>
+    <t>+31171-65</t>
+  </si>
+  <si>
+    <t>+31169-65</t>
+  </si>
+  <si>
+    <t>+3009-169</t>
+  </si>
+  <si>
+    <t>+6863-623</t>
+  </si>
+  <si>
+    <t>+555-838</t>
+  </si>
+  <si>
+    <t>+304-1741</t>
+  </si>
+  <si>
+    <t>+2051-871</t>
+  </si>
+  <si>
+    <t>+118-860</t>
+  </si>
+  <si>
+    <t>+13440-103</t>
+  </si>
+  <si>
+    <t>+753-998</t>
+  </si>
+  <si>
+    <t>+13321-1067</t>
+  </si>
+  <si>
+    <t>+1352-843</t>
+  </si>
+  <si>
+    <t>+1156-870</t>
+  </si>
+  <si>
+    <t>+476-804</t>
+  </si>
+  <si>
+    <t>+342-1799</t>
+  </si>
+  <si>
+    <t>+163-1103</t>
+  </si>
+  <si>
+    <t>มาร์ค+กิต</t>
+  </si>
+  <si>
+    <t>+3647-707</t>
+  </si>
+  <si>
+    <t>+6177-469</t>
+  </si>
+  <si>
+    <t>+9260-337</t>
+  </si>
+  <si>
+    <t>+1380-1081</t>
+  </si>
+  <si>
+    <t>+429-1718</t>
+  </si>
+  <si>
+    <t>+1245-2139</t>
+  </si>
+  <si>
+    <t>+176-1765</t>
+  </si>
+  <si>
+    <t>+486-1703</t>
+  </si>
+  <si>
+    <t>+882-2096</t>
+  </si>
+  <si>
+    <t>+428-1525</t>
+  </si>
+  <si>
+    <t>+24493-207</t>
+  </si>
+  <si>
+    <t>+760-1180</t>
+  </si>
+  <si>
+    <t>+163-2216</t>
+  </si>
+  <si>
+    <t>+58780-143</t>
+  </si>
+  <si>
+    <t>+47074-147</t>
+  </si>
+  <si>
+    <t>+3038-644</t>
+  </si>
+  <si>
+    <t>+58778-143</t>
+  </si>
+  <si>
+    <t>+10393-458</t>
+  </si>
+  <si>
+    <t>+41673-149</t>
+  </si>
+  <si>
+    <t>+10385-458</t>
+  </si>
+  <si>
+    <t>+3709-653</t>
+  </si>
+  <si>
+    <t>+2631-1466</t>
+  </si>
+  <si>
+    <t>+6378-379</t>
+  </si>
+  <si>
+    <t>+602-2130</t>
+  </si>
+  <si>
+    <t>+427-1718</t>
+  </si>
+  <si>
+    <t>+762-1245</t>
+  </si>
+  <si>
+    <t>+401-1498</t>
+  </si>
+  <si>
+    <t>+1118-859</t>
+  </si>
+  <si>
+    <t>+381-2149</t>
+  </si>
+  <si>
+    <t>+0057-2223</t>
+  </si>
+  <si>
+    <t>4-2084</t>
+  </si>
+  <si>
+    <t>+1030-1484</t>
+  </si>
+  <si>
+    <t>+139-2208</t>
+  </si>
+  <si>
+    <t>+465-1797</t>
+  </si>
+  <si>
+    <t>+1117-859</t>
+  </si>
+  <si>
+    <t>+16155-80</t>
+  </si>
+  <si>
+    <t>+3994-695</t>
+  </si>
+  <si>
+    <t>+0023-2218</t>
+  </si>
+  <si>
+    <t>+291-1586</t>
+  </si>
+  <si>
+    <t>+3526-784</t>
+  </si>
+  <si>
+    <t>+235-2201</t>
+  </si>
+  <si>
+    <t>+0047-1583</t>
+  </si>
+  <si>
+    <t>+1512-1187</t>
+  </si>
+  <si>
+    <t>+100-2224</t>
+  </si>
+  <si>
+    <t>+140-2208</t>
+  </si>
+  <si>
+    <t>+3896-543</t>
+  </si>
+  <si>
+    <t>+6377-379</t>
+  </si>
+  <si>
+    <t>+0056-1574</t>
+  </si>
+  <si>
+    <t>+359-1524</t>
+  </si>
+  <si>
+    <t>+250-1702</t>
+  </si>
+  <si>
+    <t>+290-2192</t>
+  </si>
+  <si>
+    <t>+360-1524</t>
+  </si>
+  <si>
+    <t>+2195-706</t>
+  </si>
+  <si>
+    <t>+1391-891</t>
+  </si>
+  <si>
+    <t>+162-2216</t>
+  </si>
+  <si>
+    <t>+304-1523</t>
+  </si>
+  <si>
+    <t>+305-1523</t>
+  </si>
+  <si>
+    <t>+0011-1819</t>
+  </si>
+  <si>
+    <t>+379-2198</t>
+  </si>
+  <si>
+    <t>+2598-1206</t>
+  </si>
+  <si>
+    <t>+2674-666</t>
+  </si>
+  <si>
+    <t>+2675-666</t>
+  </si>
+  <si>
+    <t>+153-2214</t>
+  </si>
+  <si>
+    <t>+842-892</t>
+  </si>
+  <si>
+    <t>+258-1702</t>
+  </si>
+  <si>
+    <t>+378-2151</t>
+  </si>
+  <si>
+    <t>+389-1497</t>
+  </si>
+  <si>
+    <t>+931-563</t>
+  </si>
+  <si>
+    <t>+3651-707</t>
+  </si>
+  <si>
+    <t>+2704-1231</t>
+  </si>
+  <si>
+    <t>+1514-1187</t>
+  </si>
+  <si>
+    <t>+2655-1089</t>
+  </si>
+  <si>
+    <t>+161-2221</t>
+  </si>
+  <si>
+    <t>+1001-2042</t>
+  </si>
+  <si>
+    <t>+2756-582</t>
+  </si>
+  <si>
+    <t>+1601-594</t>
+  </si>
+  <si>
+    <t>+4189-687</t>
+  </si>
+  <si>
+    <t>+15678-335</t>
+  </si>
+  <si>
+    <t>+164-2221</t>
+  </si>
+  <si>
+    <t>+2564-422</t>
+  </si>
+  <si>
+    <t>+283-2147</t>
+  </si>
+  <si>
+    <t>+4657-260</t>
+  </si>
+  <si>
+    <t>+7346-500</t>
+  </si>
+  <si>
+    <t>+47066-147</t>
+  </si>
+  <si>
+    <t>+47067-147</t>
+  </si>
+  <si>
+    <t>+1135-1375</t>
+  </si>
+  <si>
+    <t>+47076-147</t>
+  </si>
+  <si>
+    <t>+4655-260</t>
+  </si>
+  <si>
+    <t>5258-1205</t>
+  </si>
+  <si>
+    <t>+58779-143</t>
+  </si>
+  <si>
+    <t>+1405-1304</t>
+  </si>
+  <si>
+    <t>+227-1710</t>
+  </si>
+  <si>
+    <t>+259-1702</t>
+  </si>
+  <si>
+    <t>+205-2162</t>
+  </si>
+  <si>
+    <t>+171-1796</t>
+  </si>
+  <si>
+    <t>+1551-578</t>
+  </si>
+  <si>
+    <t>+1498-1196</t>
+  </si>
+  <si>
+    <t>+7223-246</t>
+  </si>
+  <si>
+    <t>+0060-1805</t>
+  </si>
+  <si>
+    <t>+3895-543</t>
+  </si>
+  <si>
+    <t>+2672-666</t>
+  </si>
+  <si>
+    <t>+1238-2075</t>
+  </si>
+  <si>
+    <t>+269-1536</t>
+  </si>
+  <si>
+    <t>+689-2091</t>
+  </si>
+  <si>
+    <t>+1510-1187</t>
+  </si>
+  <si>
+    <t>+1122-2098</t>
+  </si>
+  <si>
+    <t>+1250-2075</t>
+  </si>
+  <si>
+    <t>+2490-655</t>
+  </si>
+  <si>
+    <t>+59173-13</t>
+  </si>
+  <si>
+    <t>+1516-1187</t>
+  </si>
+  <si>
+    <t>+3142-798</t>
+  </si>
+  <si>
+    <t>+3037-644</t>
+  </si>
+  <si>
+    <t>+17407-118</t>
+  </si>
+  <si>
+    <t>+17405-118</t>
+  </si>
+  <si>
+    <t>+17410-118</t>
+  </si>
+  <si>
+    <t>+17403-118</t>
+  </si>
+  <si>
+    <t>+3039-644</t>
+  </si>
+  <si>
+    <t>+17409-118</t>
+  </si>
+  <si>
+    <t>+58787-143</t>
+  </si>
+  <si>
+    <t>+21872-104</t>
+  </si>
+  <si>
+    <t>+1825-1377</t>
+  </si>
+  <si>
+    <t>+492-1472</t>
+  </si>
+  <si>
+    <t>+489-1472</t>
+  </si>
+  <si>
+    <t>+28679-232</t>
+  </si>
+  <si>
+    <t>+490-1472</t>
+  </si>
+  <si>
+    <t>+12823-321</t>
+  </si>
+  <si>
+    <t>+1375-1069</t>
+  </si>
+  <si>
+    <t>+7344-500</t>
+  </si>
+  <si>
+    <t>+494-1472</t>
+  </si>
+  <si>
+    <t>+52101-9</t>
+  </si>
+  <si>
+    <t>+425-1511</t>
+  </si>
+  <si>
+    <t>+665-1728</t>
+  </si>
+  <si>
+    <t>+28692-232</t>
+  </si>
+  <si>
+    <t>+152-1590</t>
+  </si>
+  <si>
+    <t>+7165-263</t>
+  </si>
+  <si>
+    <t>+847-580</t>
+  </si>
+  <si>
+    <t>+6168-469</t>
+  </si>
+  <si>
+    <t>+9521-145</t>
+  </si>
+  <si>
+    <t>+1497-1196</t>
+  </si>
+  <si>
+    <t>+4757-394</t>
+  </si>
+  <si>
+    <t>+2144-865</t>
+  </si>
+  <si>
+    <t>+461-1724</t>
+  </si>
+  <si>
+    <t>+552-1550</t>
+  </si>
+  <si>
+    <t>+5587-745</t>
+  </si>
+  <si>
+    <t>+1025-1484</t>
+  </si>
+  <si>
+    <t>+111-1722</t>
+  </si>
+  <si>
+    <t>+2126-705</t>
+  </si>
+  <si>
+    <t>+3705-653</t>
+  </si>
+  <si>
+    <t>+17392-118</t>
+  </si>
+  <si>
+    <t>5226-349</t>
+  </si>
+  <si>
+    <t>+3889-543</t>
+  </si>
+  <si>
+    <t>+2747-582</t>
+  </si>
+  <si>
+    <t>+58734-143</t>
+  </si>
+  <si>
+    <t>+255-829</t>
+  </si>
+  <si>
+    <t>+100-1811</t>
+  </si>
+  <si>
+    <t>+749-1271</t>
+  </si>
+  <si>
+    <t>+1115-859</t>
+  </si>
+  <si>
+    <t>+9314-635</t>
+  </si>
+  <si>
+    <t>+1234-1063</t>
+  </si>
+  <si>
+    <t>+1616-708</t>
+  </si>
+  <si>
+    <t>+3891-543</t>
+  </si>
+  <si>
+    <t>+2291-780</t>
+  </si>
+  <si>
+    <t>+378-2198</t>
+  </si>
+  <si>
+    <t>+9005-290</t>
+  </si>
+  <si>
+    <t>+9245-337</t>
+  </si>
+  <si>
+    <t>+5662-713</t>
+  </si>
+  <si>
+    <t>+795-1459</t>
+  </si>
+  <si>
+    <t>+729-559</t>
+  </si>
+  <si>
+    <t>+4587-414</t>
+  </si>
+  <si>
+    <t>+2596-1206</t>
+  </si>
+  <si>
+    <t>+8991-392</t>
+  </si>
+  <si>
+    <t>+300-1473</t>
+  </si>
+  <si>
+    <t>+157-2199</t>
+  </si>
+  <si>
+    <t>+267-1536</t>
+  </si>
+  <si>
+    <t>+6900-242</t>
+  </si>
+  <si>
+    <t>+765-868</t>
+  </si>
+  <si>
+    <t>+4759-394</t>
+  </si>
+  <si>
+    <t>+9531-376</t>
+  </si>
+  <si>
+    <t>+1847-886</t>
+  </si>
+  <si>
+    <t>+1035-1711</t>
+  </si>
+  <si>
+    <t>+2737-582</t>
+  </si>
+  <si>
+    <t>+2095-651</t>
+  </si>
+  <si>
+    <t>+9516-145</t>
+  </si>
+  <si>
+    <t>+752-1180</t>
+  </si>
+  <si>
+    <t>+3988-695</t>
+  </si>
+  <si>
+    <t>+13309-645</t>
+  </si>
+  <si>
+    <t>+2193-706</t>
+  </si>
+  <si>
+    <t>+3919-340</t>
+  </si>
+  <si>
+    <t>+17393-118</t>
+  </si>
+  <si>
+    <t>+158-1766</t>
+  </si>
+  <si>
+    <t>+9237-116</t>
+  </si>
+  <si>
+    <t>+3072-389</t>
+  </si>
+  <si>
+    <t>+7827-408</t>
+  </si>
+  <si>
+    <t>+0093-1163</t>
+  </si>
+  <si>
+    <t>+551-1701</t>
+  </si>
+  <si>
+    <t>+872-570</t>
+  </si>
+  <si>
+    <t>+9320-635</t>
+  </si>
+  <si>
+    <t>+326-1806</t>
+  </si>
+  <si>
+    <t>+168-1103</t>
+  </si>
+  <si>
+    <t>+9251-116</t>
+  </si>
+  <si>
+    <t>+11396-627</t>
+  </si>
+  <si>
+    <t>+11418-627</t>
+  </si>
+  <si>
+    <t>+6699-499</t>
+  </si>
+  <si>
+    <t>+9032-290</t>
+  </si>
+  <si>
+    <t>+1867-673</t>
+  </si>
+  <si>
+    <t>+706-1629</t>
+  </si>
+  <si>
+    <t>+1312-1237</t>
+  </si>
+  <si>
+    <t>+840-1705</t>
+  </si>
+  <si>
+    <t>+21460-109</t>
+  </si>
+  <si>
+    <t>+3071-674</t>
+  </si>
+  <si>
+    <t>+11415-627</t>
+  </si>
+  <si>
+    <t>+3744-684</t>
+  </si>
+  <si>
+    <t>+11398-627</t>
+  </si>
+  <si>
+    <t>+166-1103</t>
+  </si>
+  <si>
+    <t>+11421-627</t>
+  </si>
+  <si>
+    <t>+21448-109</t>
+  </si>
+  <si>
+    <t>+0055-2222</t>
+  </si>
+  <si>
+    <t>+8568-498</t>
+  </si>
+  <si>
+    <t>11761-134</t>
+  </si>
+  <si>
+    <t>+11416-627</t>
+  </si>
+  <si>
+    <t>+16152-80</t>
+  </si>
+  <si>
+    <t>+3068-967</t>
+  </si>
+  <si>
+    <t>+9331-374</t>
+  </si>
+  <si>
+    <t>+537-592</t>
+  </si>
+  <si>
+    <t>+6440-647</t>
+  </si>
+  <si>
+    <t>11417-627</t>
+  </si>
+  <si>
+    <t>+987-1167</t>
+  </si>
+  <si>
+    <t>+429-1385</t>
+  </si>
+  <si>
+    <t>+1618-708</t>
+  </si>
+  <si>
+    <t>+11420-627</t>
+  </si>
+  <si>
+    <t>+11419-627</t>
+  </si>
+  <si>
+    <t>+4552-856</t>
+  </si>
+  <si>
+    <t>+11397-627</t>
+  </si>
+  <si>
+    <t>+9034-290</t>
+  </si>
+  <si>
+    <t>+2194-706</t>
+  </si>
+  <si>
+    <t>+5661-713</t>
+  </si>
+  <si>
+    <t>+203035-77</t>
+  </si>
+  <si>
+    <t>+268-1529</t>
+  </si>
+  <si>
+    <t>+21461-109</t>
+  </si>
+  <si>
+    <t>+548-1701</t>
+  </si>
+  <si>
+    <t>+21447-109</t>
+  </si>
+  <si>
+    <t>9119-362</t>
+  </si>
+  <si>
+    <t>+5331-1051</t>
+  </si>
+  <si>
+    <t>+7316-370</t>
+  </si>
+  <si>
+    <t>+550-1550</t>
+  </si>
+  <si>
+    <t>+167-1103</t>
+  </si>
+  <si>
+    <t>+11414-627</t>
+  </si>
+  <si>
+    <t>+203053-77</t>
+  </si>
+  <si>
+    <t>+2811-310</t>
+  </si>
+  <si>
+    <t>+2451-791</t>
+  </si>
+  <si>
+    <t>+2650-1089</t>
+  </si>
+  <si>
+    <t>+524-555</t>
+  </si>
+  <si>
+    <t>+11410-627</t>
+  </si>
+  <si>
+    <t>6435-647</t>
+  </si>
+  <si>
+    <t>+645-1345</t>
+  </si>
+  <si>
+    <t>+2360-1098</t>
+  </si>
+  <si>
+    <t>+253-1522</t>
+  </si>
+  <si>
+    <t>+427-1525</t>
+  </si>
+  <si>
+    <t>+254-1522</t>
+  </si>
+  <si>
+    <t>+933-563</t>
+  </si>
+  <si>
+    <t>+676-596</t>
+  </si>
+  <si>
+    <t>+12987-292</t>
+  </si>
+  <si>
+    <t>+3714-653</t>
+  </si>
+  <si>
+    <t>+2457-791</t>
   </si>
 </sst>
 </file>
@@ -6381,253 +6830,506 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A157"/>
+  <dimension ref="A1:D307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="E150" sqref="E150"/>
+    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="A308" sqref="A308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1853</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D1" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1854</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1855</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1856</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>1857</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>1858</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>1859</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>1860</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>1861</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C10" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>1862</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>1863</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="C12" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>1864</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>1865</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="C14" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>1866</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="C15" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="C16" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>1868</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C17" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>1869</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="C18" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>1870</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="C19" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>1871</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="C20" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>1872</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="C21" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="C22" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>1874</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="C23" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>1875</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="C24" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>1876</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="C25" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D25" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>1877</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="C26" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>1878</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="C27" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>1879</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="C28" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D28" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>1880</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="C29" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D29" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>1881</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="C30" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D30" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>1882</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="C31" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D31" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>1883</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="C32" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D32" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>1884</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="C33" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D33" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>1885</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="C34" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D34" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>1886</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="C35" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D35" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>1887</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="C36" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D36" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>1888</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="C37" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D37" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>1889</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="C38" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D38" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>1890</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="C39" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D39" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>1891</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="C40" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D40" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>1892</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="C41" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D41" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>1893</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="C42" t="s">
         <v>1894</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D42" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>1895</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>1896</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>1897</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>1898</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>1899</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1900</v>
       </c>
@@ -6934,247 +7636,997 @@
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>1909</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>1908</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>1907</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>1974</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>1975</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>1976</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>1977</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>1978</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>1958</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>1979</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>1980</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>1981</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>1982</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>1983</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>1984</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>1985</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>1986</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>1987</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>1988</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>1989</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>1990</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>1992</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>1993</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>1994</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>1995</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>1996</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>1997</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>1998</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>1999</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>2000</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>2001</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>2002</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>2003</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>2004</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>2005</v>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>2158</v>
       </c>
     </row>
   </sheetData>

--- a/Autostockin/stockin49.xlsx
+++ b/Autostockin/stockin49.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstuff\my-work-python-script\Autostockin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB665AC7-6CE5-4ED8-AC1F-A18175F032E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29F752C-C5D3-472B-942B-3749A98AA68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4072" uniqueCount="2159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4449" uniqueCount="2535">
   <si>
     <t>+7023-319</t>
   </si>
@@ -6502,6 +6502,1134 @@
   </si>
   <si>
     <t>+2457-791</t>
+  </si>
+  <si>
+    <t>+447-1531</t>
+  </si>
+  <si>
+    <t>+418-1559</t>
+  </si>
+  <si>
+    <t>+617-2104</t>
+  </si>
+  <si>
+    <t>+3905-543</t>
+  </si>
+  <si>
+    <t>+934-563</t>
+  </si>
+  <si>
+    <t>+762-1180</t>
+  </si>
+  <si>
+    <t>+0028-2218</t>
+  </si>
+  <si>
+    <t>+12992-292</t>
+  </si>
+  <si>
+    <t>+2021-844</t>
+  </si>
+  <si>
+    <t>+0077-2217</t>
+  </si>
+  <si>
+    <t>+141-1773</t>
+  </si>
+  <si>
+    <t>+0041-1592</t>
+  </si>
+  <si>
+    <t>+1029-2036</t>
+  </si>
+  <si>
+    <t>2101-651</t>
+  </si>
+  <si>
+    <t>+461-2071</t>
+  </si>
+  <si>
+    <t>+565-2110</t>
+  </si>
+  <si>
+    <t>+3304-1211</t>
+  </si>
+  <si>
+    <t>+686-572</t>
+  </si>
+  <si>
+    <t>+3899-543</t>
+  </si>
+  <si>
+    <t>+2608-1228</t>
+  </si>
+  <si>
+    <t>+0073-1567</t>
+  </si>
+  <si>
+    <t>+906-850</t>
+  </si>
+  <si>
+    <t>+3076-389</t>
+  </si>
+  <si>
+    <t>+368-1398</t>
+  </si>
+  <si>
+    <t>+1053-1174</t>
+  </si>
+  <si>
+    <t>+3900-543</t>
+  </si>
+  <si>
+    <t>+7838-408</t>
+  </si>
+  <si>
+    <t>+415-1197</t>
+  </si>
+  <si>
+    <t>+285-1521</t>
+  </si>
+  <si>
+    <t>+0091-2225</t>
+  </si>
+  <si>
+    <t>+102-2224</t>
+  </si>
+  <si>
+    <t>+2050-1234</t>
+  </si>
+  <si>
+    <t>+1559-947</t>
+  </si>
+  <si>
+    <t>+4062-625</t>
+  </si>
+  <si>
+    <t>+38288-166</t>
+  </si>
+  <si>
+    <t>+950-2124</t>
+  </si>
+  <si>
+    <t>+2069-1376</t>
+  </si>
+  <si>
+    <t>56-2222</t>
+  </si>
+  <si>
+    <t>+9524-145</t>
+  </si>
+  <si>
+    <t>+5292-286</t>
+  </si>
+  <si>
+    <t>+1577-591</t>
+  </si>
+  <si>
+    <t>12986-292</t>
+  </si>
+  <si>
+    <t>+1302-1193</t>
+  </si>
+  <si>
+    <t>+1494-1071</t>
+  </si>
+  <si>
+    <t>+2362-1098</t>
+  </si>
+  <si>
+    <t>+9256-337</t>
+  </si>
+  <si>
+    <t>+2714-741</t>
+  </si>
+  <si>
+    <t>+1194-874</t>
+  </si>
+  <si>
+    <t>6139-344</t>
+  </si>
+  <si>
+    <t>+1107-841</t>
+  </si>
+  <si>
+    <t>+759-1180</t>
+  </si>
+  <si>
+    <t>+1029-1484</t>
+  </si>
+  <si>
+    <t>+10520-487</t>
+  </si>
+  <si>
+    <t>+3954-413</t>
+  </si>
+  <si>
+    <t>+844-1329</t>
+  </si>
+  <si>
+    <t>+1499-1196</t>
+  </si>
+  <si>
+    <t>+5506-255</t>
+  </si>
+  <si>
+    <t>+1120-859</t>
+  </si>
+  <si>
+    <t>+0085-2220</t>
+  </si>
+  <si>
+    <t>+415-1559</t>
+  </si>
+  <si>
+    <t>+13158-105</t>
+  </si>
+  <si>
+    <t>+1374-1069</t>
+  </si>
+  <si>
+    <t>+445-1531</t>
+  </si>
+  <si>
+    <t>+681-572</t>
+  </si>
+  <si>
+    <t>+685-572</t>
+  </si>
+  <si>
+    <t>+270-1529</t>
+  </si>
+  <si>
+    <t>+3232-799</t>
+  </si>
+  <si>
+    <t>+12822-321</t>
+  </si>
+  <si>
+    <t>+45783-24</t>
+  </si>
+  <si>
+    <t>+28674-232</t>
+  </si>
+  <si>
+    <t>+28675-232</t>
+  </si>
+  <si>
+    <t>+3292-672</t>
+  </si>
+  <si>
+    <t>+4569-856</t>
+  </si>
+  <si>
+    <t>+52107-9</t>
+  </si>
+  <si>
+    <t>+28676-232</t>
+  </si>
+  <si>
+    <t>+28678-232</t>
+  </si>
+  <si>
+    <t>+365-1806</t>
+  </si>
+  <si>
+    <t>+16685-354</t>
+  </si>
+  <si>
+    <t>+28673-232</t>
+  </si>
+  <si>
+    <t>+4570-856</t>
+  </si>
+  <si>
+    <t>+1488-1093</t>
+  </si>
+  <si>
+    <t>+13303-645</t>
+  </si>
+  <si>
+    <t>+5685-371</t>
+  </si>
+  <si>
+    <t>+9118-362</t>
+  </si>
+  <si>
+    <t>+2733-773</t>
+  </si>
+  <si>
+    <t>+5319-1051</t>
+  </si>
+  <si>
+    <t>5330-1051</t>
+  </si>
+  <si>
+    <t>+5321-1051</t>
+  </si>
+  <si>
+    <t>+5332-1051</t>
+  </si>
+  <si>
+    <t>+5325-1051</t>
+  </si>
+  <si>
+    <t>+5907-281</t>
+  </si>
+  <si>
+    <t>+58748-143</t>
+  </si>
+  <si>
+    <t>+193-1542</t>
+  </si>
+  <si>
+    <t>+8424-356</t>
+  </si>
+  <si>
+    <t>+13682-206</t>
+  </si>
+  <si>
+    <t>+338-1723</t>
+  </si>
+  <si>
+    <t>+21040-646</t>
+  </si>
+  <si>
+    <t>+5333-1051</t>
+  </si>
+  <si>
+    <t>+13302-645</t>
+  </si>
+  <si>
+    <t>+5328-1051</t>
+  </si>
+  <si>
+    <t>+5329-1051</t>
+  </si>
+  <si>
+    <t>+21041-646</t>
+  </si>
+  <si>
+    <t>+1167-1480</t>
+  </si>
+  <si>
+    <t>+58737-143</t>
+  </si>
+  <si>
+    <t>+13300-645</t>
+  </si>
+  <si>
+    <t>+5322-1051</t>
+  </si>
+  <si>
+    <t>+5323-1051</t>
+  </si>
+  <si>
+    <t>+13307-645</t>
+  </si>
+  <si>
+    <t>+299-1473</t>
+  </si>
+  <si>
+    <t>+28677-232</t>
+  </si>
+  <si>
+    <t>+5324-1051</t>
+  </si>
+  <si>
+    <t>+17389-118</t>
+  </si>
+  <si>
+    <t>+5326-1051</t>
+  </si>
+  <si>
+    <t>+13308-645</t>
+  </si>
+  <si>
+    <t>+12660-165</t>
+  </si>
+  <si>
+    <t>+45782-24</t>
+  </si>
+  <si>
+    <t>+13157-105</t>
+  </si>
+  <si>
+    <t>+491-1472</t>
+  </si>
+  <si>
+    <t>+493-1472</t>
+  </si>
+  <si>
+    <t>+4566-856</t>
+  </si>
+  <si>
+    <t>+1277-995</t>
+  </si>
+  <si>
+    <t>+839-1705</t>
+  </si>
+  <si>
+    <t>+930-563</t>
+  </si>
+  <si>
+    <t>5686-371</t>
+  </si>
+  <si>
+    <t>+3648-352</t>
+  </si>
+  <si>
+    <t>+1189-874</t>
+  </si>
+  <si>
+    <t>+4760-394</t>
+  </si>
+  <si>
+    <t>+1440-564</t>
+  </si>
+  <si>
+    <t>+3073-389</t>
+  </si>
+  <si>
+    <t>+203005-77</t>
+  </si>
+  <si>
+    <t>+11399-627</t>
+  </si>
+  <si>
+    <t>+203034-77</t>
+  </si>
+  <si>
+    <t>+16479-85</t>
+  </si>
+  <si>
+    <t>+2096-651</t>
+  </si>
+  <si>
+    <t>+1633-890</t>
+  </si>
+  <si>
+    <t>+21463-109</t>
+  </si>
+  <si>
+    <t>+13306-645</t>
+  </si>
+  <si>
+    <t>+17952-111</t>
+  </si>
+  <si>
+    <t>+155-2216</t>
+  </si>
+  <si>
+    <t>+11760-134</t>
+  </si>
+  <si>
+    <t>+21464-109</t>
+  </si>
+  <si>
+    <t>+16725-609</t>
+  </si>
+  <si>
+    <t>+21458-109</t>
+  </si>
+  <si>
+    <t>+754-1180</t>
+  </si>
+  <si>
+    <t>+21453-109</t>
+  </si>
+  <si>
+    <t>+13304-645</t>
+  </si>
+  <si>
+    <t>+12824-321</t>
+  </si>
+  <si>
+    <t>+21468-109</t>
+  </si>
+  <si>
+    <t>+8817-479</t>
+  </si>
+  <si>
+    <t>+21449-109</t>
+  </si>
+  <si>
+    <t>+203028-77</t>
+  </si>
+  <si>
+    <t>+203029-77</t>
+  </si>
+  <si>
+    <t>+17394-118</t>
+  </si>
+  <si>
+    <t>+307-1515</t>
+  </si>
+  <si>
+    <t>+28649-232</t>
+  </si>
+  <si>
+    <t>+203023-77</t>
+  </si>
+  <si>
+    <t>+211-2179</t>
+  </si>
+  <si>
+    <t>+301-1517</t>
+  </si>
+  <si>
+    <t>+4202-728</t>
+  </si>
+  <si>
+    <t>+21451-109</t>
+  </si>
+  <si>
+    <t>+21454-109</t>
+  </si>
+  <si>
+    <t>+1847-996</t>
+  </si>
+  <si>
+    <t>+21470-109</t>
+  </si>
+  <si>
+    <t>+423-1718</t>
+  </si>
+  <si>
+    <t>+20853-115</t>
+  </si>
+  <si>
+    <t>4967105-4</t>
+  </si>
+  <si>
+    <t>+203009-77</t>
+  </si>
+  <si>
+    <t>+16475-85</t>
+  </si>
+  <si>
+    <t>+22943-106</t>
+  </si>
+  <si>
+    <t>+311-1534</t>
+  </si>
+  <si>
+    <t>+22945-106</t>
+  </si>
+  <si>
+    <t>+5590-745</t>
+  </si>
+  <si>
+    <t>+8557-197</t>
+  </si>
+  <si>
+    <t>+0088-1623</t>
+  </si>
+  <si>
+    <t>+22949-106</t>
+  </si>
+  <si>
+    <t>+203007-77</t>
+  </si>
+  <si>
+    <t>+203012-77</t>
+  </si>
+  <si>
+    <t>+1837-1094</t>
+  </si>
+  <si>
+    <t>+203006-77</t>
+  </si>
+  <si>
+    <t>+203008-77</t>
+  </si>
+  <si>
+    <t>+11434-627</t>
+  </si>
+  <si>
+    <t>+5593-745</t>
+  </si>
+  <si>
+    <t>+20854-115</t>
+  </si>
+  <si>
+    <t>+21462-109</t>
+  </si>
+  <si>
+    <t>+203037-77</t>
+  </si>
+  <si>
+    <t>+21450-109</t>
+  </si>
+  <si>
+    <t>+21469-109</t>
+  </si>
+  <si>
+    <t>+21465-109</t>
+  </si>
+  <si>
+    <t>+13016-366</t>
+  </si>
+  <si>
+    <t>+5592-745</t>
+  </si>
+  <si>
+    <t>+21459-109</t>
+  </si>
+  <si>
+    <t>+171-1600</t>
+  </si>
+  <si>
+    <t>+13012-366</t>
+  </si>
+  <si>
+    <t>+13013-366</t>
+  </si>
+  <si>
+    <t>+5589-745</t>
+  </si>
+  <si>
+    <t>+3022-644</t>
+  </si>
+  <si>
+    <t>+22951-106</t>
+  </si>
+  <si>
+    <t>+14373-240</t>
+  </si>
+  <si>
+    <t>+5591-745</t>
+  </si>
+  <si>
+    <t>+6439-647</t>
+  </si>
+  <si>
+    <t>+174-1600</t>
+  </si>
+  <si>
+    <t>+8917-315</t>
+  </si>
+  <si>
+    <t>+22942-106</t>
+  </si>
+  <si>
+    <t>+13015-366</t>
+  </si>
+  <si>
+    <t>+22950-106</t>
+  </si>
+  <si>
+    <t>+22948-106</t>
+  </si>
+  <si>
+    <t>+3816-446</t>
+  </si>
+  <si>
+    <t>+8912-315</t>
+  </si>
+  <si>
+    <t>+28648-232</t>
+  </si>
+  <si>
+    <t>+22953-106</t>
+  </si>
+  <si>
+    <t>+309-1534</t>
+  </si>
+  <si>
+    <t>+22952-106</t>
+  </si>
+  <si>
+    <t>+2066-1376</t>
+  </si>
+  <si>
+    <t>+563-1752</t>
+  </si>
+  <si>
+    <t>+3649-352</t>
+  </si>
+  <si>
+    <t>+183-1782</t>
+  </si>
+  <si>
+    <t>+1476-544</t>
+  </si>
+  <si>
+    <t>+2454-791</t>
+  </si>
+  <si>
+    <t>+4186-687</t>
+  </si>
+  <si>
+    <t>+558-1701</t>
+  </si>
+  <si>
+    <t>+8425-356</t>
+  </si>
+  <si>
+    <t>+2628-778</t>
+  </si>
+  <si>
+    <t>+135-2211</t>
+  </si>
+  <si>
+    <t>+4172-851</t>
+  </si>
+  <si>
+    <t>+2062-583</t>
+  </si>
+  <si>
+    <t>+0075-1572</t>
+  </si>
+  <si>
+    <t>+6371-379</t>
+  </si>
+  <si>
+    <t>116-2203</t>
+  </si>
+  <si>
+    <t>+615-1563</t>
+  </si>
+  <si>
+    <t>+6902-242</t>
+  </si>
+  <si>
+    <t>+3925-340</t>
+  </si>
+  <si>
+    <t>+1534-1052</t>
+  </si>
+  <si>
+    <t>1924-2005</t>
+  </si>
+  <si>
+    <t>+4091-488</t>
+  </si>
+  <si>
+    <t>+321-1720</t>
+  </si>
+  <si>
+    <t>+283-1521</t>
+  </si>
+  <si>
+    <t>+551-1550</t>
+  </si>
+  <si>
+    <t>+8994-392</t>
+  </si>
+  <si>
+    <t>+2963-686</t>
+  </si>
+  <si>
+    <t>+3229-799</t>
+  </si>
+  <si>
+    <t>+3174-691</t>
+  </si>
+  <si>
+    <t>+2752-582</t>
+  </si>
+  <si>
+    <t>+2098-651</t>
+  </si>
+  <si>
+    <t>+1375-1081</t>
+  </si>
+  <si>
+    <t>+1377-1081</t>
+  </si>
+  <si>
+    <t>+4866-472</t>
+  </si>
+  <si>
+    <t>2962-686</t>
+  </si>
+  <si>
+    <t>+2477-655</t>
+  </si>
+  <si>
+    <t>+102-2226</t>
+  </si>
+  <si>
+    <t>+7311-370</t>
+  </si>
+  <si>
+    <t>+302-1509</t>
+  </si>
+  <si>
+    <t>+0089-2213</t>
+  </si>
+  <si>
+    <t>+9332-374</t>
+  </si>
+  <si>
+    <t>+340-817</t>
+  </si>
+  <si>
+    <t>+322-1720</t>
+  </si>
+  <si>
+    <t>+715-1112</t>
+  </si>
+  <si>
+    <t>+0092-2219</t>
+  </si>
+  <si>
+    <t>+1455-875</t>
+  </si>
+  <si>
+    <t>+2261-704</t>
+  </si>
+  <si>
+    <t>+1405-1316</t>
+  </si>
+  <si>
+    <t>+3397-368</t>
+  </si>
+  <si>
+    <t>+1374-1081</t>
+  </si>
+  <si>
+    <t>+358-1524</t>
+  </si>
+  <si>
+    <t>+925-1324</t>
+  </si>
+  <si>
+    <t>+1237-2075</t>
+  </si>
+  <si>
+    <t>+423-1525</t>
+  </si>
+  <si>
+    <t>+2128-705</t>
+  </si>
+  <si>
+    <t>+2125-1078</t>
+  </si>
+  <si>
+    <t>+456-1719</t>
+  </si>
+  <si>
+    <t>+160-2216</t>
+  </si>
+  <si>
+    <t>+473-1362</t>
+  </si>
+  <si>
+    <t>+0032-1825</t>
+  </si>
+  <si>
+    <t>+2467-905</t>
+  </si>
+  <si>
+    <t>+2561-422</t>
+  </si>
+  <si>
+    <t>+247-2175</t>
+  </si>
+  <si>
+    <t>+1569-1160</t>
+  </si>
+  <si>
+    <t>+2654-1089</t>
+  </si>
+  <si>
+    <t>+245-1535</t>
+  </si>
+  <si>
+    <t>+165-2200</t>
+  </si>
+  <si>
+    <t>+300-1509</t>
+  </si>
+  <si>
+    <t>+9383-233</t>
+  </si>
+  <si>
+    <t>+3075-389</t>
+  </si>
+  <si>
+    <t>+3228-799</t>
+  </si>
+  <si>
+    <t>+248-1702</t>
+  </si>
+  <si>
+    <t>+302-1523</t>
+  </si>
+  <si>
+    <t>+139-1750</t>
+  </si>
+  <si>
+    <t>+103-1804</t>
+  </si>
+  <si>
+    <t>+424-1525</t>
+  </si>
+  <si>
+    <t>+2340-1220</t>
+  </si>
+  <si>
+    <t>+135-2208</t>
+  </si>
+  <si>
+    <t>+2559-422</t>
+  </si>
+  <si>
+    <t>+388-802</t>
+  </si>
+  <si>
+    <t>+171-1765</t>
+  </si>
+  <si>
+    <t>+479-1703</t>
+  </si>
+  <si>
+    <t>+1340-2006</t>
+  </si>
+  <si>
+    <t>+5016-313</t>
+  </si>
+  <si>
+    <t>+2810-310</t>
+  </si>
+  <si>
+    <t>+3303-1211</t>
+  </si>
+  <si>
+    <t>+271-1529</t>
+  </si>
+  <si>
+    <t>+0012-1817</t>
+  </si>
+  <si>
+    <t>+105-2226</t>
+  </si>
+  <si>
+    <t>+1459-1302</t>
+  </si>
+  <si>
+    <t>+381-1734</t>
+  </si>
+  <si>
+    <t>+3997-695</t>
+  </si>
+  <si>
+    <t>+103-1581</t>
+  </si>
+  <si>
+    <t>+286-1521</t>
+  </si>
+  <si>
+    <t>+150-2196</t>
+  </si>
+  <si>
+    <t>+203146-77</t>
+  </si>
+  <si>
+    <t>+203342-77</t>
+  </si>
+  <si>
+    <t>+203167-77</t>
+  </si>
+  <si>
+    <t>+203168-77</t>
+  </si>
+  <si>
+    <t>+203147-77</t>
+  </si>
+  <si>
+    <t>+203324-77</t>
+  </si>
+  <si>
+    <t>+203211-77</t>
+  </si>
+  <si>
+    <t>+203160-77</t>
+  </si>
+  <si>
+    <t>+203150-77</t>
+  </si>
+  <si>
+    <t>+203189-77</t>
+  </si>
+  <si>
+    <t>+203175-77</t>
+  </si>
+  <si>
+    <t>+203312-77</t>
+  </si>
+  <si>
+    <t>+203148-77</t>
+  </si>
+  <si>
+    <t>+203032-77</t>
+  </si>
+  <si>
+    <t>+1981-489</t>
+  </si>
+  <si>
+    <t>+203177-77</t>
+  </si>
+  <si>
+    <t>+203154-77</t>
+  </si>
+  <si>
+    <t>+203151-77</t>
+  </si>
+  <si>
+    <t>+4203-796</t>
+  </si>
+  <si>
+    <t>+203067-77</t>
+  </si>
+  <si>
+    <t>+203157-77</t>
+  </si>
+  <si>
+    <t>+203156-77</t>
+  </si>
+  <si>
+    <t>+1045-1711</t>
+  </si>
+  <si>
+    <t>+27523-107</t>
+  </si>
+  <si>
+    <t>+203152-77</t>
+  </si>
+  <si>
+    <t>+263-1702</t>
+  </si>
+  <si>
+    <t>+284-1521</t>
+  </si>
+  <si>
+    <t>+14289-251</t>
+  </si>
+  <si>
+    <t>+3713-653</t>
+  </si>
+  <si>
+    <t>+14380-138</t>
+  </si>
+  <si>
+    <t>+9259-337</t>
+  </si>
+  <si>
+    <t>+35503-179</t>
+  </si>
+  <si>
+    <t>+35528-179</t>
+  </si>
+  <si>
+    <t>+35541-179</t>
+  </si>
+  <si>
+    <t>+16740-609</t>
+  </si>
+  <si>
+    <t>+2621-879</t>
+  </si>
+  <si>
+    <t>+35543-179</t>
+  </si>
+  <si>
+    <t>+209-1570</t>
+  </si>
+  <si>
+    <t>+35545-179</t>
+  </si>
+  <si>
+    <t>+27520-107</t>
+  </si>
+  <si>
+    <t>+27528-107</t>
+  </si>
+  <si>
+    <t>+27521-107</t>
+  </si>
+  <si>
+    <t>+2619-879</t>
+  </si>
+  <si>
+    <t>+27527-107</t>
+  </si>
+  <si>
+    <t>+16739-609</t>
+  </si>
+  <si>
+    <t>+16744-609</t>
+  </si>
+  <si>
+    <t>+16750-609</t>
+  </si>
+  <si>
+    <t>+258-848</t>
+  </si>
+  <si>
+    <t>+821-1469</t>
+  </si>
+  <si>
+    <t>+138-873</t>
+  </si>
+  <si>
+    <t>+663-1548</t>
+  </si>
+  <si>
+    <t>+3907-1088</t>
+  </si>
+  <si>
+    <t>+667-1548</t>
+  </si>
+  <si>
+    <t>+16741-609</t>
+  </si>
+  <si>
+    <t>+145-873</t>
+  </si>
+  <si>
+    <t>+3908-1088</t>
+  </si>
+  <si>
+    <t>+16746-609</t>
+  </si>
+  <si>
+    <t>+16742-609</t>
+  </si>
+  <si>
+    <t>+10255-485</t>
+  </si>
+  <si>
+    <t>+10254-485</t>
+  </si>
+  <si>
+    <t>+3165-1369</t>
+  </si>
+  <si>
+    <t>+10251-485</t>
+  </si>
+  <si>
+    <t>+3166-1369</t>
+  </si>
+  <si>
+    <t>+3168-1369</t>
+  </si>
+  <si>
+    <t>+10250-485</t>
+  </si>
+  <si>
+    <t>+3167-1369</t>
+  </si>
+  <si>
+    <t>+894-1404</t>
+  </si>
+  <si>
+    <t>+10259-485</t>
+  </si>
+  <si>
+    <t>+3905-1088</t>
   </si>
 </sst>
 </file>
@@ -6830,16 +7958,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D307"/>
+  <dimension ref="A1:D684"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="A308" sqref="A308"/>
+    <sheetView tabSelected="1" topLeftCell="A653" workbookViewId="0">
+      <selection activeCell="A685" sqref="A685"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -7308,1325 +8436,4905 @@
       <c r="A43" s="1" t="s">
         <v>1895</v>
       </c>
+      <c r="D43" s="2">
+        <v>44949</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>1896</v>
       </c>
+      <c r="D44" s="2">
+        <v>44949</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>1897</v>
       </c>
+      <c r="D45" s="2">
+        <v>44949</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>1898</v>
       </c>
+      <c r="D46" s="2">
+        <v>44949</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>1899</v>
       </c>
+      <c r="D47" s="2">
+        <v>44949</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1900</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D48" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>1901</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D49" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>1902</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D50" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>1903</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D51" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>1904</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D52" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>1905</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D53" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>1906</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D54" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>1907</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D55" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>1908</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D56" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>1909</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D57" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>1910</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D58" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D59" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>1912</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D60" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D61" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>1914</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D62" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>1915</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D63" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>1916</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D64" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>1917</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D65" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>1918</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D66" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>1919</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D67" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>1920</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D68" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>1921</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D69" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>1922</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D70" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>1923</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D71" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>1924</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D72" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>1925</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D73" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>1926</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D74" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>1927</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D75" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>1928</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D76" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>1929</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D77" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>1930</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D78" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>1931</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D79" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D80" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D81" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D82" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D83" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>1936</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D84" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D85" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>1938</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D86" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D87" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D88" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D89" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>1942</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D90" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>1943</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D91" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D92" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D93" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D94" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>1947</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D95" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D96" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>1949</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D97" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>1950</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D98" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>1951</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D99" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>1952</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D100" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>1953</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D101" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>1954</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D102" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>1955</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D103" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>1956</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D104" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>1957</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D105" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>1958</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D106" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>1959</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D107" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>1960</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D108" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>1961</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D109" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>1962</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D110" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>1963</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D111" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>1964</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D112" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>1965</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D113" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>1966</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D114" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>1967</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D115" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>1968</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D116" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>1969</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D117" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>1970</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D118" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>1971</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D119" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D120" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D121" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>1974</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D122" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>1975</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D123" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>1976</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D124" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>1977</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D125" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>1978</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D126" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>1979</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D127" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>1980</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D128" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>1981</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D129" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>1982</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D130" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>1983</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D131" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D132" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>1985</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D133" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>1986</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D134" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>1987</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D135" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>1988</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D136" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>1989</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D137" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>1990</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D138" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>1991</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D139" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>1992</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D140" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>1993</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D141" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>1994</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D142" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>1995</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D143" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>1996</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D144" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>1997</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D145" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>1998</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D146" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>1999</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D147" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>2000</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D148" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>2001</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D149" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>2002</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D150" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>2003</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D151" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>2004</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D152" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>2005</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D153" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D154" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>2007</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D155" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>2008</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D156" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>2009</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D157" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>2010</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D158" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>2011</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D159" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>2012</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D160" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>2013</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D161" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>2014</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D162" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>2015</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D163" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>2016</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D164" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>2017</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D165" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>2018</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D166" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>2019</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D167" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>2020</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D168" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>2021</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D169" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>2022</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D170" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>2023</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D171" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>2024</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D172" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>2025</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D173" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>2026</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D174" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>2027</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D175" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>2028</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D176" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>2029</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D177" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>2030</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D178" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>2031</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D179" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>2032</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D180" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>2033</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D181" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>2034</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D182" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>2035</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D183" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>2036</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D184" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>2037</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D185" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>2038</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D186" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>2039</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D187" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>2040</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D188" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>2041</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D189" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>2042</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D190" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>2043</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D191" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>2044</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D192" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>2045</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D193" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>2046</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D194" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>2047</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D195" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>2048</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D196" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>2049</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D197" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>2050</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D198" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>2051</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D199" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>2052</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D200" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>2053</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D201" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>2054</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D202" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>2055</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D203" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>2056</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D204" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>2057</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D205" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>2058</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D206" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>2059</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D207" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>2060</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D208" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>2061</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D209" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>2062</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D210" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>2063</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D211" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>2064</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D212" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>2065</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D213" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>2066</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D214" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>2067</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D215" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>2068</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D216" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>2069</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D217" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>2070</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D218" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>2071</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D219" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>2072</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D220" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>2073</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D221" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>2074</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D222" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>2075</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D223" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>2076</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D224" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>2077</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D225" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>2078</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D226" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>2079</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D227" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>2080</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D228" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>2081</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D229" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>2082</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D230" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>2083</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D231" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>2084</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D232" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>2085</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D233" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>2086</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D234" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>2087</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D235" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>2088</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D236" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>2089</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D237" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>2088</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D238" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>2090</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D239" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>2091</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D240" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>2092</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D241" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>2093</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D242" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>2094</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D243" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>2095</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D244" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>2096</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D245" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>2097</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D246" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>2098</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D247" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>2099</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D248" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>2100</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D249" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>2101</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D250" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>2102</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D251" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>2103</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D252" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>2104</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D253" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>2105</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D254" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>2106</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D255" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>2107</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D256" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>2108</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D257" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>2109</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D258" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>2110</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D259" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>2111</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D260" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>2112</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D261" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>2113</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D262" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>2114</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D263" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>2115</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D264" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>2116</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D265" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>2117</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D266" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>2118</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D267" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>2119</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D268" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>2120</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D269" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>2121</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D270" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>2122</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D271" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>2123</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D272" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>2124</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D273" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>2125</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D274" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>2126</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D275" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>2127</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D276" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>2128</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D277" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>2129</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D278" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>2130</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D279" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>2131</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D280" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>2132</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D281" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>2133</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D282" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>2134</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D283" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>2135</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D284" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>2136</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D285" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>2137</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D286" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>2138</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D287" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>2139</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D288" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>2140</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D289" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>2141</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D290" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>2142</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D291" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>2143</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D292" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>2144</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D293" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>2145</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D294" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>2146</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D295" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>2147</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D296" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>2148</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D297" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>2149</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D298" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>2150</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D299" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>2151</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D300" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>2152</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D301" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>2153</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D302" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>2154</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D303" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>2155</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D304" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>2156</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D305" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>2157</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D306" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>2158</v>
+      </c>
+      <c r="D307" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D308" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D309" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D310" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D311" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D312" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D313" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D314" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D315" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D316" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D317" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D318" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D319" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D320" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D321" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D322" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D323" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D324" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D325" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D326" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D327" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D328" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D329" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D330" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D331" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D332" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D333" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D334" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D335" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D336" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D337" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D338" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D339" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D340" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D341" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D342" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D343" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D344" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D345" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D346" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D347" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D348" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D349" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D350" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D351" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D352" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D353" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="D354" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D355" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D356" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D357" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="D358" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D359" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D360" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D361" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D362" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D363" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D364" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D365" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="D366" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D367" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D368" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D369" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D370" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D371" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D372" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D373" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="D374" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D375" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D376" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D377" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="D378" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D379" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D380" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D381" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D382" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D383" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D384" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D385" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D386" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D387" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D388" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D389" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D390" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D391" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D392" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D393" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D394" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D395" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="D396" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D397" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="D398" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D399" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D400" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D401" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D402" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D403" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D404" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D405" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D406" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D407" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D408" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D409" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D410" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D411" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D412" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D413" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D414" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D415" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="D416" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D417" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D418" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D419" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D420" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D421" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D422" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D423" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D424" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D425" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D426" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D427" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D428" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D429" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D430" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D431" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D432" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D433" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D434" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D435" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D436" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D437" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D438" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D439" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D440" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D441" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D442" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D443" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D444" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="D445" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="D446" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D447" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D448" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D449" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D450" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D451" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="D452" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D453" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D454" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D455" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D456" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D457" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D458" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D459" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D460" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D461" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D462" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="D463" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D464" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="D465" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D466" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D467" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D468" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D469" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D470" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D471" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D472" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D473" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="D474" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="D475" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D476" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="D477" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D478" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="D479" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="D480" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D481" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D482" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="D483" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D484" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="D485" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="D486" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D487" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D488" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D489" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D490" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D491" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D492" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D493" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D494" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="D495" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D496" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="D497" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D498" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D499" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D500" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D501" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D502" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D503" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="D504" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="D505" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D506" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="D507" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="D508" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D509" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="D510" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D511" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="D512" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="D513" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D514" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D515" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D516" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D517" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D518" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D519" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="D520" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D521" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D522" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="D523" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D524" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D525" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D526" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="D527" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D528" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="D529" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D530" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="D531" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D532" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D533" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D534" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="D535" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D536" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D537" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D538" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D539" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D540" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D541" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D542" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D543" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D544" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="D545" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D546" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D547" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="D548" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D549" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D550" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D551" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D552" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D553" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D554" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="D555" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D556" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D557" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="D558" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D559" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D560" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D561" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D562" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="D563" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D564" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D565" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D566" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D567" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D568" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="D569" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="D570" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D571" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="D572" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="D573" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D574" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D575" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D576" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D577" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D578" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D579" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D580" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="D581" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D582" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="D583" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="D584" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D585" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D586" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D587" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D588" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="D589" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D590" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="D591" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D592" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="D593" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D594" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="D595" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D596" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D597" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D598" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D599" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="D600" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="D601" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D602" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D603" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D604" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="D605" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D606" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D607" s="2">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" s="1" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" s="1" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" s="1" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" s="1" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" s="1" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" s="1" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" s="1" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" s="1" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" s="1" t="s">
+        <v>2534</v>
       </c>
     </row>
   </sheetData>

--- a/Autostockin/stockin49.xlsx
+++ b/Autostockin/stockin49.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstuff\my-work-python-script\Autostockin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF435C2-BC5A-4B60-AC42-5F00829C4E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7AD7C6-271A-44CC-B474-6E0E55646E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="4170" windowWidth="20850" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10583" uniqueCount="4244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11168" uniqueCount="4504">
   <si>
     <t>+7023-319</t>
   </si>
@@ -12758,13 +12758,793 @@
   </si>
   <si>
     <t>+2298-1382</t>
+  </si>
+  <si>
+    <t>24/2/2023</t>
+  </si>
+  <si>
+    <t>+372-821</t>
+  </si>
+  <si>
+    <t>+21115-115</t>
+  </si>
+  <si>
+    <t>+5774-318</t>
+  </si>
+  <si>
+    <t>+2507-905</t>
+  </si>
+  <si>
+    <t>+748-1564</t>
+  </si>
+  <si>
+    <t>+2201-760</t>
+  </si>
+  <si>
+    <t>+7408-319</t>
+  </si>
+  <si>
+    <t>+880-593</t>
+  </si>
+  <si>
+    <t>+475-1725</t>
+  </si>
+  <si>
+    <t>+4709-657</t>
+  </si>
+  <si>
+    <t>+1412-1081</t>
+  </si>
+  <si>
+    <t>+909-1340</t>
+  </si>
+  <si>
+    <t>+1759-757</t>
+  </si>
+  <si>
+    <t>+15623-193</t>
+  </si>
+  <si>
+    <t>+154-1780</t>
+  </si>
+  <si>
+    <t>+1881-1086</t>
+  </si>
+  <si>
+    <t>+354-1723</t>
+  </si>
+  <si>
+    <t>+154-1750</t>
+  </si>
+  <si>
+    <t>+1096-1336</t>
+  </si>
+  <si>
+    <t>+326-565</t>
+  </si>
+  <si>
+    <t>+711-866</t>
+  </si>
+  <si>
+    <t>1876-1295</t>
+  </si>
+  <si>
+    <t>+381-1398</t>
+  </si>
+  <si>
+    <t>+0044-2234</t>
+  </si>
+  <si>
+    <t>+1064-2036</t>
+  </si>
+  <si>
+    <t>+9647-376</t>
+  </si>
+  <si>
+    <t>+543-2135</t>
+  </si>
+  <si>
+    <t>+1255-1063</t>
+  </si>
+  <si>
+    <t>+8576-363</t>
+  </si>
+  <si>
+    <t>+2556-562</t>
+  </si>
+  <si>
+    <t>+21621-109</t>
+  </si>
+  <si>
+    <t>+484-1569</t>
+  </si>
+  <si>
+    <t>+2727-511</t>
+  </si>
+  <si>
+    <t>+9503-635</t>
+  </si>
+  <si>
+    <t>368-2206</t>
+  </si>
+  <si>
+    <t>+6861-499</t>
+  </si>
+  <si>
+    <t>+2926-1244</t>
+  </si>
+  <si>
+    <t>+1150-2098</t>
+  </si>
+  <si>
+    <t>373-1717</t>
+  </si>
+  <si>
+    <t>+59356-13</t>
+  </si>
+  <si>
+    <t>+12933-321</t>
+  </si>
+  <si>
+    <t>+511-1719</t>
+  </si>
+  <si>
+    <t>+239-1335</t>
+  </si>
+  <si>
+    <t>+779-2070</t>
+  </si>
+  <si>
+    <t>+5784-713</t>
+  </si>
+  <si>
+    <t>+927-1404</t>
+  </si>
+  <si>
+    <t>+1065-1260</t>
+  </si>
+  <si>
+    <t>+2146-871</t>
+  </si>
+  <si>
+    <t>1875-1295</t>
+  </si>
+  <si>
+    <t>+3274-799</t>
+  </si>
+  <si>
+    <t>+515-1703</t>
+  </si>
+  <si>
+    <t>+1853-944</t>
+  </si>
+  <si>
+    <t>+1646-591</t>
+  </si>
+  <si>
+    <t>+1541-1342</t>
+  </si>
+  <si>
+    <t>+360-1720</t>
+  </si>
+  <si>
+    <t>+9295-116</t>
+  </si>
+  <si>
+    <t>+963-563</t>
+  </si>
+  <si>
+    <t>+1562-2060</t>
+  </si>
+  <si>
+    <t>+501-1749</t>
+  </si>
+  <si>
+    <t>+4396-851</t>
+  </si>
+  <si>
+    <t>+2194-1254</t>
+  </si>
+  <si>
+    <t>+3299-227</t>
+  </si>
+  <si>
+    <t>+5226-631</t>
+  </si>
+  <si>
+    <t>+9386-243</t>
+  </si>
+  <si>
+    <t>+2677-795</t>
+  </si>
+  <si>
+    <t>+2109-1234</t>
+  </si>
+  <si>
+    <t>+2705-778</t>
+  </si>
+  <si>
+    <t>+2173-583</t>
+  </si>
+  <si>
+    <t>+543-1472</t>
+  </si>
+  <si>
+    <t>+30079-131</t>
+  </si>
+  <si>
+    <t>+1566-1052</t>
+  </si>
+  <si>
+    <t>+7231-263</t>
+  </si>
+  <si>
+    <t>+1117-2133</t>
+  </si>
+  <si>
+    <t>+345-1502</t>
+  </si>
+  <si>
+    <t>+463-615</t>
+  </si>
+  <si>
+    <t>+1416-2006</t>
+  </si>
+  <si>
+    <t>+226-1337</t>
+  </si>
+  <si>
+    <t>+3621-716</t>
+  </si>
+  <si>
+    <t>+1339-995</t>
+  </si>
+  <si>
+    <t>+544-1472</t>
+  </si>
+  <si>
+    <t>2150-1242</t>
+  </si>
+  <si>
+    <t>+631-1454</t>
+  </si>
+  <si>
+    <t>+16198-80</t>
+  </si>
+  <si>
+    <t>+30081-131</t>
+  </si>
+  <si>
+    <t>+313-1518</t>
+  </si>
+  <si>
+    <t>+300-1521</t>
+  </si>
+  <si>
+    <t>+324-1534</t>
+  </si>
+  <si>
+    <t>14739-64</t>
+  </si>
+  <si>
+    <t>+484-804</t>
+  </si>
+  <si>
+    <t>+404-1512</t>
+  </si>
+  <si>
+    <t>+3349-1064</t>
+  </si>
+  <si>
+    <t>+632-1752</t>
+  </si>
+  <si>
+    <t>+30084-131</t>
+  </si>
+  <si>
+    <t>+661-1505</t>
+  </si>
+  <si>
+    <t>+1273-561</t>
+  </si>
+  <si>
+    <t>+1016-1324</t>
+  </si>
+  <si>
+    <t>+584-2088</t>
+  </si>
+  <si>
+    <t>+898-1329</t>
+  </si>
+  <si>
+    <t>+3265-1273</t>
+  </si>
+  <si>
+    <t>+6953-648</t>
+  </si>
+  <si>
+    <t>+8497-241</t>
+  </si>
+  <si>
+    <t>+364-1473</t>
+  </si>
+  <si>
+    <t>+1895-1377</t>
+  </si>
+  <si>
+    <t>+162-1747</t>
+  </si>
+  <si>
+    <t>+6486-379</t>
+  </si>
+  <si>
+    <t>+5488-700</t>
+  </si>
+  <si>
+    <t>+316-1527</t>
+  </si>
+  <si>
+    <t>+1329-1237</t>
+  </si>
+  <si>
+    <t>+1874-1076</t>
+  </si>
+  <si>
+    <t>+4136-488</t>
+  </si>
+  <si>
+    <t>+1946-996</t>
+  </si>
+  <si>
+    <t>+9501-396</t>
+  </si>
+  <si>
+    <t>+1795-928</t>
+  </si>
+  <si>
+    <t>+1657-1055</t>
+  </si>
+  <si>
+    <t>+337-1702</t>
+  </si>
+  <si>
+    <t>+9266-362</t>
+  </si>
+  <si>
+    <t>+11112-715</t>
+  </si>
+  <si>
+    <t>+0050-1583</t>
+  </si>
+  <si>
+    <t>+14769-398</t>
+  </si>
+  <si>
+    <t>+1430-1339</t>
+  </si>
+  <si>
+    <t>+2880-750</t>
+  </si>
+  <si>
+    <t>+746-1112</t>
+  </si>
+  <si>
+    <t>3643-282</t>
+  </si>
+  <si>
+    <t>+522-1507</t>
+  </si>
+  <si>
+    <t>+44772-181</t>
+  </si>
+  <si>
+    <t>+13566-645</t>
+  </si>
+  <si>
+    <t>+3720-352</t>
+  </si>
+  <si>
+    <t>+1145-841</t>
+  </si>
+  <si>
+    <t>+4949-388</t>
+  </si>
+  <si>
+    <t>+14432-477</t>
+  </si>
+  <si>
+    <t>+7221-1075</t>
+  </si>
+  <si>
+    <t>+13567-645</t>
+  </si>
+  <si>
+    <t>+4770-608</t>
+  </si>
+  <si>
+    <t>+4721-856</t>
+  </si>
+  <si>
+    <t>+13564-645</t>
+  </si>
+  <si>
+    <t>+24771-476</t>
+  </si>
+  <si>
+    <t>+1249-1480</t>
+  </si>
+  <si>
+    <t>+143-1352</t>
+  </si>
+  <si>
+    <t>+949-1705</t>
+  </si>
+  <si>
+    <t>+448-1525</t>
+  </si>
+  <si>
+    <t>+23391-182</t>
+  </si>
+  <si>
+    <t>+2089-900</t>
+  </si>
+  <si>
+    <t>+23387-182</t>
+  </si>
+  <si>
+    <t>+2791-776</t>
+  </si>
+  <si>
+    <t>+8656-665</t>
+  </si>
+  <si>
+    <t>+321-1539</t>
+  </si>
+  <si>
+    <t>+6552-647</t>
+  </si>
+  <si>
+    <t>+606-1405</t>
+  </si>
+  <si>
+    <t>+27235-119</t>
+  </si>
+  <si>
+    <t>+2211-865</t>
+  </si>
+  <si>
+    <t>+948-1478</t>
+  </si>
+  <si>
+    <t>+7223-1075</t>
+  </si>
+  <si>
+    <t>+4008-1088</t>
+  </si>
+  <si>
+    <t>+1009-1096</t>
+  </si>
+  <si>
+    <t>+5072-313</t>
+  </si>
+  <si>
+    <t>+23381-182</t>
+  </si>
+  <si>
+    <t>+4007-1088</t>
+  </si>
+  <si>
+    <t>+13572-645</t>
+  </si>
+  <si>
+    <t>+9300-671</t>
+  </si>
+  <si>
+    <t>+541-1489</t>
+  </si>
+  <si>
+    <t>+1313-828</t>
+  </si>
+  <si>
+    <t>+0025-2230</t>
+  </si>
+  <si>
+    <t>+9459-213</t>
+  </si>
+  <si>
+    <t>+886-580</t>
+  </si>
+  <si>
+    <t>+4797-975</t>
+  </si>
+  <si>
+    <t>+3171-674</t>
+  </si>
+  <si>
+    <t>+25106-192</t>
+  </si>
+  <si>
+    <t>+1234-874</t>
+  </si>
+  <si>
+    <t>+4152-945</t>
+  </si>
+  <si>
+    <t>+22228-104</t>
+  </si>
+  <si>
+    <t>+9362-337</t>
+  </si>
+  <si>
+    <t>+752-1475</t>
+  </si>
+  <si>
+    <t>+538-1558</t>
+  </si>
+  <si>
+    <t>3138-389</t>
+  </si>
+  <si>
+    <t>+13092-366</t>
+  </si>
+  <si>
+    <t>+7016-633</t>
+  </si>
+  <si>
+    <t>+489-1716</t>
+  </si>
+  <si>
+    <t>8226-301</t>
+  </si>
+  <si>
+    <t>+5522-669</t>
+  </si>
+  <si>
+    <t>1601-1233</t>
+  </si>
+  <si>
+    <t>+3275-799</t>
+  </si>
+  <si>
+    <t>+3846-774</t>
+  </si>
+  <si>
+    <t>+1118-1123</t>
+  </si>
+  <si>
+    <t>+14038-397</t>
+  </si>
+  <si>
+    <t>+5951-740</t>
+  </si>
+  <si>
+    <t>+1190-1481</t>
+  </si>
+  <si>
+    <t>+1676-495</t>
+  </si>
+  <si>
+    <t>+1725-887</t>
+  </si>
+  <si>
+    <t>+8331-211</t>
+  </si>
+  <si>
+    <t>+4491-256</t>
+  </si>
+  <si>
+    <t>+1359-1275</t>
+  </si>
+  <si>
+    <t>+416-1707</t>
+  </si>
+  <si>
+    <t>+11296-215</t>
+  </si>
+  <si>
+    <t>+36505-175</t>
+  </si>
+  <si>
+    <t>+4169-675</t>
+  </si>
+  <si>
+    <t>+5575-965</t>
+  </si>
+  <si>
+    <t>+5252-663</t>
+  </si>
+  <si>
+    <t>+3004-724</t>
+  </si>
+  <si>
+    <t>+5074-772</t>
+  </si>
+  <si>
+    <t>+166-2211</t>
+  </si>
+  <si>
+    <t>+30172-53</t>
+  </si>
+  <si>
+    <t>+1111-880</t>
+  </si>
+  <si>
+    <t>+257-1504</t>
+  </si>
+  <si>
+    <t>+201-2216</t>
+  </si>
+  <si>
+    <t>+877-1469</t>
+  </si>
+  <si>
+    <t>+3435-1095</t>
+  </si>
+  <si>
+    <t>+2403-1098</t>
+  </si>
+  <si>
+    <t>+2149-705</t>
+  </si>
+  <si>
+    <t>+4346-796</t>
+  </si>
+  <si>
+    <t>+27584-39</t>
+  </si>
+  <si>
+    <t>+11822-134</t>
+  </si>
+  <si>
+    <t>+1014-1328</t>
+  </si>
+  <si>
+    <t>+21416-459</t>
+  </si>
+  <si>
+    <t>7760-679</t>
+  </si>
+  <si>
+    <t>+30173-53</t>
+  </si>
+  <si>
+    <t>+4006-1088</t>
+  </si>
+  <si>
+    <t>+24762-476</t>
+  </si>
+  <si>
+    <t>+1018-576</t>
+  </si>
+  <si>
+    <t>+25879-365</t>
+  </si>
+  <si>
+    <t>+8138-650</t>
+  </si>
+  <si>
+    <t>+363-1762</t>
+  </si>
+  <si>
+    <t>+1307-1546</t>
+  </si>
+  <si>
+    <t>+2715-879</t>
+  </si>
+  <si>
+    <t>+21617-109</t>
+  </si>
+  <si>
+    <t>+1519-517</t>
+  </si>
+  <si>
+    <t>+12932-321</t>
+  </si>
+  <si>
+    <t>+126-2224</t>
+  </si>
+  <si>
+    <t>+5002-748</t>
+  </si>
+  <si>
+    <t>+1211-2084</t>
+  </si>
+  <si>
+    <t>+208-1542</t>
+  </si>
+  <si>
+    <t>1726-1213</t>
+  </si>
+  <si>
+    <t>+13587-410</t>
+  </si>
+  <si>
+    <t>+293-1532</t>
+  </si>
+  <si>
+    <t>+12718-165</t>
+  </si>
+  <si>
+    <t>+13590-410</t>
+  </si>
+  <si>
+    <t>+23200-106</t>
+  </si>
+  <si>
+    <t>+175613-33</t>
+  </si>
+  <si>
+    <t>+717-572</t>
+  </si>
+  <si>
+    <t>+1436-895</t>
+  </si>
+  <si>
+    <t>+1886-1094</t>
+  </si>
+  <si>
+    <t>+3973-543</t>
+  </si>
+  <si>
+    <t>+13810-206</t>
+  </si>
+  <si>
+    <t>+3776-653</t>
+  </si>
+  <si>
+    <t>+2177-552</t>
+  </si>
+  <si>
+    <t>+10571-245</t>
+  </si>
+  <si>
+    <t>+3387-1211</t>
+  </si>
+  <si>
+    <t>+2869-1048</t>
+  </si>
+  <si>
+    <t>+2764-666</t>
+  </si>
+  <si>
+    <t>+13333-105</t>
+  </si>
+  <si>
+    <t>+6659-797</t>
+  </si>
+  <si>
+    <t>+5577-341</t>
+  </si>
+  <si>
+    <t>+354-1787</t>
+  </si>
+  <si>
+    <t>+3480-733</t>
+  </si>
+  <si>
+    <t>+1755-890</t>
+  </si>
+  <si>
+    <t>+3391-168</t>
+  </si>
+  <si>
+    <t>+5751-723</t>
+  </si>
+  <si>
+    <t>+4073-719</t>
+  </si>
+  <si>
+    <t>+713-1568</t>
+  </si>
+  <si>
+    <t>+1716-770</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12776,6 +13556,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -13087,10 +13873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D422"/>
+  <dimension ref="A1:D586"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="A328" sqref="A328"/>
+    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
+      <selection activeCell="B331" sqref="B331:B586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13103,7 +13889,7 @@
       <c r="A1" s="1" t="s">
         <v>3918</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3916</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -13117,8 +13903,8 @@
       <c r="A2" s="1" t="s">
         <v>3917</v>
       </c>
-      <c r="B2" s="2">
-        <v>44981</v>
+      <c r="B2" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -13126,8 +13912,8 @@
       <c r="A3" s="1" t="s">
         <v>3921</v>
       </c>
-      <c r="B3" s="2">
-        <v>44981</v>
+      <c r="B3" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -13135,8 +13921,8 @@
       <c r="A4" s="1" t="s">
         <v>3922</v>
       </c>
-      <c r="B4" s="2">
-        <v>44981</v>
+      <c r="B4" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -13144,8 +13930,8 @@
       <c r="A5" s="1" t="s">
         <v>3923</v>
       </c>
-      <c r="B5" s="2">
-        <v>44981</v>
+      <c r="B5" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -13153,8 +13939,8 @@
       <c r="A6" s="1" t="s">
         <v>3924</v>
       </c>
-      <c r="B6" s="2">
-        <v>44981</v>
+      <c r="B6" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -13162,8 +13948,8 @@
       <c r="A7" s="1" t="s">
         <v>3925</v>
       </c>
-      <c r="B7" s="2">
-        <v>44981</v>
+      <c r="B7" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -13171,8 +13957,8 @@
       <c r="A8" s="1" t="s">
         <v>3926</v>
       </c>
-      <c r="B8" s="2">
-        <v>44981</v>
+      <c r="B8" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -13180,8 +13966,8 @@
       <c r="A9" s="1" t="s">
         <v>3927</v>
       </c>
-      <c r="B9" s="2">
-        <v>44981</v>
+      <c r="B9" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -13189,8 +13975,8 @@
       <c r="A10" s="1" t="s">
         <v>3928</v>
       </c>
-      <c r="B10" s="2">
-        <v>44981</v>
+      <c r="B10" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -13198,8 +13984,8 @@
       <c r="A11" s="1" t="s">
         <v>3929</v>
       </c>
-      <c r="B11" s="2">
-        <v>44981</v>
+      <c r="B11" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C11" s="1"/>
     </row>
@@ -13207,8 +13993,8 @@
       <c r="A12" s="1" t="s">
         <v>3930</v>
       </c>
-      <c r="B12" s="2">
-        <v>44981</v>
+      <c r="B12" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -13216,8 +14002,8 @@
       <c r="A13" s="1" t="s">
         <v>3931</v>
       </c>
-      <c r="B13" s="2">
-        <v>44981</v>
+      <c r="B13" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C13" s="1"/>
     </row>
@@ -13225,8 +14011,8 @@
       <c r="A14" s="1" t="s">
         <v>3932</v>
       </c>
-      <c r="B14" s="2">
-        <v>44981</v>
+      <c r="B14" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C14" s="1"/>
     </row>
@@ -13234,8 +14020,8 @@
       <c r="A15" s="1" t="s">
         <v>3933</v>
       </c>
-      <c r="B15" s="2">
-        <v>44981</v>
+      <c r="B15" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C15" s="1"/>
     </row>
@@ -13243,8 +14029,8 @@
       <c r="A16" s="1" t="s">
         <v>3934</v>
       </c>
-      <c r="B16" s="2">
-        <v>44981</v>
+      <c r="B16" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C16" s="1"/>
     </row>
@@ -13252,8 +14038,8 @@
       <c r="A17" s="1" t="s">
         <v>3935</v>
       </c>
-      <c r="B17" s="2">
-        <v>44981</v>
+      <c r="B17" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C17" s="1"/>
     </row>
@@ -13261,8 +14047,8 @@
       <c r="A18" s="1" t="s">
         <v>3936</v>
       </c>
-      <c r="B18" s="2">
-        <v>44981</v>
+      <c r="B18" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C18" s="1"/>
     </row>
@@ -13270,8 +14056,8 @@
       <c r="A19" s="1" t="s">
         <v>3937</v>
       </c>
-      <c r="B19" s="2">
-        <v>44981</v>
+      <c r="B19" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C19" s="1"/>
     </row>
@@ -13279,8 +14065,8 @@
       <c r="A20" s="1" t="s">
         <v>3938</v>
       </c>
-      <c r="B20" s="2">
-        <v>44981</v>
+      <c r="B20" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C20" s="1"/>
     </row>
@@ -13288,8 +14074,8 @@
       <c r="A21" s="1" t="s">
         <v>3939</v>
       </c>
-      <c r="B21" s="2">
-        <v>44981</v>
+      <c r="B21" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C21" s="1"/>
     </row>
@@ -13297,8 +14083,8 @@
       <c r="A22" s="1" t="s">
         <v>3940</v>
       </c>
-      <c r="B22" s="2">
-        <v>44981</v>
+      <c r="B22" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C22" s="1"/>
     </row>
@@ -13306,8 +14092,8 @@
       <c r="A23" s="1" t="s">
         <v>3941</v>
       </c>
-      <c r="B23" s="2">
-        <v>44981</v>
+      <c r="B23" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C23" s="1"/>
     </row>
@@ -13315,8 +14101,8 @@
       <c r="A24" s="1" t="s">
         <v>3942</v>
       </c>
-      <c r="B24" s="2">
-        <v>44981</v>
+      <c r="B24" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C24" s="1"/>
     </row>
@@ -13324,8 +14110,8 @@
       <c r="A25" s="1" t="s">
         <v>3943</v>
       </c>
-      <c r="B25" s="2">
-        <v>44981</v>
+      <c r="B25" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -13333,8 +14119,8 @@
       <c r="A26" s="1" t="s">
         <v>3944</v>
       </c>
-      <c r="B26" s="2">
-        <v>44981</v>
+      <c r="B26" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C26" s="1"/>
     </row>
@@ -13342,8 +14128,8 @@
       <c r="A27" s="1" t="s">
         <v>3945</v>
       </c>
-      <c r="B27" s="2">
-        <v>44981</v>
+      <c r="B27" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C27" s="1"/>
     </row>
@@ -13351,8 +14137,8 @@
       <c r="A28" s="1" t="s">
         <v>3946</v>
       </c>
-      <c r="B28" s="2">
-        <v>44981</v>
+      <c r="B28" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C28" s="1"/>
     </row>
@@ -13360,8 +14146,8 @@
       <c r="A29" s="1" t="s">
         <v>3947</v>
       </c>
-      <c r="B29" s="2">
-        <v>44981</v>
+      <c r="B29" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C29" s="1"/>
     </row>
@@ -13369,8 +14155,8 @@
       <c r="A30" s="1" t="s">
         <v>3948</v>
       </c>
-      <c r="B30" s="2">
-        <v>44981</v>
+      <c r="B30" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C30" s="1"/>
     </row>
@@ -13378,8 +14164,8 @@
       <c r="A31" s="1" t="s">
         <v>3949</v>
       </c>
-      <c r="B31" s="2">
-        <v>44981</v>
+      <c r="B31" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C31" s="1"/>
     </row>
@@ -13387,8 +14173,8 @@
       <c r="A32" s="1" t="s">
         <v>3950</v>
       </c>
-      <c r="B32" s="2">
-        <v>44981</v>
+      <c r="B32" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C32" s="1"/>
     </row>
@@ -13396,8 +14182,8 @@
       <c r="A33" s="1" t="s">
         <v>3951</v>
       </c>
-      <c r="B33" s="2">
-        <v>44981</v>
+      <c r="B33" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C33" s="1"/>
     </row>
@@ -13405,8 +14191,8 @@
       <c r="A34" s="1" t="s">
         <v>3952</v>
       </c>
-      <c r="B34" s="2">
-        <v>44981</v>
+      <c r="B34" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C34" s="1"/>
     </row>
@@ -13414,8 +14200,8 @@
       <c r="A35" s="1" t="s">
         <v>3953</v>
       </c>
-      <c r="B35" s="2">
-        <v>44981</v>
+      <c r="B35" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C35" s="1"/>
     </row>
@@ -13423,8 +14209,8 @@
       <c r="A36" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="B36" s="2">
-        <v>44981</v>
+      <c r="B36" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C36" s="1"/>
     </row>
@@ -13432,8 +14218,8 @@
       <c r="A37" s="1" t="s">
         <v>3955</v>
       </c>
-      <c r="B37" s="2">
-        <v>44981</v>
+      <c r="B37" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C37" s="1"/>
     </row>
@@ -13441,8 +14227,8 @@
       <c r="A38" s="1" t="s">
         <v>3956</v>
       </c>
-      <c r="B38" s="2">
-        <v>44981</v>
+      <c r="B38" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C38" s="1"/>
     </row>
@@ -13450,8 +14236,8 @@
       <c r="A39" s="1" t="s">
         <v>3957</v>
       </c>
-      <c r="B39" s="2">
-        <v>44981</v>
+      <c r="B39" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C39" s="1"/>
     </row>
@@ -13459,8 +14245,8 @@
       <c r="A40" s="1" t="s">
         <v>3958</v>
       </c>
-      <c r="B40" s="2">
-        <v>44981</v>
+      <c r="B40" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C40" s="1"/>
     </row>
@@ -13468,8 +14254,8 @@
       <c r="A41" s="1" t="s">
         <v>3959</v>
       </c>
-      <c r="B41" s="2">
-        <v>44981</v>
+      <c r="B41" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C41" s="1"/>
     </row>
@@ -13477,8 +14263,8 @@
       <c r="A42" s="1" t="s">
         <v>3960</v>
       </c>
-      <c r="B42" s="2">
-        <v>44981</v>
+      <c r="B42" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C42" s="1"/>
     </row>
@@ -13486,8 +14272,8 @@
       <c r="A43" s="1" t="s">
         <v>3961</v>
       </c>
-      <c r="B43" s="2">
-        <v>44981</v>
+      <c r="B43" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C43" s="1"/>
     </row>
@@ -13495,8 +14281,8 @@
       <c r="A44" s="1" t="s">
         <v>3962</v>
       </c>
-      <c r="B44" s="2">
-        <v>44981</v>
+      <c r="B44" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C44" s="1"/>
     </row>
@@ -13504,8 +14290,8 @@
       <c r="A45" s="1" t="s">
         <v>3963</v>
       </c>
-      <c r="B45" s="2">
-        <v>44981</v>
+      <c r="B45" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C45" s="1"/>
     </row>
@@ -13513,8 +14299,8 @@
       <c r="A46" s="1" t="s">
         <v>3964</v>
       </c>
-      <c r="B46" s="2">
-        <v>44981</v>
+      <c r="B46" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C46" s="1"/>
     </row>
@@ -13522,8 +14308,8 @@
       <c r="A47" s="1" t="s">
         <v>3965</v>
       </c>
-      <c r="B47" s="2">
-        <v>44981</v>
+      <c r="B47" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C47" s="1"/>
     </row>
@@ -13531,8 +14317,8 @@
       <c r="A48" s="1" t="s">
         <v>3966</v>
       </c>
-      <c r="B48" s="2">
-        <v>44981</v>
+      <c r="B48" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C48" s="1"/>
     </row>
@@ -13540,8 +14326,8 @@
       <c r="A49" s="1" t="s">
         <v>3967</v>
       </c>
-      <c r="B49" s="2">
-        <v>44981</v>
+      <c r="B49" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C49" s="1"/>
     </row>
@@ -13549,8 +14335,8 @@
       <c r="A50" s="1" t="s">
         <v>3968</v>
       </c>
-      <c r="B50" s="2">
-        <v>44981</v>
+      <c r="B50" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C50" s="1"/>
     </row>
@@ -13558,8 +14344,8 @@
       <c r="A51" s="1" t="s">
         <v>3969</v>
       </c>
-      <c r="B51" s="2">
-        <v>44981</v>
+      <c r="B51" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C51" s="1"/>
     </row>
@@ -13567,8 +14353,8 @@
       <c r="A52" s="1" t="s">
         <v>3970</v>
       </c>
-      <c r="B52" s="2">
-        <v>44981</v>
+      <c r="B52" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C52" s="1"/>
     </row>
@@ -13576,8 +14362,8 @@
       <c r="A53" s="1" t="s">
         <v>3971</v>
       </c>
-      <c r="B53" s="2">
-        <v>44981</v>
+      <c r="B53" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C53" s="1"/>
     </row>
@@ -13585,8 +14371,8 @@
       <c r="A54" s="1" t="s">
         <v>3972</v>
       </c>
-      <c r="B54" s="2">
-        <v>44981</v>
+      <c r="B54" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C54" s="1"/>
     </row>
@@ -13594,8 +14380,8 @@
       <c r="A55" s="1" t="s">
         <v>3973</v>
       </c>
-      <c r="B55" s="2">
-        <v>44981</v>
+      <c r="B55" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C55" s="1"/>
     </row>
@@ -13603,8 +14389,8 @@
       <c r="A56" s="1" t="s">
         <v>3974</v>
       </c>
-      <c r="B56" s="2">
-        <v>44981</v>
+      <c r="B56" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C56" s="1"/>
     </row>
@@ -13612,8 +14398,8 @@
       <c r="A57" s="1" t="s">
         <v>3975</v>
       </c>
-      <c r="B57" s="2">
-        <v>44981</v>
+      <c r="B57" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C57" s="1"/>
     </row>
@@ -13621,8 +14407,8 @@
       <c r="A58" s="1" t="s">
         <v>3976</v>
       </c>
-      <c r="B58" s="2">
-        <v>44981</v>
+      <c r="B58" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C58" s="1"/>
     </row>
@@ -13630,8 +14416,8 @@
       <c r="A59" s="1" t="s">
         <v>3977</v>
       </c>
-      <c r="B59" s="2">
-        <v>44981</v>
+      <c r="B59" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C59" s="1"/>
     </row>
@@ -13639,8 +14425,8 @@
       <c r="A60" s="1" t="s">
         <v>3978</v>
       </c>
-      <c r="B60" s="2">
-        <v>44981</v>
+      <c r="B60" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C60" s="1"/>
     </row>
@@ -13648,8 +14434,8 @@
       <c r="A61" s="1" t="s">
         <v>3979</v>
       </c>
-      <c r="B61" s="2">
-        <v>44981</v>
+      <c r="B61" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C61" s="1"/>
     </row>
@@ -13657,8 +14443,8 @@
       <c r="A62" s="1" t="s">
         <v>3980</v>
       </c>
-      <c r="B62" s="2">
-        <v>44981</v>
+      <c r="B62" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C62" s="1"/>
     </row>
@@ -13666,8 +14452,8 @@
       <c r="A63" s="1" t="s">
         <v>3981</v>
       </c>
-      <c r="B63" s="2">
-        <v>44981</v>
+      <c r="B63" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C63" s="1"/>
     </row>
@@ -13675,8 +14461,8 @@
       <c r="A64" s="1" t="s">
         <v>3982</v>
       </c>
-      <c r="B64" s="2">
-        <v>44981</v>
+      <c r="B64" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C64" s="1"/>
     </row>
@@ -13684,8 +14470,8 @@
       <c r="A65" s="1" t="s">
         <v>3983</v>
       </c>
-      <c r="B65" s="2">
-        <v>44981</v>
+      <c r="B65" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C65" s="1"/>
     </row>
@@ -13693,8 +14479,8 @@
       <c r="A66" s="1" t="s">
         <v>3984</v>
       </c>
-      <c r="B66" s="2">
-        <v>44981</v>
+      <c r="B66" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C66" s="1"/>
     </row>
@@ -13702,8 +14488,8 @@
       <c r="A67" s="1" t="s">
         <v>3985</v>
       </c>
-      <c r="B67" s="2">
-        <v>44981</v>
+      <c r="B67" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C67" s="1"/>
     </row>
@@ -13711,8 +14497,8 @@
       <c r="A68" s="1" t="s">
         <v>3986</v>
       </c>
-      <c r="B68" s="2">
-        <v>44981</v>
+      <c r="B68" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C68" s="1"/>
     </row>
@@ -13720,8 +14506,8 @@
       <c r="A69" s="1" t="s">
         <v>3987</v>
       </c>
-      <c r="B69" s="2">
-        <v>44981</v>
+      <c r="B69" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C69" s="1"/>
     </row>
@@ -13729,8 +14515,8 @@
       <c r="A70" s="1" t="s">
         <v>3988</v>
       </c>
-      <c r="B70" s="2">
-        <v>44981</v>
+      <c r="B70" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C70" s="1"/>
     </row>
@@ -13738,8 +14524,8 @@
       <c r="A71" s="1" t="s">
         <v>3989</v>
       </c>
-      <c r="B71" s="2">
-        <v>44981</v>
+      <c r="B71" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C71" s="1"/>
     </row>
@@ -13747,8 +14533,8 @@
       <c r="A72" s="1" t="s">
         <v>3990</v>
       </c>
-      <c r="B72" s="2">
-        <v>44981</v>
+      <c r="B72" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C72" s="1"/>
     </row>
@@ -13756,8 +14542,8 @@
       <c r="A73" s="1" t="s">
         <v>3991</v>
       </c>
-      <c r="B73" s="2">
-        <v>44981</v>
+      <c r="B73" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C73" s="1"/>
     </row>
@@ -13765,8 +14551,8 @@
       <c r="A74" s="1" t="s">
         <v>3992</v>
       </c>
-      <c r="B74" s="2">
-        <v>44981</v>
+      <c r="B74" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C74" s="1"/>
     </row>
@@ -13774,8 +14560,8 @@
       <c r="A75" s="1" t="s">
         <v>3993</v>
       </c>
-      <c r="B75" s="2">
-        <v>44981</v>
+      <c r="B75" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C75" s="1"/>
     </row>
@@ -13783,8 +14569,8 @@
       <c r="A76" s="1" t="s">
         <v>3994</v>
       </c>
-      <c r="B76" s="2">
-        <v>44981</v>
+      <c r="B76" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C76" s="1"/>
     </row>
@@ -13792,8 +14578,8 @@
       <c r="A77" s="1" t="s">
         <v>3995</v>
       </c>
-      <c r="B77" s="2">
-        <v>44981</v>
+      <c r="B77" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C77" s="1"/>
     </row>
@@ -13801,8 +14587,8 @@
       <c r="A78" s="1" t="s">
         <v>3996</v>
       </c>
-      <c r="B78" s="2">
-        <v>44981</v>
+      <c r="B78" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C78" s="1"/>
     </row>
@@ -13810,8 +14596,8 @@
       <c r="A79" s="1" t="s">
         <v>3997</v>
       </c>
-      <c r="B79" s="2">
-        <v>44981</v>
+      <c r="B79" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C79" s="1"/>
     </row>
@@ -13819,8 +14605,8 @@
       <c r="A80" s="1" t="s">
         <v>3998</v>
       </c>
-      <c r="B80" s="2">
-        <v>44981</v>
+      <c r="B80" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C80" s="1"/>
     </row>
@@ -13828,8 +14614,8 @@
       <c r="A81" s="1" t="s">
         <v>3999</v>
       </c>
-      <c r="B81" s="2">
-        <v>44981</v>
+      <c r="B81" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C81" s="1"/>
     </row>
@@ -13837,8 +14623,8 @@
       <c r="A82" s="1" t="s">
         <v>4000</v>
       </c>
-      <c r="B82" s="2">
-        <v>44981</v>
+      <c r="B82" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C82" s="1"/>
     </row>
@@ -13846,8 +14632,8 @@
       <c r="A83" s="1" t="s">
         <v>4001</v>
       </c>
-      <c r="B83" s="2">
-        <v>44981</v>
+      <c r="B83" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C83" s="1"/>
     </row>
@@ -13855,8 +14641,8 @@
       <c r="A84" s="1" t="s">
         <v>4002</v>
       </c>
-      <c r="B84" s="2">
-        <v>44981</v>
+      <c r="B84" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C84" s="1"/>
     </row>
@@ -13864,8 +14650,8 @@
       <c r="A85" s="1" t="s">
         <v>4003</v>
       </c>
-      <c r="B85" s="2">
-        <v>44981</v>
+      <c r="B85" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C85" s="1"/>
     </row>
@@ -13873,8 +14659,8 @@
       <c r="A86" s="1" t="s">
         <v>4004</v>
       </c>
-      <c r="B86" s="2">
-        <v>44981</v>
+      <c r="B86" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C86" s="1"/>
     </row>
@@ -13882,8 +14668,8 @@
       <c r="A87" s="1" t="s">
         <v>4005</v>
       </c>
-      <c r="B87" s="2">
-        <v>44981</v>
+      <c r="B87" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C87" s="1"/>
     </row>
@@ -13891,8 +14677,8 @@
       <c r="A88" s="1" t="s">
         <v>4006</v>
       </c>
-      <c r="B88" s="2">
-        <v>44981</v>
+      <c r="B88" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C88" s="1"/>
     </row>
@@ -13900,8 +14686,8 @@
       <c r="A89" s="1" t="s">
         <v>4007</v>
       </c>
-      <c r="B89" s="2">
-        <v>44981</v>
+      <c r="B89" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C89" s="1"/>
     </row>
@@ -13909,8 +14695,8 @@
       <c r="A90" s="1" t="s">
         <v>4008</v>
       </c>
-      <c r="B90" s="2">
-        <v>44981</v>
+      <c r="B90" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C90" s="1"/>
     </row>
@@ -13918,8 +14704,8 @@
       <c r="A91" s="1" t="s">
         <v>4009</v>
       </c>
-      <c r="B91" s="2">
-        <v>44981</v>
+      <c r="B91" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C91" s="1"/>
     </row>
@@ -13927,8 +14713,8 @@
       <c r="A92" s="1" t="s">
         <v>4010</v>
       </c>
-      <c r="B92" s="2">
-        <v>44981</v>
+      <c r="B92" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C92" s="1"/>
     </row>
@@ -13936,8 +14722,8 @@
       <c r="A93" s="1" t="s">
         <v>4011</v>
       </c>
-      <c r="B93" s="2">
-        <v>44981</v>
+      <c r="B93" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C93" s="1"/>
     </row>
@@ -13945,8 +14731,8 @@
       <c r="A94" s="1" t="s">
         <v>4012</v>
       </c>
-      <c r="B94" s="2">
-        <v>44981</v>
+      <c r="B94" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C94" s="1"/>
     </row>
@@ -13954,8 +14740,8 @@
       <c r="A95" s="1" t="s">
         <v>4013</v>
       </c>
-      <c r="B95" s="2">
-        <v>44981</v>
+      <c r="B95" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C95" s="1"/>
     </row>
@@ -13963,8 +14749,8 @@
       <c r="A96" s="1" t="s">
         <v>4014</v>
       </c>
-      <c r="B96" s="2">
-        <v>44981</v>
+      <c r="B96" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C96" s="1"/>
     </row>
@@ -13972,8 +14758,8 @@
       <c r="A97" s="1" t="s">
         <v>4015</v>
       </c>
-      <c r="B97" s="2">
-        <v>44981</v>
+      <c r="B97" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C97" s="1"/>
     </row>
@@ -13981,8 +14767,8 @@
       <c r="A98" s="1" t="s">
         <v>4016</v>
       </c>
-      <c r="B98" s="2">
-        <v>44981</v>
+      <c r="B98" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C98" s="1"/>
     </row>
@@ -13990,8 +14776,8 @@
       <c r="A99" s="1" t="s">
         <v>4017</v>
       </c>
-      <c r="B99" s="2">
-        <v>44981</v>
+      <c r="B99" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C99" s="1"/>
     </row>
@@ -13999,8 +14785,8 @@
       <c r="A100" s="1" t="s">
         <v>4018</v>
       </c>
-      <c r="B100" s="2">
-        <v>44981</v>
+      <c r="B100" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C100" s="1"/>
     </row>
@@ -14008,8 +14794,8 @@
       <c r="A101" s="1" t="s">
         <v>4019</v>
       </c>
-      <c r="B101" s="2">
-        <v>44981</v>
+      <c r="B101" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C101" s="1"/>
     </row>
@@ -14017,8 +14803,8 @@
       <c r="A102" s="1" t="s">
         <v>4020</v>
       </c>
-      <c r="B102" s="2">
-        <v>44981</v>
+      <c r="B102" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C102" s="1"/>
     </row>
@@ -14026,8 +14812,8 @@
       <c r="A103" s="1" t="s">
         <v>4021</v>
       </c>
-      <c r="B103" s="2">
-        <v>44981</v>
+      <c r="B103" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C103" s="1"/>
     </row>
@@ -14035,8 +14821,8 @@
       <c r="A104" s="1" t="s">
         <v>4022</v>
       </c>
-      <c r="B104" s="2">
-        <v>44981</v>
+      <c r="B104" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C104" s="1"/>
     </row>
@@ -14044,8 +14830,8 @@
       <c r="A105" s="1" t="s">
         <v>4023</v>
       </c>
-      <c r="B105" s="2">
-        <v>44981</v>
+      <c r="B105" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C105" s="1"/>
     </row>
@@ -14053,8 +14839,8 @@
       <c r="A106" s="1" t="s">
         <v>4024</v>
       </c>
-      <c r="B106" s="2">
-        <v>44981</v>
+      <c r="B106" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C106" s="1"/>
     </row>
@@ -14062,8 +14848,8 @@
       <c r="A107" s="1" t="s">
         <v>4025</v>
       </c>
-      <c r="B107" s="2">
-        <v>44981</v>
+      <c r="B107" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C107" s="1"/>
     </row>
@@ -14071,8 +14857,8 @@
       <c r="A108" s="1" t="s">
         <v>4026</v>
       </c>
-      <c r="B108" s="2">
-        <v>44981</v>
+      <c r="B108" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C108" s="1"/>
     </row>
@@ -14080,8 +14866,8 @@
       <c r="A109" s="1" t="s">
         <v>4027</v>
       </c>
-      <c r="B109" s="2">
-        <v>44981</v>
+      <c r="B109" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C109" s="1"/>
     </row>
@@ -14089,8 +14875,8 @@
       <c r="A110" s="1" t="s">
         <v>4028</v>
       </c>
-      <c r="B110" s="2">
-        <v>44981</v>
+      <c r="B110" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C110" s="1"/>
     </row>
@@ -14098,8 +14884,8 @@
       <c r="A111" s="1" t="s">
         <v>4029</v>
       </c>
-      <c r="B111" s="2">
-        <v>44981</v>
+      <c r="B111" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C111" s="1"/>
     </row>
@@ -14107,8 +14893,8 @@
       <c r="A112" s="1" t="s">
         <v>4030</v>
       </c>
-      <c r="B112" s="2">
-        <v>44981</v>
+      <c r="B112" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C112" s="1"/>
     </row>
@@ -14116,8 +14902,8 @@
       <c r="A113" s="1" t="s">
         <v>4031</v>
       </c>
-      <c r="B113" s="2">
-        <v>44981</v>
+      <c r="B113" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C113" s="1"/>
     </row>
@@ -14125,8 +14911,8 @@
       <c r="A114" s="1" t="s">
         <v>4032</v>
       </c>
-      <c r="B114" s="2">
-        <v>44981</v>
+      <c r="B114" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C114" s="1"/>
     </row>
@@ -14134,8 +14920,8 @@
       <c r="A115" s="1" t="s">
         <v>4033</v>
       </c>
-      <c r="B115" s="2">
-        <v>44981</v>
+      <c r="B115" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C115" s="1"/>
     </row>
@@ -14143,8 +14929,8 @@
       <c r="A116" s="1" t="s">
         <v>4034</v>
       </c>
-      <c r="B116" s="2">
-        <v>44981</v>
+      <c r="B116" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C116" s="1"/>
     </row>
@@ -14152,8 +14938,8 @@
       <c r="A117" s="1" t="s">
         <v>4035</v>
       </c>
-      <c r="B117" s="2">
-        <v>44981</v>
+      <c r="B117" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C117" s="1"/>
     </row>
@@ -14161,8 +14947,8 @@
       <c r="A118" s="1" t="s">
         <v>4036</v>
       </c>
-      <c r="B118" s="2">
-        <v>44981</v>
+      <c r="B118" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C118" s="1"/>
     </row>
@@ -14170,8 +14956,8 @@
       <c r="A119" s="1" t="s">
         <v>4037</v>
       </c>
-      <c r="B119" s="2">
-        <v>44981</v>
+      <c r="B119" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C119" s="1"/>
     </row>
@@ -14179,8 +14965,8 @@
       <c r="A120" s="1" t="s">
         <v>4038</v>
       </c>
-      <c r="B120" s="2">
-        <v>44981</v>
+      <c r="B120" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C120" s="1"/>
     </row>
@@ -14188,8 +14974,8 @@
       <c r="A121" s="1" t="s">
         <v>4039</v>
       </c>
-      <c r="B121" s="2">
-        <v>44981</v>
+      <c r="B121" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C121" s="1"/>
     </row>
@@ -14197,8 +14983,8 @@
       <c r="A122" s="1" t="s">
         <v>4040</v>
       </c>
-      <c r="B122" s="2">
-        <v>44981</v>
+      <c r="B122" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C122" s="1"/>
     </row>
@@ -14206,8 +14992,8 @@
       <c r="A123" s="1" t="s">
         <v>4041</v>
       </c>
-      <c r="B123" s="2">
-        <v>44981</v>
+      <c r="B123" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C123" s="1"/>
     </row>
@@ -14215,8 +15001,8 @@
       <c r="A124" s="1" t="s">
         <v>4042</v>
       </c>
-      <c r="B124" s="2">
-        <v>44981</v>
+      <c r="B124" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C124" s="1"/>
     </row>
@@ -14224,8 +15010,8 @@
       <c r="A125" s="1" t="s">
         <v>4043</v>
       </c>
-      <c r="B125" s="2">
-        <v>44981</v>
+      <c r="B125" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C125" s="1"/>
     </row>
@@ -14233,8 +15019,8 @@
       <c r="A126" s="1" t="s">
         <v>4044</v>
       </c>
-      <c r="B126" s="2">
-        <v>44981</v>
+      <c r="B126" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C126" s="1"/>
     </row>
@@ -14242,8 +15028,8 @@
       <c r="A127" s="1" t="s">
         <v>4045</v>
       </c>
-      <c r="B127" s="2">
-        <v>44981</v>
+      <c r="B127" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C127" s="1"/>
     </row>
@@ -14251,8 +15037,8 @@
       <c r="A128" s="1" t="s">
         <v>4046</v>
       </c>
-      <c r="B128" s="2">
-        <v>44981</v>
+      <c r="B128" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C128" s="1"/>
     </row>
@@ -14260,8 +15046,8 @@
       <c r="A129" s="1" t="s">
         <v>4047</v>
       </c>
-      <c r="B129" s="2">
-        <v>44981</v>
+      <c r="B129" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C129" s="1"/>
     </row>
@@ -14269,8 +15055,8 @@
       <c r="A130" s="1" t="s">
         <v>4048</v>
       </c>
-      <c r="B130" s="2">
-        <v>44981</v>
+      <c r="B130" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C130" s="1"/>
     </row>
@@ -14278,8 +15064,8 @@
       <c r="A131" s="1" t="s">
         <v>4049</v>
       </c>
-      <c r="B131" s="2">
-        <v>44981</v>
+      <c r="B131" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C131" s="1"/>
     </row>
@@ -14287,8 +15073,8 @@
       <c r="A132" s="1" t="s">
         <v>4050</v>
       </c>
-      <c r="B132" s="2">
-        <v>44981</v>
+      <c r="B132" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C132" s="1"/>
     </row>
@@ -14296,8 +15082,8 @@
       <c r="A133" s="1" t="s">
         <v>4051</v>
       </c>
-      <c r="B133" s="2">
-        <v>44981</v>
+      <c r="B133" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C133" s="1"/>
     </row>
@@ -14305,8 +15091,8 @@
       <c r="A134" s="1" t="s">
         <v>4052</v>
       </c>
-      <c r="B134" s="2">
-        <v>44981</v>
+      <c r="B134" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C134" s="1"/>
     </row>
@@ -14314,8 +15100,8 @@
       <c r="A135" s="1" t="s">
         <v>4053</v>
       </c>
-      <c r="B135" s="2">
-        <v>44981</v>
+      <c r="B135" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C135" s="1"/>
     </row>
@@ -14323,8 +15109,8 @@
       <c r="A136" s="1" t="s">
         <v>4054</v>
       </c>
-      <c r="B136" s="2">
-        <v>44981</v>
+      <c r="B136" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C136" s="1"/>
     </row>
@@ -14332,8 +15118,8 @@
       <c r="A137" s="1" t="s">
         <v>4055</v>
       </c>
-      <c r="B137" s="2">
-        <v>44981</v>
+      <c r="B137" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C137" s="1"/>
     </row>
@@ -14341,8 +15127,8 @@
       <c r="A138" s="1" t="s">
         <v>4056</v>
       </c>
-      <c r="B138" s="2">
-        <v>44981</v>
+      <c r="B138" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C138" s="1"/>
     </row>
@@ -14350,8 +15136,8 @@
       <c r="A139" s="1" t="s">
         <v>4057</v>
       </c>
-      <c r="B139" s="2">
-        <v>44981</v>
+      <c r="B139" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C139" s="1"/>
     </row>
@@ -14359,8 +15145,8 @@
       <c r="A140" s="1" t="s">
         <v>4058</v>
       </c>
-      <c r="B140" s="2">
-        <v>44981</v>
+      <c r="B140" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C140" s="1"/>
     </row>
@@ -14368,8 +15154,8 @@
       <c r="A141" s="1" t="s">
         <v>4059</v>
       </c>
-      <c r="B141" s="2">
-        <v>44981</v>
+      <c r="B141" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C141" s="1"/>
     </row>
@@ -14377,8 +15163,8 @@
       <c r="A142" s="1" t="s">
         <v>4060</v>
       </c>
-      <c r="B142" s="2">
-        <v>44981</v>
+      <c r="B142" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C142" s="1"/>
     </row>
@@ -14386,8 +15172,8 @@
       <c r="A143" s="1" t="s">
         <v>4061</v>
       </c>
-      <c r="B143" s="2">
-        <v>44981</v>
+      <c r="B143" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C143" s="1"/>
     </row>
@@ -14395,8 +15181,8 @@
       <c r="A144" s="1" t="s">
         <v>4062</v>
       </c>
-      <c r="B144" s="2">
-        <v>44981</v>
+      <c r="B144" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C144" s="1"/>
     </row>
@@ -14404,8 +15190,8 @@
       <c r="A145" s="1" t="s">
         <v>4063</v>
       </c>
-      <c r="B145" s="2">
-        <v>44981</v>
+      <c r="B145" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C145" s="1"/>
     </row>
@@ -14413,8 +15199,8 @@
       <c r="A146" s="1" t="s">
         <v>4064</v>
       </c>
-      <c r="B146" s="2">
-        <v>44981</v>
+      <c r="B146" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C146" s="1"/>
     </row>
@@ -14422,8 +15208,8 @@
       <c r="A147" s="1" t="s">
         <v>4065</v>
       </c>
-      <c r="B147" s="2">
-        <v>44981</v>
+      <c r="B147" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C147" s="1"/>
     </row>
@@ -14431,8 +15217,8 @@
       <c r="A148" s="1" t="s">
         <v>4066</v>
       </c>
-      <c r="B148" s="2">
-        <v>44981</v>
+      <c r="B148" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C148" s="1"/>
     </row>
@@ -14440,8 +15226,8 @@
       <c r="A149" s="1" t="s">
         <v>4067</v>
       </c>
-      <c r="B149" s="2">
-        <v>44981</v>
+      <c r="B149" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C149" s="1"/>
     </row>
@@ -14449,8 +15235,8 @@
       <c r="A150" s="1" t="s">
         <v>4068</v>
       </c>
-      <c r="B150" s="2">
-        <v>44981</v>
+      <c r="B150" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -14459,8 +15245,8 @@
       <c r="A151" s="1" t="s">
         <v>4069</v>
       </c>
-      <c r="B151" s="2">
-        <v>44981</v>
+      <c r="B151" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C151" s="1"/>
     </row>
@@ -14468,8 +15254,8 @@
       <c r="A152" s="1" t="s">
         <v>4070</v>
       </c>
-      <c r="B152" s="2">
-        <v>44981</v>
+      <c r="B152" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C152" s="1"/>
     </row>
@@ -14477,8 +15263,8 @@
       <c r="A153" s="1" t="s">
         <v>4071</v>
       </c>
-      <c r="B153" s="2">
-        <v>44981</v>
+      <c r="B153" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C153" s="1"/>
     </row>
@@ -14486,8 +15272,8 @@
       <c r="A154" s="1" t="s">
         <v>4072</v>
       </c>
-      <c r="B154" s="2">
-        <v>44981</v>
+      <c r="B154" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C154" s="1"/>
     </row>
@@ -14495,8 +15281,8 @@
       <c r="A155" s="1" t="s">
         <v>4073</v>
       </c>
-      <c r="B155" s="2">
-        <v>44981</v>
+      <c r="B155" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C155" s="1"/>
     </row>
@@ -14504,8 +15290,8 @@
       <c r="A156" s="1" t="s">
         <v>4074</v>
       </c>
-      <c r="B156" s="2">
-        <v>44981</v>
+      <c r="B156" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C156" s="1"/>
     </row>
@@ -14513,8 +15299,8 @@
       <c r="A157" s="1" t="s">
         <v>4075</v>
       </c>
-      <c r="B157" s="2">
-        <v>44981</v>
+      <c r="B157" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C157" s="1"/>
     </row>
@@ -14522,8 +15308,8 @@
       <c r="A158" s="1" t="s">
         <v>4076</v>
       </c>
-      <c r="B158" s="2">
-        <v>44981</v>
+      <c r="B158" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C158" s="1"/>
     </row>
@@ -14531,8 +15317,8 @@
       <c r="A159" s="1" t="s">
         <v>4077</v>
       </c>
-      <c r="B159" s="2">
-        <v>44981</v>
+      <c r="B159" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C159" s="1"/>
     </row>
@@ -14540,8 +15326,8 @@
       <c r="A160" s="1" t="s">
         <v>4078</v>
       </c>
-      <c r="B160" s="2">
-        <v>44981</v>
+      <c r="B160" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C160" s="1"/>
     </row>
@@ -14549,8 +15335,8 @@
       <c r="A161" s="1" t="s">
         <v>4079</v>
       </c>
-      <c r="B161" s="2">
-        <v>44981</v>
+      <c r="B161" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C161" s="1"/>
     </row>
@@ -14558,8 +15344,8 @@
       <c r="A162" s="1" t="s">
         <v>4080</v>
       </c>
-      <c r="B162" s="2">
-        <v>44981</v>
+      <c r="B162" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C162" s="1"/>
     </row>
@@ -14567,8 +15353,8 @@
       <c r="A163" s="1" t="s">
         <v>4081</v>
       </c>
-      <c r="B163" s="2">
-        <v>44981</v>
+      <c r="B163" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C163" s="1"/>
     </row>
@@ -14576,8 +15362,8 @@
       <c r="A164" s="1" t="s">
         <v>4082</v>
       </c>
-      <c r="B164" s="2">
-        <v>44981</v>
+      <c r="B164" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C164" s="1"/>
     </row>
@@ -14585,8 +15371,8 @@
       <c r="A165" s="1" t="s">
         <v>4083</v>
       </c>
-      <c r="B165" s="2">
-        <v>44981</v>
+      <c r="B165" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C165" s="1"/>
     </row>
@@ -14594,8 +15380,8 @@
       <c r="A166" s="1" t="s">
         <v>4084</v>
       </c>
-      <c r="B166" s="2">
-        <v>44981</v>
+      <c r="B166" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C166" s="1"/>
     </row>
@@ -14603,8 +15389,8 @@
       <c r="A167" s="1" t="s">
         <v>4085</v>
       </c>
-      <c r="B167" s="2">
-        <v>44981</v>
+      <c r="B167" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C167" s="1"/>
     </row>
@@ -14612,8 +15398,8 @@
       <c r="A168" s="1" t="s">
         <v>4086</v>
       </c>
-      <c r="B168" s="2">
-        <v>44981</v>
+      <c r="B168" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C168" s="1"/>
     </row>
@@ -14621,8 +15407,8 @@
       <c r="A169" s="1" t="s">
         <v>4087</v>
       </c>
-      <c r="B169" s="2">
-        <v>44981</v>
+      <c r="B169" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C169" s="1"/>
     </row>
@@ -14630,8 +15416,8 @@
       <c r="A170" s="1" t="s">
         <v>4088</v>
       </c>
-      <c r="B170" s="2">
-        <v>44981</v>
+      <c r="B170" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C170" s="1"/>
     </row>
@@ -14639,8 +15425,8 @@
       <c r="A171" s="1" t="s">
         <v>4089</v>
       </c>
-      <c r="B171" s="2">
-        <v>44981</v>
+      <c r="B171" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C171" s="1"/>
     </row>
@@ -14648,8 +15434,8 @@
       <c r="A172" s="1" t="s">
         <v>4090</v>
       </c>
-      <c r="B172" s="2">
-        <v>44981</v>
+      <c r="B172" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C172" s="1"/>
     </row>
@@ -14657,8 +15443,8 @@
       <c r="A173" s="1" t="s">
         <v>4091</v>
       </c>
-      <c r="B173" s="2">
-        <v>44981</v>
+      <c r="B173" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C173" s="1"/>
     </row>
@@ -14666,8 +15452,8 @@
       <c r="A174" s="1" t="s">
         <v>4092</v>
       </c>
-      <c r="B174" s="2">
-        <v>44981</v>
+      <c r="B174" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C174" s="1"/>
     </row>
@@ -14675,8 +15461,8 @@
       <c r="A175" s="1" t="s">
         <v>4093</v>
       </c>
-      <c r="B175" s="2">
-        <v>44981</v>
+      <c r="B175" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C175" s="1"/>
     </row>
@@ -14684,8 +15470,8 @@
       <c r="A176" s="1" t="s">
         <v>4094</v>
       </c>
-      <c r="B176" s="2">
-        <v>44981</v>
+      <c r="B176" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C176" s="1"/>
     </row>
@@ -14693,8 +15479,8 @@
       <c r="A177" s="1" t="s">
         <v>4095</v>
       </c>
-      <c r="B177" s="2">
-        <v>44981</v>
+      <c r="B177" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C177" s="1"/>
     </row>
@@ -14702,8 +15488,8 @@
       <c r="A178" s="1" t="s">
         <v>4096</v>
       </c>
-      <c r="B178" s="2">
-        <v>44981</v>
+      <c r="B178" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C178" s="1"/>
     </row>
@@ -14711,8 +15497,8 @@
       <c r="A179" s="1" t="s">
         <v>4097</v>
       </c>
-      <c r="B179" s="2">
-        <v>44981</v>
+      <c r="B179" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C179" s="1"/>
     </row>
@@ -14720,8 +15506,8 @@
       <c r="A180" s="1" t="s">
         <v>4098</v>
       </c>
-      <c r="B180" s="2">
-        <v>44981</v>
+      <c r="B180" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C180" s="1"/>
     </row>
@@ -14729,8 +15515,8 @@
       <c r="A181" s="1" t="s">
         <v>4099</v>
       </c>
-      <c r="B181" s="2">
-        <v>44981</v>
+      <c r="B181" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C181" s="1"/>
     </row>
@@ -14738,8 +15524,8 @@
       <c r="A182" s="1" t="s">
         <v>4100</v>
       </c>
-      <c r="B182" s="2">
-        <v>44981</v>
+      <c r="B182" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C182" s="1"/>
     </row>
@@ -14747,8 +15533,8 @@
       <c r="A183" s="1" t="s">
         <v>4101</v>
       </c>
-      <c r="B183" s="2">
-        <v>44981</v>
+      <c r="B183" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C183" s="1"/>
     </row>
@@ -14756,8 +15542,8 @@
       <c r="A184" s="1" t="s">
         <v>4102</v>
       </c>
-      <c r="B184" s="2">
-        <v>44981</v>
+      <c r="B184" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C184" s="1"/>
     </row>
@@ -14765,8 +15551,8 @@
       <c r="A185" s="1" t="s">
         <v>4103</v>
       </c>
-      <c r="B185" s="2">
-        <v>44981</v>
+      <c r="B185" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C185" s="1"/>
     </row>
@@ -14774,8 +15560,8 @@
       <c r="A186" s="1" t="s">
         <v>4104</v>
       </c>
-      <c r="B186" s="2">
-        <v>44981</v>
+      <c r="B186" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C186" s="1"/>
     </row>
@@ -14783,8 +15569,8 @@
       <c r="A187" s="1" t="s">
         <v>4105</v>
       </c>
-      <c r="B187" s="2">
-        <v>44981</v>
+      <c r="B187" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C187" s="1"/>
     </row>
@@ -14792,8 +15578,8 @@
       <c r="A188" s="1" t="s">
         <v>4106</v>
       </c>
-      <c r="B188" s="2">
-        <v>44981</v>
+      <c r="B188" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C188" s="1"/>
     </row>
@@ -14801,8 +15587,8 @@
       <c r="A189" s="1" t="s">
         <v>4107</v>
       </c>
-      <c r="B189" s="2">
-        <v>44981</v>
+      <c r="B189" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C189" s="1"/>
     </row>
@@ -14810,8 +15596,8 @@
       <c r="A190" s="1" t="s">
         <v>4108</v>
       </c>
-      <c r="B190" s="2">
-        <v>44981</v>
+      <c r="B190" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C190" s="1"/>
     </row>
@@ -14819,8 +15605,8 @@
       <c r="A191" s="1" t="s">
         <v>4109</v>
       </c>
-      <c r="B191" s="2">
-        <v>44981</v>
+      <c r="B191" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C191" s="1"/>
     </row>
@@ -14828,8 +15614,8 @@
       <c r="A192" s="1" t="s">
         <v>4110</v>
       </c>
-      <c r="B192" s="2">
-        <v>44981</v>
+      <c r="B192" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C192" s="1"/>
     </row>
@@ -14837,8 +15623,8 @@
       <c r="A193" s="1" t="s">
         <v>4111</v>
       </c>
-      <c r="B193" s="2">
-        <v>44981</v>
+      <c r="B193" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C193" s="1"/>
     </row>
@@ -14846,8 +15632,8 @@
       <c r="A194" s="1" t="s">
         <v>4112</v>
       </c>
-      <c r="B194" s="2">
-        <v>44981</v>
+      <c r="B194" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C194" s="1"/>
     </row>
@@ -14855,8 +15641,8 @@
       <c r="A195" s="1" t="s">
         <v>4113</v>
       </c>
-      <c r="B195" s="2">
-        <v>44981</v>
+      <c r="B195" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C195" s="1"/>
     </row>
@@ -14864,8 +15650,8 @@
       <c r="A196" s="1" t="s">
         <v>4114</v>
       </c>
-      <c r="B196" s="2">
-        <v>44981</v>
+      <c r="B196" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C196" s="1"/>
     </row>
@@ -14873,8 +15659,8 @@
       <c r="A197" s="1" t="s">
         <v>4115</v>
       </c>
-      <c r="B197" s="2">
-        <v>44981</v>
+      <c r="B197" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C197" s="1"/>
     </row>
@@ -14882,8 +15668,8 @@
       <c r="A198" s="1" t="s">
         <v>4116</v>
       </c>
-      <c r="B198" s="2">
-        <v>44981</v>
+      <c r="B198" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C198" s="1"/>
     </row>
@@ -14891,8 +15677,8 @@
       <c r="A199" s="1" t="s">
         <v>4117</v>
       </c>
-      <c r="B199" s="2">
-        <v>44981</v>
+      <c r="B199" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C199" s="1"/>
     </row>
@@ -14900,8 +15686,8 @@
       <c r="A200" s="1" t="s">
         <v>4118</v>
       </c>
-      <c r="B200" s="2">
-        <v>44981</v>
+      <c r="B200" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C200" s="1"/>
     </row>
@@ -14909,8 +15695,8 @@
       <c r="A201" s="1" t="s">
         <v>4119</v>
       </c>
-      <c r="B201" s="2">
-        <v>44981</v>
+      <c r="B201" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C201" s="1"/>
     </row>
@@ -14918,8 +15704,8 @@
       <c r="A202" s="1" t="s">
         <v>4120</v>
       </c>
-      <c r="B202" s="2">
-        <v>44981</v>
+      <c r="B202" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C202" s="1"/>
     </row>
@@ -14927,8 +15713,8 @@
       <c r="A203" s="1" t="s">
         <v>4121</v>
       </c>
-      <c r="B203" s="2">
-        <v>44981</v>
+      <c r="B203" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C203" s="1"/>
     </row>
@@ -14936,8 +15722,8 @@
       <c r="A204" s="1" t="s">
         <v>4122</v>
       </c>
-      <c r="B204" s="2">
-        <v>44981</v>
+      <c r="B204" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C204" s="1"/>
     </row>
@@ -14945,8 +15731,8 @@
       <c r="A205" s="1" t="s">
         <v>4123</v>
       </c>
-      <c r="B205" s="2">
-        <v>44981</v>
+      <c r="B205" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C205" s="1"/>
     </row>
@@ -14954,8 +15740,8 @@
       <c r="A206" s="1" t="s">
         <v>4124</v>
       </c>
-      <c r="B206" s="2">
-        <v>44981</v>
+      <c r="B206" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C206" s="1"/>
     </row>
@@ -14963,8 +15749,8 @@
       <c r="A207" s="1" t="s">
         <v>4125</v>
       </c>
-      <c r="B207" s="2">
-        <v>44981</v>
+      <c r="B207" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C207" s="1"/>
     </row>
@@ -14972,8 +15758,8 @@
       <c r="A208" s="1" t="s">
         <v>4126</v>
       </c>
-      <c r="B208" s="2">
-        <v>44981</v>
+      <c r="B208" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C208" s="1"/>
     </row>
@@ -14981,8 +15767,8 @@
       <c r="A209" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="B209" s="2">
-        <v>44981</v>
+      <c r="B209" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C209" s="1"/>
     </row>
@@ -14990,8 +15776,8 @@
       <c r="A210" s="1" t="s">
         <v>4128</v>
       </c>
-      <c r="B210" s="2">
-        <v>44981</v>
+      <c r="B210" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C210" s="1"/>
     </row>
@@ -14999,8 +15785,8 @@
       <c r="A211" s="1" t="s">
         <v>4129</v>
       </c>
-      <c r="B211" s="2">
-        <v>44981</v>
+      <c r="B211" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C211" s="1"/>
     </row>
@@ -15008,8 +15794,8 @@
       <c r="A212" s="1" t="s">
         <v>4130</v>
       </c>
-      <c r="B212" s="2">
-        <v>44981</v>
+      <c r="B212" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C212" s="1"/>
     </row>
@@ -15017,8 +15803,8 @@
       <c r="A213" s="1" t="s">
         <v>4131</v>
       </c>
-      <c r="B213" s="2">
-        <v>44981</v>
+      <c r="B213" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C213" s="1"/>
     </row>
@@ -15026,8 +15812,8 @@
       <c r="A214" s="1" t="s">
         <v>4132</v>
       </c>
-      <c r="B214" s="2">
-        <v>44981</v>
+      <c r="B214" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C214" s="1"/>
     </row>
@@ -15035,8 +15821,8 @@
       <c r="A215" s="1" t="s">
         <v>4133</v>
       </c>
-      <c r="B215" s="2">
-        <v>44981</v>
+      <c r="B215" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C215" s="1"/>
     </row>
@@ -15044,8 +15830,8 @@
       <c r="A216" s="1" t="s">
         <v>4134</v>
       </c>
-      <c r="B216" s="2">
-        <v>44981</v>
+      <c r="B216" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C216" s="1"/>
     </row>
@@ -15053,8 +15839,8 @@
       <c r="A217" s="1" t="s">
         <v>4135</v>
       </c>
-      <c r="B217" s="2">
-        <v>44981</v>
+      <c r="B217" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C217" s="1"/>
     </row>
@@ -15062,8 +15848,8 @@
       <c r="A218" s="1" t="s">
         <v>4131</v>
       </c>
-      <c r="B218" s="2">
-        <v>44981</v>
+      <c r="B218" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C218" s="1"/>
     </row>
@@ -15071,8 +15857,8 @@
       <c r="A219" s="1" t="s">
         <v>4136</v>
       </c>
-      <c r="B219" s="2">
-        <v>44981</v>
+      <c r="B219" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C219" s="1"/>
     </row>
@@ -15080,8 +15866,8 @@
       <c r="A220" s="1" t="s">
         <v>4137</v>
       </c>
-      <c r="B220" s="2">
-        <v>44981</v>
+      <c r="B220" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C220" s="1"/>
     </row>
@@ -15089,8 +15875,8 @@
       <c r="A221" s="1" t="s">
         <v>4138</v>
       </c>
-      <c r="B221" s="2">
-        <v>44981</v>
+      <c r="B221" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C221" s="1"/>
     </row>
@@ -15098,8 +15884,8 @@
       <c r="A222" s="1" t="s">
         <v>4139</v>
       </c>
-      <c r="B222" s="2">
-        <v>44981</v>
+      <c r="B222" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C222" s="1"/>
     </row>
@@ -15107,8 +15893,8 @@
       <c r="A223" s="1" t="s">
         <v>4140</v>
       </c>
-      <c r="B223" s="2">
-        <v>44981</v>
+      <c r="B223" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C223" s="1"/>
     </row>
@@ -15116,8 +15902,8 @@
       <c r="A224" s="1" t="s">
         <v>4141</v>
       </c>
-      <c r="B224" s="2">
-        <v>44981</v>
+      <c r="B224" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C224" s="1"/>
     </row>
@@ -15125,8 +15911,8 @@
       <c r="A225" s="1" t="s">
         <v>4142</v>
       </c>
-      <c r="B225" s="2">
-        <v>44981</v>
+      <c r="B225" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C225" s="1"/>
     </row>
@@ -15134,8 +15920,8 @@
       <c r="A226" s="1" t="s">
         <v>4143</v>
       </c>
-      <c r="B226" s="2">
-        <v>44981</v>
+      <c r="B226" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C226" s="1"/>
     </row>
@@ -15143,8 +15929,8 @@
       <c r="A227" s="1" t="s">
         <v>4144</v>
       </c>
-      <c r="B227" s="2">
-        <v>44981</v>
+      <c r="B227" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C227" s="1"/>
     </row>
@@ -15152,8 +15938,8 @@
       <c r="A228" s="1" t="s">
         <v>4145</v>
       </c>
-      <c r="B228" s="2">
-        <v>44981</v>
+      <c r="B228" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C228" s="1"/>
     </row>
@@ -15161,8 +15947,8 @@
       <c r="A229" s="1" t="s">
         <v>4146</v>
       </c>
-      <c r="B229" s="2">
-        <v>44981</v>
+      <c r="B229" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C229" s="1"/>
     </row>
@@ -15170,8 +15956,8 @@
       <c r="A230" s="1" t="s">
         <v>4147</v>
       </c>
-      <c r="B230" s="2">
-        <v>44981</v>
+      <c r="B230" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C230" s="1"/>
     </row>
@@ -15179,8 +15965,8 @@
       <c r="A231" s="1" t="s">
         <v>4148</v>
       </c>
-      <c r="B231" s="2">
-        <v>44981</v>
+      <c r="B231" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C231" s="1"/>
     </row>
@@ -15188,8 +15974,8 @@
       <c r="A232" s="1" t="s">
         <v>4149</v>
       </c>
-      <c r="B232" s="2">
-        <v>44981</v>
+      <c r="B232" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C232" s="1"/>
     </row>
@@ -15197,8 +15983,8 @@
       <c r="A233" s="1" t="s">
         <v>4150</v>
       </c>
-      <c r="B233" s="2">
-        <v>44981</v>
+      <c r="B233" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C233" s="1"/>
     </row>
@@ -15206,8 +15992,8 @@
       <c r="A234" s="1" t="s">
         <v>4151</v>
       </c>
-      <c r="B234" s="2">
-        <v>44981</v>
+      <c r="B234" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C234" s="1"/>
     </row>
@@ -15215,8 +16001,8 @@
       <c r="A235" s="1" t="s">
         <v>4152</v>
       </c>
-      <c r="B235" s="2">
-        <v>44981</v>
+      <c r="B235" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C235" s="1"/>
     </row>
@@ -15224,8 +16010,8 @@
       <c r="A236" s="1" t="s">
         <v>4153</v>
       </c>
-      <c r="B236" s="2">
-        <v>44981</v>
+      <c r="B236" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C236" s="1"/>
     </row>
@@ -15233,8 +16019,8 @@
       <c r="A237" s="1" t="s">
         <v>4154</v>
       </c>
-      <c r="B237" s="2">
-        <v>44981</v>
+      <c r="B237" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C237" s="1"/>
     </row>
@@ -15242,8 +16028,8 @@
       <c r="A238" s="1" t="s">
         <v>4155</v>
       </c>
-      <c r="B238" s="2">
-        <v>44981</v>
+      <c r="B238" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C238" s="1"/>
     </row>
@@ -15251,8 +16037,8 @@
       <c r="A239" s="1" t="s">
         <v>4156</v>
       </c>
-      <c r="B239" s="2">
-        <v>44981</v>
+      <c r="B239" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C239" s="1"/>
     </row>
@@ -15260,8 +16046,8 @@
       <c r="A240" s="1" t="s">
         <v>4157</v>
       </c>
-      <c r="B240" s="2">
-        <v>44981</v>
+      <c r="B240" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C240" s="1"/>
     </row>
@@ -15269,8 +16055,8 @@
       <c r="A241" s="1" t="s">
         <v>4158</v>
       </c>
-      <c r="B241" s="2">
-        <v>44981</v>
+      <c r="B241" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C241" s="1"/>
     </row>
@@ -15278,8 +16064,8 @@
       <c r="A242" s="1" t="s">
         <v>4159</v>
       </c>
-      <c r="B242" s="2">
-        <v>44981</v>
+      <c r="B242" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C242" s="1"/>
     </row>
@@ -15287,8 +16073,8 @@
       <c r="A243" s="1" t="s">
         <v>4160</v>
       </c>
-      <c r="B243" s="2">
-        <v>44981</v>
+      <c r="B243" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C243" s="1"/>
     </row>
@@ -15296,8 +16082,8 @@
       <c r="A244" s="1" t="s">
         <v>4161</v>
       </c>
-      <c r="B244" s="2">
-        <v>44981</v>
+      <c r="B244" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C244" s="1"/>
     </row>
@@ -15305,8 +16091,8 @@
       <c r="A245" s="1" t="s">
         <v>4162</v>
       </c>
-      <c r="B245" s="2">
-        <v>44981</v>
+      <c r="B245" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C245" s="1"/>
     </row>
@@ -15314,8 +16100,8 @@
       <c r="A246" s="1" t="s">
         <v>4163</v>
       </c>
-      <c r="B246" s="2">
-        <v>44981</v>
+      <c r="B246" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C246" s="1"/>
     </row>
@@ -15323,8 +16109,8 @@
       <c r="A247" s="1" t="s">
         <v>4164</v>
       </c>
-      <c r="B247" s="2">
-        <v>44981</v>
+      <c r="B247" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C247" s="1"/>
     </row>
@@ -15332,8 +16118,8 @@
       <c r="A248" s="1" t="s">
         <v>4165</v>
       </c>
-      <c r="B248" s="2">
-        <v>44981</v>
+      <c r="B248" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C248" s="1"/>
     </row>
@@ -15341,8 +16127,8 @@
       <c r="A249" s="1" t="s">
         <v>4166</v>
       </c>
-      <c r="B249" s="2">
-        <v>44981</v>
+      <c r="B249" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C249" s="1"/>
     </row>
@@ -15350,8 +16136,8 @@
       <c r="A250" s="1" t="s">
         <v>4167</v>
       </c>
-      <c r="B250" s="2">
-        <v>44981</v>
+      <c r="B250" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C250" s="1"/>
     </row>
@@ -15359,8 +16145,8 @@
       <c r="A251" s="1" t="s">
         <v>4168</v>
       </c>
-      <c r="B251" s="2">
-        <v>44981</v>
+      <c r="B251" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C251" s="1"/>
     </row>
@@ -15368,8 +16154,8 @@
       <c r="A252" s="1" t="s">
         <v>4169</v>
       </c>
-      <c r="B252" s="2">
-        <v>44981</v>
+      <c r="B252" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C252" s="1"/>
     </row>
@@ -15377,8 +16163,8 @@
       <c r="A253" s="1" t="s">
         <v>4170</v>
       </c>
-      <c r="B253" s="2">
-        <v>44981</v>
+      <c r="B253" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C253" s="1"/>
     </row>
@@ -15386,8 +16172,8 @@
       <c r="A254" s="1" t="s">
         <v>4171</v>
       </c>
-      <c r="B254" s="2">
-        <v>44981</v>
+      <c r="B254" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C254" s="1"/>
     </row>
@@ -15395,8 +16181,8 @@
       <c r="A255" s="1" t="s">
         <v>4172</v>
       </c>
-      <c r="B255" s="2">
-        <v>44981</v>
+      <c r="B255" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C255" s="1"/>
     </row>
@@ -15404,8 +16190,8 @@
       <c r="A256" s="1" t="s">
         <v>4173</v>
       </c>
-      <c r="B256" s="2">
-        <v>44981</v>
+      <c r="B256" s="1" t="s">
+        <v>4244</v>
       </c>
       <c r="C256" s="1"/>
     </row>
@@ -15413,714 +16199,2810 @@
       <c r="A257" s="1" t="s">
         <v>4174</v>
       </c>
+      <c r="B257" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C257" s="1"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>4175</v>
       </c>
+      <c r="B258" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C258" s="1"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>4176</v>
       </c>
+      <c r="B259" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C259" s="1"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>4177</v>
       </c>
+      <c r="B260" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C260" s="1"/>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>4178</v>
       </c>
+      <c r="B261" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C261" s="1"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>4179</v>
       </c>
+      <c r="B262" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C262" s="1"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>4180</v>
       </c>
+      <c r="B263" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C263" s="1"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>4181</v>
       </c>
+      <c r="B264" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C264" s="1"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>4182</v>
       </c>
+      <c r="B265" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C265" s="1"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>4183</v>
       </c>
+      <c r="B266" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C266" s="1"/>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>4184</v>
       </c>
+      <c r="B267" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C267" s="1"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>4185</v>
       </c>
+      <c r="B268" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C268" s="1"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>4186</v>
       </c>
+      <c r="B269" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C269" s="1"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>4187</v>
       </c>
+      <c r="B270" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C270" s="1"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>4188</v>
       </c>
+      <c r="B271" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C271" s="1"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>4189</v>
       </c>
+      <c r="B272" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C272" s="1"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>4190</v>
       </c>
+      <c r="B273" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C273" s="1"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>4191</v>
       </c>
+      <c r="B274" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C274" s="1"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>4192</v>
       </c>
+      <c r="B275" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C275" s="1"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>4193</v>
       </c>
+      <c r="B276" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C276" s="1"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>4194</v>
       </c>
+      <c r="B277" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C277" s="1"/>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>4195</v>
       </c>
+      <c r="B278" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C278" s="1"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>4196</v>
       </c>
+      <c r="B279" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C279" s="1"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>4197</v>
       </c>
+      <c r="B280" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C280" s="1"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>4198</v>
       </c>
+      <c r="B281" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C281" s="1"/>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>4199</v>
       </c>
+      <c r="B282" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C282" s="1"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>4200</v>
       </c>
+      <c r="B283" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C283" s="1"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>4201</v>
       </c>
+      <c r="B284" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C284" s="1"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>4202</v>
       </c>
+      <c r="B285" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C285" s="1"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>4203</v>
       </c>
+      <c r="B286" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C286" s="1"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>4204</v>
       </c>
+      <c r="B287" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C287" s="1"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>4205</v>
       </c>
+      <c r="B288" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C288" s="1"/>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>4206</v>
       </c>
+      <c r="B289" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C289" s="1"/>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>4207</v>
       </c>
+      <c r="B290" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C290" s="1"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>4208</v>
       </c>
+      <c r="B291" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C291" s="1"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>4209</v>
       </c>
+      <c r="B292" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C292" s="1"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>4210</v>
       </c>
+      <c r="B293" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C293" s="1"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>4211</v>
       </c>
+      <c r="B294" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C294" s="1"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>4212</v>
       </c>
+      <c r="B295" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C295" s="1"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>4213</v>
       </c>
+      <c r="B296" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C296" s="1"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>4214</v>
       </c>
+      <c r="B297" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C297" s="1"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>4215</v>
       </c>
+      <c r="B298" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C298" s="1"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>4216</v>
       </c>
+      <c r="B299" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C299" s="1"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>4217</v>
       </c>
+      <c r="B300" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C300" s="1"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>4218</v>
       </c>
+      <c r="B301" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C301" s="1"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>4219</v>
       </c>
+      <c r="B302" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C302" s="1"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>4220</v>
       </c>
+      <c r="B303" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C303" s="1"/>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>4221</v>
       </c>
+      <c r="B304" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C304" s="1"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>4222</v>
       </c>
+      <c r="B305" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C305" s="1"/>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>4223</v>
       </c>
+      <c r="B306" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C306" s="1"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>4224</v>
       </c>
+      <c r="B307" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C307" s="1"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>4225</v>
       </c>
+      <c r="B308" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C308" s="1"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>4226</v>
       </c>
+      <c r="B309" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C309" s="1"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>4227</v>
       </c>
+      <c r="B310" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C310" s="1"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>4228</v>
       </c>
+      <c r="B311" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C311" s="1"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>4229</v>
       </c>
+      <c r="B312" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C312" s="1"/>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>4230</v>
       </c>
+      <c r="B313" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C313" s="1"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>4231</v>
       </c>
+      <c r="B314" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C314" s="1"/>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>4232</v>
       </c>
+      <c r="B315" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C315" s="1"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>4233</v>
       </c>
+      <c r="B316" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C316" s="1"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>4234</v>
       </c>
+      <c r="B317" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C317" s="1"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>4235</v>
       </c>
+      <c r="B318" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C318" s="1"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>4236</v>
       </c>
+      <c r="B319" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C319" s="1"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>4237</v>
       </c>
+      <c r="B320" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C320" s="1"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>4238</v>
       </c>
+      <c r="B321" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C321" s="1"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>4239</v>
       </c>
+      <c r="B322" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C322" s="1"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>4240</v>
       </c>
+      <c r="B323" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C323" s="1"/>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>4241</v>
       </c>
+      <c r="B324" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C324" s="1"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>4080</v>
       </c>
+      <c r="B325" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C325" s="1"/>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>4242</v>
       </c>
+      <c r="B326" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C326" s="1"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>4243</v>
       </c>
+      <c r="B327" s="1" t="s">
+        <v>4244</v>
+      </c>
       <c r="C327" s="1"/>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>4245</v>
+      </c>
+      <c r="B328" s="2">
+        <v>44984</v>
+      </c>
       <c r="C328" s="1"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>4246</v>
+      </c>
+      <c r="B329" s="2">
+        <v>44984</v>
+      </c>
       <c r="C329" s="1"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>4247</v>
+      </c>
+      <c r="B330" s="2">
+        <v>44984</v>
+      </c>
       <c r="C330" s="1"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>4248</v>
+      </c>
+      <c r="B331" s="2">
+        <v>44984</v>
+      </c>
       <c r="C331" s="1"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>4249</v>
+      </c>
+      <c r="B332" s="2">
+        <v>44984</v>
+      </c>
       <c r="C332" s="1"/>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>4250</v>
+      </c>
+      <c r="B333" s="2">
+        <v>44984</v>
+      </c>
       <c r="C333" s="1"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>4251</v>
+      </c>
+      <c r="B334" s="2">
+        <v>44984</v>
+      </c>
       <c r="C334" s="1"/>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>4252</v>
+      </c>
+      <c r="B335" s="2">
+        <v>44984</v>
+      </c>
       <c r="C335" s="1"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>4253</v>
+      </c>
+      <c r="B336" s="2">
+        <v>44984</v>
+      </c>
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B337" s="2">
+        <v>44984</v>
+      </c>
       <c r="C337" s="1"/>
     </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B338" s="2">
+        <v>44984</v>
+      </c>
       <c r="C338" s="1"/>
     </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B339" s="2">
+        <v>44984</v>
+      </c>
       <c r="C339" s="1"/>
     </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B340" s="2">
+        <v>44984</v>
+      </c>
       <c r="C340" s="1"/>
     </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>4258</v>
+      </c>
+      <c r="B341" s="2">
+        <v>44984</v>
+      </c>
       <c r="C341" s="1"/>
     </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B342" s="2">
+        <v>44984</v>
+      </c>
       <c r="C342" s="1"/>
     </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B343" s="2">
+        <v>44984</v>
+      </c>
       <c r="C343" s="1"/>
     </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>4261</v>
+      </c>
+      <c r="B344" s="2">
+        <v>44984</v>
+      </c>
       <c r="C344" s="1"/>
     </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>4262</v>
+      </c>
+      <c r="B345" s="2">
+        <v>44984</v>
+      </c>
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>4263</v>
+      </c>
+      <c r="B346" s="2">
+        <v>44984</v>
+      </c>
       <c r="C346" s="1"/>
     </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>4264</v>
+      </c>
+      <c r="B347" s="2">
+        <v>44984</v>
+      </c>
       <c r="C347" s="1"/>
     </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>4265</v>
+      </c>
+      <c r="B348" s="2">
+        <v>44984</v>
+      </c>
       <c r="C348" s="1"/>
     </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>4266</v>
+      </c>
+      <c r="B349" s="2">
+        <v>44984</v>
+      </c>
       <c r="C349" s="1"/>
     </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>4267</v>
+      </c>
+      <c r="B350" s="2">
+        <v>44984</v>
+      </c>
       <c r="C350" s="1"/>
     </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>4268</v>
+      </c>
+      <c r="B351" s="2">
+        <v>44984</v>
+      </c>
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>4269</v>
+      </c>
+      <c r="B352" s="2">
+        <v>44984</v>
+      </c>
       <c r="C352" s="1"/>
     </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>4270</v>
+      </c>
+      <c r="B353" s="2">
+        <v>44984</v>
+      </c>
       <c r="C353" s="1"/>
     </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>4271</v>
+      </c>
+      <c r="B354" s="2">
+        <v>44984</v>
+      </c>
       <c r="C354" s="1"/>
     </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>4272</v>
+      </c>
+      <c r="B355" s="2">
+        <v>44984</v>
+      </c>
       <c r="C355" s="1"/>
     </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>4273</v>
+      </c>
+      <c r="B356" s="2">
+        <v>44984</v>
+      </c>
       <c r="C356" s="1"/>
     </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B357" s="2">
+        <v>44984</v>
+      </c>
       <c r="C357" s="1"/>
     </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>4275</v>
+      </c>
+      <c r="B358" s="2">
+        <v>44984</v>
+      </c>
       <c r="C358" s="1"/>
     </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>4276</v>
+      </c>
+      <c r="B359" s="2">
+        <v>44984</v>
+      </c>
       <c r="C359" s="1"/>
     </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>4277</v>
+      </c>
+      <c r="B360" s="2">
+        <v>44984</v>
+      </c>
       <c r="C360" s="1"/>
     </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>4278</v>
+      </c>
+      <c r="B361" s="2">
+        <v>44984</v>
+      </c>
       <c r="C361" s="1"/>
     </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>4279</v>
+      </c>
+      <c r="B362" s="2">
+        <v>44984</v>
+      </c>
       <c r="C362" s="1"/>
     </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B363" s="2">
+        <v>44984</v>
+      </c>
       <c r="C363" s="1"/>
     </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>4281</v>
+      </c>
+      <c r="B364" s="2">
+        <v>44984</v>
+      </c>
       <c r="C364" s="1"/>
     </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>4282</v>
+      </c>
+      <c r="B365" s="2">
+        <v>44984</v>
+      </c>
       <c r="C365" s="1"/>
     </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B366" s="2">
+        <v>44984</v>
+      </c>
       <c r="C366" s="1"/>
     </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>4284</v>
+      </c>
+      <c r="B367" s="2">
+        <v>44984</v>
+      </c>
       <c r="C367" s="1"/>
     </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>4285</v>
+      </c>
+      <c r="B368" s="2">
+        <v>44984</v>
+      </c>
       <c r="C368" s="1"/>
     </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>4286</v>
+      </c>
+      <c r="B369" s="2">
+        <v>44984</v>
+      </c>
       <c r="C369" s="1"/>
     </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>4287</v>
+      </c>
+      <c r="B370" s="2">
+        <v>44984</v>
+      </c>
       <c r="C370" s="1"/>
     </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B371" s="2">
+        <v>44984</v>
+      </c>
       <c r="C371" s="1"/>
     </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B372" s="2">
+        <v>44984</v>
+      </c>
       <c r="C372" s="1"/>
     </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B373" s="2">
+        <v>44984</v>
+      </c>
       <c r="C373" s="1"/>
     </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B374" s="2">
+        <v>44984</v>
+      </c>
       <c r="C374" s="1"/>
     </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B375" s="2">
+        <v>44984</v>
+      </c>
       <c r="C375" s="1"/>
     </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>4293</v>
+      </c>
+      <c r="B376" s="2">
+        <v>44984</v>
+      </c>
       <c r="C376" s="1"/>
     </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B377" s="2">
+        <v>44984</v>
+      </c>
       <c r="C377" s="1"/>
     </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B378" s="2">
+        <v>44984</v>
+      </c>
       <c r="C378" s="1"/>
     </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>4296</v>
+      </c>
+      <c r="B379" s="2">
+        <v>44984</v>
+      </c>
       <c r="C379" s="1"/>
     </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>4297</v>
+      </c>
+      <c r="B380" s="2">
+        <v>44984</v>
+      </c>
       <c r="C380" s="1"/>
     </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B381" s="2">
+        <v>44984</v>
+      </c>
       <c r="C381" s="1"/>
     </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>4299</v>
+      </c>
+      <c r="B382" s="2">
+        <v>44984</v>
+      </c>
       <c r="C382" s="1"/>
     </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B383" s="2">
+        <v>44984</v>
+      </c>
       <c r="C383" s="1"/>
     </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B384" s="2">
+        <v>44984</v>
+      </c>
       <c r="C384" s="1"/>
     </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>4302</v>
+      </c>
+      <c r="B385" s="2">
+        <v>44984</v>
+      </c>
       <c r="C385" s="1"/>
     </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B386" s="2">
+        <v>44984</v>
+      </c>
       <c r="C386" s="1"/>
     </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B387" s="2">
+        <v>44984</v>
+      </c>
       <c r="C387" s="1"/>
     </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>4305</v>
+      </c>
+      <c r="B388" s="2">
+        <v>44984</v>
+      </c>
       <c r="C388" s="1"/>
     </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B389" s="2">
+        <v>44984</v>
+      </c>
       <c r="C389" s="1"/>
     </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B390" s="2">
+        <v>44984</v>
+      </c>
       <c r="C390" s="1"/>
     </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B391" s="2">
+        <v>44984</v>
+      </c>
       <c r="C391" s="1"/>
     </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B392" s="2">
+        <v>44984</v>
+      </c>
       <c r="C392" s="1"/>
     </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B393" s="2">
+        <v>44984</v>
+      </c>
       <c r="C393" s="1"/>
     </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B394" s="2">
+        <v>44984</v>
+      </c>
       <c r="C394" s="1"/>
     </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B395" s="2">
+        <v>44984</v>
+      </c>
       <c r="C395" s="1"/>
     </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B396" s="2">
+        <v>44984</v>
+      </c>
       <c r="C396" s="1"/>
     </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>4314</v>
+      </c>
+      <c r="B397" s="2">
+        <v>44984</v>
+      </c>
       <c r="C397" s="1"/>
     </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B398" s="2">
+        <v>44984</v>
+      </c>
       <c r="C398" s="1"/>
     </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B399" s="2">
+        <v>44984</v>
+      </c>
       <c r="C399" s="1"/>
     </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B400" s="2">
+        <v>44984</v>
+      </c>
       <c r="C400" s="1"/>
     </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>4318</v>
+      </c>
+      <c r="B401" s="2">
+        <v>44984</v>
+      </c>
       <c r="C401" s="1"/>
     </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B402" s="2">
+        <v>44984</v>
+      </c>
       <c r="C402" s="1"/>
     </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>4320</v>
+      </c>
+      <c r="B403" s="2">
+        <v>44984</v>
+      </c>
       <c r="C403" s="1"/>
     </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>4321</v>
+      </c>
+      <c r="B404" s="2">
+        <v>44984</v>
+      </c>
       <c r="C404" s="1"/>
     </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>4322</v>
+      </c>
+      <c r="B405" s="2">
+        <v>44984</v>
+      </c>
       <c r="C405" s="1"/>
     </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>4323</v>
+      </c>
+      <c r="B406" s="2">
+        <v>44984</v>
+      </c>
       <c r="C406" s="1"/>
     </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B407" s="2">
+        <v>44984</v>
+      </c>
       <c r="C407" s="1"/>
     </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>4325</v>
+      </c>
+      <c r="B408" s="2">
+        <v>44984</v>
+      </c>
       <c r="C408" s="1"/>
     </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B409" s="2">
+        <v>44984</v>
+      </c>
       <c r="C409" s="1"/>
     </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B410" s="2">
+        <v>44984</v>
+      </c>
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B411" s="2">
+        <v>44984</v>
+      </c>
       <c r="C411" s="1"/>
     </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>4329</v>
+      </c>
+      <c r="B412" s="2">
+        <v>44984</v>
+      </c>
       <c r="C412" s="1"/>
     </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B413" s="2">
+        <v>44984</v>
+      </c>
       <c r="C413" s="1"/>
     </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B414" s="2">
+        <v>44984</v>
+      </c>
       <c r="C414" s="1"/>
     </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B415" s="2">
+        <v>44984</v>
+      </c>
       <c r="C415" s="1"/>
     </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B416" s="2">
+        <v>44984</v>
+      </c>
       <c r="C416" s="1"/>
     </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B417" s="2">
+        <v>44984</v>
+      </c>
       <c r="C417" s="1"/>
     </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B418" s="2">
+        <v>44984</v>
+      </c>
       <c r="C418" s="1"/>
     </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B419" s="2">
+        <v>44984</v>
+      </c>
       <c r="C419" s="1"/>
     </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B420" s="2">
+        <v>44984</v>
+      </c>
       <c r="C420" s="1"/>
     </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B421" s="2">
+        <v>44984</v>
+      </c>
       <c r="C421" s="1"/>
     </row>
-    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B422" s="2">
+        <v>44984</v>
+      </c>
       <c r="C422" s="1"/>
     </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B423" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B424" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B425" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B426" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B427" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>4345</v>
+      </c>
+      <c r="B428" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B429" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B430" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B431" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B432" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B433" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B434" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B435" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B436" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B437" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B438" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B439" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B440" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B441" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B442" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B443" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B444" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B445" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>4363</v>
+      </c>
+      <c r="B446" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B447" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B448" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B449" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B450" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B451" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B452" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B453" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B454" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B455" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B456" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B457" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B458" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B459" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B460" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B461" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B462" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B463" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B464" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B465" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B466" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B467" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B468" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B469" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B470" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B471" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B472" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B473" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B474" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>4392</v>
+      </c>
+      <c r="B475" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B476" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B477" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>4395</v>
+      </c>
+      <c r="B478" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B479" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B480" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B481" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B482" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>4400</v>
+      </c>
+      <c r="B483" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B484" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B485" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B486" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B487" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B488" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>4406</v>
+      </c>
+      <c r="B489" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B490" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B491" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B492" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B493" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B494" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B495" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>4413</v>
+      </c>
+      <c r="B496" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B497" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>4415</v>
+      </c>
+      <c r="B498" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>4416</v>
+      </c>
+      <c r="B499" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>4417</v>
+      </c>
+      <c r="B500" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B501" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>4419</v>
+      </c>
+      <c r="B502" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>4420</v>
+      </c>
+      <c r="B503" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>4421</v>
+      </c>
+      <c r="B504" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B505" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>4423</v>
+      </c>
+      <c r="B506" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B507" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>4425</v>
+      </c>
+      <c r="B508" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B509" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>4427</v>
+      </c>
+      <c r="B510" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B511" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>4429</v>
+      </c>
+      <c r="B512" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>4430</v>
+      </c>
+      <c r="B513" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B514" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B515" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>4433</v>
+      </c>
+      <c r="B516" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>4434</v>
+      </c>
+      <c r="B517" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>4435</v>
+      </c>
+      <c r="B518" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>4436</v>
+      </c>
+      <c r="B519" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>4437</v>
+      </c>
+      <c r="B520" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>4438</v>
+      </c>
+      <c r="B521" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>4439</v>
+      </c>
+      <c r="B522" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>4440</v>
+      </c>
+      <c r="B523" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>4441</v>
+      </c>
+      <c r="B524" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>4442</v>
+      </c>
+      <c r="B525" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>4443</v>
+      </c>
+      <c r="B526" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>4444</v>
+      </c>
+      <c r="B527" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>4445</v>
+      </c>
+      <c r="B528" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>4446</v>
+      </c>
+      <c r="B529" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>4447</v>
+      </c>
+      <c r="B530" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>4448</v>
+      </c>
+      <c r="B531" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B532" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>4450</v>
+      </c>
+      <c r="B533" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>4451</v>
+      </c>
+      <c r="B534" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>4452</v>
+      </c>
+      <c r="B535" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>4453</v>
+      </c>
+      <c r="B536" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>4454</v>
+      </c>
+      <c r="B537" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>4455</v>
+      </c>
+      <c r="B538" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>4456</v>
+      </c>
+      <c r="B539" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>4457</v>
+      </c>
+      <c r="B540" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>4458</v>
+      </c>
+      <c r="B541" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>4459</v>
+      </c>
+      <c r="B542" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>4460</v>
+      </c>
+      <c r="B543" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>4461</v>
+      </c>
+      <c r="B544" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>4462</v>
+      </c>
+      <c r="B545" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>4463</v>
+      </c>
+      <c r="B546" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>4464</v>
+      </c>
+      <c r="B547" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>4465</v>
+      </c>
+      <c r="B548" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>4466</v>
+      </c>
+      <c r="B549" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>4467</v>
+      </c>
+      <c r="B550" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>4468</v>
+      </c>
+      <c r="B551" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>4469</v>
+      </c>
+      <c r="B552" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>4470</v>
+      </c>
+      <c r="B553" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>4471</v>
+      </c>
+      <c r="B554" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>4472</v>
+      </c>
+      <c r="B555" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>4473</v>
+      </c>
+      <c r="B556" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>4474</v>
+      </c>
+      <c r="B557" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>4475</v>
+      </c>
+      <c r="B558" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B559" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>4477</v>
+      </c>
+      <c r="B560" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B561" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>4479</v>
+      </c>
+      <c r="B562" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>4480</v>
+      </c>
+      <c r="B563" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>4481</v>
+      </c>
+      <c r="B564" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B565" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>4483</v>
+      </c>
+      <c r="B566" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>4484</v>
+      </c>
+      <c r="B567" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>4485</v>
+      </c>
+      <c r="B568" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>4486</v>
+      </c>
+      <c r="B569" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>4487</v>
+      </c>
+      <c r="B570" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>4488</v>
+      </c>
+      <c r="B571" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>4489</v>
+      </c>
+      <c r="B572" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B573" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B574" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>4492</v>
+      </c>
+      <c r="B575" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>4493</v>
+      </c>
+      <c r="B576" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>4494</v>
+      </c>
+      <c r="B577" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>4495</v>
+      </c>
+      <c r="B578" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B579" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B580" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>4498</v>
+      </c>
+      <c r="B581" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>4499</v>
+      </c>
+      <c r="B582" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>4500</v>
+      </c>
+      <c r="B583" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>4501</v>
+      </c>
+      <c r="B584" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>4502</v>
+      </c>
+      <c r="B585" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>4503</v>
+      </c>
+      <c r="B586" s="2">
+        <v>44984</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
